--- a/Jogos_da_Semana_FlashScore_2025-03-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-30.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J2" t="n">
         <v>1.07</v>
@@ -719,7 +719,7 @@
         <v>301</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="n">
         <v>19</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J3" t="n">
         <v>1.06</v>
@@ -790,10 +790,10 @@
         <v>3.5</v>
       </c>
       <c r="N3" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="O3" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="P3" t="n">
         <v>1.4</v>
@@ -808,7 +808,7 @@
         <v>1.95</v>
       </c>
       <c r="T3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U3" t="n">
         <v>21</v>
@@ -829,7 +829,7 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB3" t="n">
         <v>15</v>
@@ -844,7 +844,7 @@
         <v>7</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG3" t="n">
         <v>8.5</v>
@@ -1156,10 +1156,10 @@
         <v>3.4</v>
       </c>
       <c r="N6" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="O6" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="P6" t="n">
         <v>1.44</v>
@@ -1394,10 +1394,10 @@
         <v>13</v>
       </c>
       <c r="L8" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N8" t="n">
         <v>1.67</v>
@@ -1516,10 +1516,10 @@
         <v>9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N9" t="n">
         <v>2.1</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J10" t="n">
         <v>1.06</v>
@@ -1638,16 +1638,16 @@
         <v>10</v>
       </c>
       <c r="L10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M10" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="P10" t="n">
         <v>1.4</v>
@@ -1665,10 +1665,10 @@
         <v>11</v>
       </c>
       <c r="U10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W10" t="n">
         <v>41</v>
@@ -1766,10 +1766,10 @@
         <v>3.75</v>
       </c>
       <c r="N11" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P11" t="n">
         <v>1.36</v>
@@ -1867,67 +1867,67 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J12" t="n">
         <v>1.06</v>
       </c>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N12" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="O12" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="P12" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R12" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S12" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U12" t="n">
         <v>9</v>
       </c>
       <c r="V12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W12" t="n">
         <v>17</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB12" t="n">
         <v>15</v>
@@ -1936,7 +1936,7 @@
         <v>51</v>
       </c>
       <c r="AD12" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE12" t="n">
         <v>10</v>
@@ -1951,10 +1951,10 @@
         <v>41</v>
       </c>
       <c r="AI12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
@@ -2010,10 +2010,10 @@
         <v>4</v>
       </c>
       <c r="N13" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O13" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P13" t="n">
         <v>1.33</v>
@@ -2132,10 +2132,10 @@
         <v>3.75</v>
       </c>
       <c r="N14" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="O14" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="P14" t="n">
         <v>1.36</v>
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H15" t="n">
         <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J15" t="n">
         <v>1.02</v>
@@ -2272,7 +2272,7 @@
         <v>2.38</v>
       </c>
       <c r="T15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U15" t="n">
         <v>10</v>
@@ -2281,7 +2281,7 @@
         <v>8.5</v>
       </c>
       <c r="W15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X15" t="n">
         <v>12</v>
@@ -2299,7 +2299,7 @@
         <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD15" t="n">
         <v>126</v>
@@ -2308,7 +2308,7 @@
         <v>19</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG15" t="n">
         <v>15</v>
@@ -2317,10 +2317,10 @@
         <v>51</v>
       </c>
       <c r="AI15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H16" t="n">
         <v>4.75</v>
@@ -2376,10 +2376,10 @@
         <v>5.5</v>
       </c>
       <c r="N16" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O16" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P16" t="n">
         <v>1.25</v>
@@ -2477,19 +2477,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n">
         <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J17" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.44</v>
@@ -2504,16 +2504,16 @@
         <v>1.57</v>
       </c>
       <c r="P17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R17" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T17" t="n">
         <v>8.5</v>
@@ -2543,7 +2543,7 @@
         <v>17</v>
       </c>
       <c r="AC17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD17" t="n">
         <v>401</v>
@@ -2602,7 +2602,7 @@
         <v>1.25</v>
       </c>
       <c r="H18" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="I18" t="n">
         <v>10</v>
@@ -2626,10 +2626,10 @@
         <v>3.4</v>
       </c>
       <c r="P18" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="R18" t="n">
         <v>1.7</v>
@@ -2665,7 +2665,7 @@
         <v>19</v>
       </c>
       <c r="AC18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD18" t="n">
         <v>151</v>
@@ -2677,7 +2677,7 @@
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH18" t="n">
         <v>126</v>
@@ -2858,10 +2858,10 @@
         <v>6.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M20" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N20" t="n">
         <v>2.63</v>
@@ -2968,7 +2968,7 @@
         <v>1.85</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
         <v>4.2</v>
@@ -2977,7 +2977,7 @@
         <v>1.06</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.33</v>
@@ -2986,22 +2986,22 @@
         <v>3.4</v>
       </c>
       <c r="N21" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="P21" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R21" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S21" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T21" t="n">
         <v>7</v>
@@ -3034,7 +3034,7 @@
         <v>51</v>
       </c>
       <c r="AD21" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE21" t="n">
         <v>11</v>
@@ -3218,10 +3218,10 @@
         <v>5.25</v>
       </c>
       <c r="J23" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.57</v>
@@ -3331,13 +3331,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H24" t="n">
         <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="J24" t="n">
         <v>1.1</v>
@@ -3352,10 +3352,10 @@
         <v>2.5</v>
       </c>
       <c r="N24" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P24" t="n">
         <v>1.57</v>
@@ -3364,22 +3364,22 @@
         <v>2.25</v>
       </c>
       <c r="R24" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S24" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U24" t="n">
+        <v>15</v>
+      </c>
+      <c r="V24" t="n">
         <v>13</v>
       </c>
-      <c r="V24" t="n">
-        <v>12</v>
-      </c>
       <c r="W24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X24" t="n">
         <v>34</v>
@@ -3406,16 +3406,16 @@
         <v>6</v>
       </c>
       <c r="AF24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG24" t="n">
         <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ24" t="n">
         <v>41</v>
@@ -3584,10 +3584,10 @@
         <v>3.2</v>
       </c>
       <c r="J26" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K26" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L26" t="n">
         <v>1.62</v>
@@ -3828,28 +3828,28 @@
         <v>3.4</v>
       </c>
       <c r="J28" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="M28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q28" t="n">
         <v>2</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.03</v>
       </c>
       <c r="R28" t="n">
         <v>2.63</v>
@@ -3858,7 +3858,7 @@
         <v>1.44</v>
       </c>
       <c r="T28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U28" t="n">
         <v>10</v>
@@ -3870,13 +3870,13 @@
         <v>26</v>
       </c>
       <c r="X28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y28" t="n">
         <v>51</v>
       </c>
       <c r="Z28" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AA28" t="n">
         <v>6</v>
@@ -3885,7 +3885,7 @@
         <v>23</v>
       </c>
       <c r="AC28" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD28" t="n">
         <v>101</v>
@@ -3953,7 +3953,7 @@
         <v>1.17</v>
       </c>
       <c r="K29" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L29" t="n">
         <v>1.67</v>
@@ -4111,7 +4111,7 @@
         <v>13</v>
       </c>
       <c r="W30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X30" t="n">
         <v>34</v>
@@ -4126,7 +4126,7 @@
         <v>6</v>
       </c>
       <c r="AB30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC30" t="n">
         <v>101</v>
@@ -4144,7 +4144,7 @@
         <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI30" t="n">
         <v>29</v>
@@ -4185,19 +4185,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="H31" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K31" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L31" t="n">
         <v>1.62</v>
@@ -4224,22 +4224,22 @@
         <v>1.53</v>
       </c>
       <c r="T31" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W31" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="X31" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Y31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z31" t="n">
         <v>6</v>
@@ -4257,22 +4257,22 @@
         <v>101</v>
       </c>
       <c r="AE31" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG31" t="n">
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AI31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32">
@@ -4307,19 +4307,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H32" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="I32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K32" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L32" t="n">
         <v>1.67</v>
@@ -4328,10 +4328,10 @@
         <v>2.1</v>
       </c>
       <c r="N32" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P32" t="n">
         <v>1.67</v>
@@ -4346,7 +4346,7 @@
         <v>1.4</v>
       </c>
       <c r="T32" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="U32" t="n">
         <v>6.5</v>
@@ -4364,7 +4364,7 @@
         <v>51</v>
       </c>
       <c r="Z32" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AA32" t="n">
         <v>6.5</v>
@@ -4429,7 +4429,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H33" t="n">
         <v>3.1</v>
@@ -4438,10 +4438,10 @@
         <v>2.05</v>
       </c>
       <c r="J33" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K33" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L33" t="n">
         <v>1.73</v>
@@ -4474,10 +4474,10 @@
         <v>17</v>
       </c>
       <c r="V33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X33" t="n">
         <v>41</v>
@@ -4495,16 +4495,16 @@
         <v>29</v>
       </c>
       <c r="AC33" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AD33" t="n">
         <v>101</v>
       </c>
       <c r="AE33" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG33" t="n">
         <v>11</v>
@@ -4551,19 +4551,19 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I34" t="n">
         <v>3.6</v>
       </c>
       <c r="J34" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K34" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L34" t="n">
         <v>1.73</v>
@@ -4676,10 +4676,10 @@
         <v>2.25</v>
       </c>
       <c r="H35" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I35" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J35" t="n">
         <v>1.13</v>
@@ -4739,7 +4739,7 @@
         <v>21</v>
       </c>
       <c r="AC35" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD35" t="n">
         <v>101</v>
@@ -4795,7 +4795,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="H36" t="n">
         <v>3.1</v>
@@ -4804,10 +4804,10 @@
         <v>4.75</v>
       </c>
       <c r="J36" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K36" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L36" t="n">
         <v>1.67</v>
@@ -4917,10 +4917,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="H37" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I37" t="n">
         <v>3</v>
@@ -5039,13 +5039,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H38" t="n">
         <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J38" t="n">
         <v>1.08</v>
@@ -5108,13 +5108,13 @@
         <v>51</v>
       </c>
       <c r="AD38" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE38" t="n">
         <v>8</v>
       </c>
       <c r="AF38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG38" t="n">
         <v>10</v>
@@ -5123,7 +5123,7 @@
         <v>26</v>
       </c>
       <c r="AI38" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ38" t="n">
         <v>34</v>
@@ -5161,13 +5161,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H39" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J39" t="n">
         <v>1.04</v>
@@ -5188,10 +5188,10 @@
         <v>2.08</v>
       </c>
       <c r="P39" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q39" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R39" t="n">
         <v>1.8</v>
@@ -5215,16 +5215,16 @@
         <v>12</v>
       </c>
       <c r="Y39" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA39" t="n">
         <v>7.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC39" t="n">
         <v>51</v>
@@ -5295,7 +5295,7 @@
         <v>1.03</v>
       </c>
       <c r="K40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L40" t="n">
         <v>1.17</v>
@@ -5527,13 +5527,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="H42" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I42" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -5558,22 +5558,22 @@
         <v>2.22</v>
       </c>
       <c r="T42" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U42" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V42" t="n">
         <v>8.5</v>
       </c>
       <c r="W42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X42" t="n">
         <v>13</v>
       </c>
       <c r="Y42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z42" t="n">
         <v>13</v>
@@ -5582,19 +5582,19 @@
         <v>7.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC42" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD42" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF42" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG42" t="n">
         <v>17</v>
@@ -5603,7 +5603,7 @@
         <v>51</v>
       </c>
       <c r="AI42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ42" t="n">
         <v>41</v>
@@ -5641,46 +5641,46 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H43" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I43" t="n">
         <v>5.25</v>
       </c>
       <c r="J43" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L43" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="M43" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="N43" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O43" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="P43" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R43" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S43" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U43" t="n">
         <v>7.5</v>
@@ -5692,16 +5692,16 @@
         <v>11</v>
       </c>
       <c r="X43" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z43" t="n">
         <v>12</v>
       </c>
-      <c r="Y43" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>13</v>
-      </c>
       <c r="AA43" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB43" t="n">
         <v>17</v>
@@ -5710,16 +5710,16 @@
         <v>51</v>
       </c>
       <c r="AD43" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF43" t="n">
         <v>29</v>
       </c>
       <c r="AG43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH43" t="n">
         <v>67</v>
@@ -5763,94 +5763,94 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="H44" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I44" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K44" t="n">
+        <v>13</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O44" t="n">
         <v>2.15</v>
       </c>
-      <c r="J44" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="P44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T44" t="n">
+        <v>10</v>
+      </c>
+      <c r="U44" t="n">
+        <v>13</v>
+      </c>
+      <c r="V44" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W44" t="n">
+        <v>23</v>
+      </c>
+      <c r="X44" t="n">
         <v>17</v>
       </c>
-      <c r="L44" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M44" t="n">
-        <v>5</v>
-      </c>
-      <c r="N44" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O44" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S44" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T44" t="n">
-        <v>15</v>
-      </c>
-      <c r="U44" t="n">
-        <v>19</v>
-      </c>
-      <c r="V44" t="n">
-        <v>12</v>
-      </c>
-      <c r="W44" t="n">
-        <v>34</v>
-      </c>
-      <c r="X44" t="n">
-        <v>21</v>
-      </c>
       <c r="Y44" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z44" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA44" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB44" t="n">
         <v>11</v>
       </c>
       <c r="AC44" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD44" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE44" t="n">
         <v>12</v>
       </c>
       <c r="AF44" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AG44" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AH44" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI44" t="n">
         <v>21</v>
       </c>
-      <c r="AI44" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ44" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
@@ -5885,13 +5885,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
         <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J45" t="n">
         <v>1.06</v>
@@ -5906,10 +5906,10 @@
         <v>3.5</v>
       </c>
       <c r="N45" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="O45" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="P45" t="n">
         <v>1.4</v>
@@ -5933,22 +5933,22 @@
         <v>8.5</v>
       </c>
       <c r="W45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X45" t="n">
         <v>13</v>
       </c>
       <c r="Y45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z45" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC45" t="n">
         <v>51</v>
@@ -5957,10 +5957,10 @@
         <v>301</v>
       </c>
       <c r="AE45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF45" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG45" t="n">
         <v>17</v>
@@ -6138,22 +6138,22 @@
         <v>3.7</v>
       </c>
       <c r="J47" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L47" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M47" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N47" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O47" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="P47" t="n">
         <v>1.4</v>
@@ -6263,7 +6263,7 @@
         <v>1.07</v>
       </c>
       <c r="K48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L48" t="n">
         <v>1.33</v>
@@ -7000,10 +7000,10 @@
         <v>2.75</v>
       </c>
       <c r="N54" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O54" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P54" t="n">
         <v>1.5</v>
@@ -7113,7 +7113,7 @@
         <v>1.08</v>
       </c>
       <c r="K55" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L55" t="n">
         <v>1.44</v>
@@ -7229,13 +7229,13 @@
         <v>4.1</v>
       </c>
       <c r="I56" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J56" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K56" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="L56" t="n">
         <v>1.33</v>
@@ -7247,13 +7247,13 @@
         <v>2.05</v>
       </c>
       <c r="O56" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P56" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R56" t="n">
         <v>2.2</v>
@@ -7280,7 +7280,7 @@
         <v>34</v>
       </c>
       <c r="Z56" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA56" t="n">
         <v>8</v>
@@ -7289,7 +7289,7 @@
         <v>21</v>
       </c>
       <c r="AC56" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD56" t="n">
         <v>1250</v>
@@ -7829,13 +7829,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>3.4</v>
       </c>
       <c r="I61" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J61" t="n">
         <v>1.05</v>
@@ -7877,7 +7877,7 @@
         <v>9</v>
       </c>
       <c r="W61" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X61" t="n">
         <v>17</v>
@@ -7913,7 +7913,7 @@
         <v>34</v>
       </c>
       <c r="AI61" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ61" t="n">
         <v>34</v>
@@ -8088,10 +8088,10 @@
         <v>10</v>
       </c>
       <c r="L63" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M63" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N63" t="n">
         <v>2.05</v>
@@ -8320,40 +8320,40 @@
         <v>1.12</v>
       </c>
       <c r="H65" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="I65" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="O65" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="n">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="S65" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="T65" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U65" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="V65" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W65" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X65" t="n">
         <v>9</v>
@@ -8362,13 +8362,13 @@
         <v>25</v>
       </c>
       <c r="Z65" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA65" t="n">
         <v>13</v>
       </c>
       <c r="AB65" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC65" t="n">
         <v>100</v>
@@ -8377,19 +8377,19 @@
         <v>600</v>
       </c>
       <c r="AE65" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AF65" t="n">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="AG65" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AH65" t="n">
         <v>500</v>
       </c>
       <c r="AI65" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="AJ65" t="n">
         <v>120</v>
@@ -8427,10 +8427,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H66" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I66" t="n">
         <v>6</v>
@@ -8438,16 +8438,16 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M66" t="n">
         <v>4.4</v>
       </c>
       <c r="N66" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O66" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
@@ -8458,7 +8458,7 @@
         <v>2.11</v>
       </c>
       <c r="T66" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="U66" t="n">
         <v>7.4</v>
@@ -8470,7 +8470,7 @@
         <v>10.75</v>
       </c>
       <c r="X66" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Y66" t="n">
         <v>15</v>
@@ -8479,13 +8479,13 @@
         <v>11.75</v>
       </c>
       <c r="AA66" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB66" t="n">
         <v>10.25</v>
       </c>
       <c r="AC66" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AD66" t="n">
         <v>175</v>
@@ -8497,7 +8497,7 @@
         <v>37</v>
       </c>
       <c r="AG66" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH66" t="n">
         <v>110</v>
@@ -8562,10 +8562,10 @@
         <v>4</v>
       </c>
       <c r="N67" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O67" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P67" t="n">
         <v>1.36</v>
@@ -8806,10 +8806,10 @@
         <v>3.5</v>
       </c>
       <c r="N69" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O69" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P69" t="n">
         <v>1.4</v>
@@ -8907,13 +8907,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H70" t="n">
         <v>3.5</v>
       </c>
       <c r="I70" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J70" t="n">
         <v>1.04</v>
@@ -8940,10 +8940,10 @@
         <v>3</v>
       </c>
       <c r="R70" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S70" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T70" t="n">
         <v>9</v>
@@ -8988,7 +8988,7 @@
         <v>12</v>
       </c>
       <c r="AH70" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI70" t="n">
         <v>26</v>
@@ -9050,10 +9050,10 @@
         <v>3.75</v>
       </c>
       <c r="N71" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O71" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P71" t="n">
         <v>1.36</v>
@@ -9294,10 +9294,10 @@
         <v>2.63</v>
       </c>
       <c r="N73" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O73" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P73" t="n">
         <v>1.53</v>
@@ -9324,7 +9324,7 @@
         <v>15</v>
       </c>
       <c r="X73" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y73" t="n">
         <v>34</v>
@@ -9404,10 +9404,10 @@
         <v>3.9</v>
       </c>
       <c r="J74" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K74" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="L74" t="n">
         <v>1.3</v>
@@ -9419,7 +9419,7 @@
         <v>2.05</v>
       </c>
       <c r="O74" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P74" t="n">
         <v>1.44</v>
@@ -9452,7 +9452,7 @@
         <v>29</v>
       </c>
       <c r="Z74" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA74" t="n">
         <v>6.5</v>
@@ -9672,13 +9672,13 @@
         <v>3.25</v>
       </c>
       <c r="R76" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S76" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T76" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U76" t="n">
         <v>19</v>
@@ -9714,7 +9714,7 @@
         <v>9.5</v>
       </c>
       <c r="AF76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG76" t="n">
         <v>9</v>
@@ -9883,25 +9883,25 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H78" t="n">
         <v>2.88</v>
       </c>
       <c r="I78" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J78" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K78" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L78" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M78" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N78" t="n">
         <v>2.5</v>
@@ -9916,10 +9916,10 @@
         <v>2.25</v>
       </c>
       <c r="R78" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S78" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T78" t="n">
         <v>6.5</v>
@@ -9952,7 +9952,7 @@
         <v>67</v>
       </c>
       <c r="AD78" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE78" t="n">
         <v>8</v>
@@ -9967,7 +9967,7 @@
         <v>34</v>
       </c>
       <c r="AI78" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ78" t="n">
         <v>41</v>
@@ -10008,7 +10008,7 @@
         <v>2.6</v>
       </c>
       <c r="H79" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I79" t="n">
         <v>2.63</v>
@@ -10020,16 +10020,16 @@
         <v>10</v>
       </c>
       <c r="L79" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M79" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N79" t="n">
         <v>2.05</v>
       </c>
       <c r="O79" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P79" t="n">
         <v>1.44</v>
@@ -10044,10 +10044,10 @@
         <v>1.95</v>
       </c>
       <c r="T79" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U79" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V79" t="n">
         <v>10</v>
@@ -10059,10 +10059,10 @@
         <v>21</v>
       </c>
       <c r="Y79" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z79" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA79" t="n">
         <v>6.5</v>
@@ -10092,7 +10092,7 @@
         <v>21</v>
       </c>
       <c r="AJ79" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80">
@@ -10249,7 +10249,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H81" t="n">
         <v>3</v>
@@ -10258,10 +10258,10 @@
         <v>3.1</v>
       </c>
       <c r="J81" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K81" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L81" t="n">
         <v>1.5</v>
@@ -10291,10 +10291,10 @@
         <v>6.5</v>
       </c>
       <c r="U81" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V81" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W81" t="n">
         <v>23</v>
@@ -10324,7 +10324,7 @@
         <v>7.5</v>
       </c>
       <c r="AF81" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG81" t="n">
         <v>12</v>
@@ -10499,7 +10499,7 @@
         <v>3.4</v>
       </c>
       <c r="I83" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J83" t="n">
         <v>1.05</v>
@@ -10514,10 +10514,10 @@
         <v>3.5</v>
       </c>
       <c r="N83" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O83" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P83" t="n">
         <v>1.4</v>
@@ -10538,7 +10538,7 @@
         <v>11</v>
       </c>
       <c r="V83" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W83" t="n">
         <v>21</v>
@@ -10550,7 +10550,7 @@
         <v>26</v>
       </c>
       <c r="Z83" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA83" t="n">
         <v>6.5</v>
@@ -10571,13 +10571,13 @@
         <v>17</v>
       </c>
       <c r="AG83" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH83" t="n">
         <v>34</v>
       </c>
       <c r="AI83" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ83" t="n">
         <v>34</v>
@@ -10615,19 +10615,19 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H84" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I84" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J84" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K84" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L84" t="n">
         <v>1.4</v>
@@ -10648,13 +10648,13 @@
         <v>2.5</v>
       </c>
       <c r="R84" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S84" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T84" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U84" t="n">
         <v>10</v>
@@ -10687,7 +10687,7 @@
         <v>351</v>
       </c>
       <c r="AE84" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF84" t="n">
         <v>15</v>
@@ -10737,13 +10737,13 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I85" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J85" t="n">
         <v>1.08</v>
@@ -10752,16 +10752,16 @@
         <v>8</v>
       </c>
       <c r="L85" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M85" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N85" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O85" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P85" t="n">
         <v>1.53</v>
@@ -10776,7 +10776,7 @@
         <v>1.73</v>
       </c>
       <c r="T85" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U85" t="n">
         <v>15</v>
@@ -10794,7 +10794,7 @@
         <v>41</v>
       </c>
       <c r="Z85" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA85" t="n">
         <v>6</v>
@@ -10803,10 +10803,10 @@
         <v>17</v>
       </c>
       <c r="AC85" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD85" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE85" t="n">
         <v>6.5</v>
@@ -10815,7 +10815,7 @@
         <v>10</v>
       </c>
       <c r="AG85" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH85" t="n">
         <v>21</v>
@@ -10824,7 +10824,7 @@
         <v>21</v>
       </c>
       <c r="AJ85" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86">
@@ -10996,10 +10996,10 @@
         <v>13</v>
       </c>
       <c r="L87" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M87" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N87" t="n">
         <v>1.75</v>
@@ -11115,7 +11115,7 @@
         <v>1.08</v>
       </c>
       <c r="K88" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L88" t="n">
         <v>1.44</v>
@@ -11130,10 +11130,10 @@
         <v>1.57</v>
       </c>
       <c r="P88" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="R88" t="n">
         <v>2</v>
@@ -11175,7 +11175,7 @@
         <v>1250</v>
       </c>
       <c r="AE88" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF88" t="n">
         <v>11</v>
@@ -11347,7 +11347,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="H90" t="n">
         <v>4.55</v>
@@ -11372,16 +11372,16 @@
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="n">
-        <v>2.16</v>
+        <v>2.19</v>
       </c>
       <c r="S90" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T90" t="n">
         <v>16</v>
       </c>
       <c r="U90" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="V90" t="n">
         <v>21</v>
@@ -11393,7 +11393,7 @@
         <v>80</v>
       </c>
       <c r="Y90" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Z90" t="n">
         <v>11.25</v>
@@ -11411,7 +11411,7 @@
         <v>101</v>
       </c>
       <c r="AE90" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AF90" t="n">
         <v>5.1</v>
@@ -11420,7 +11420,7 @@
         <v>7.4</v>
       </c>
       <c r="AH90" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AI90" t="n">
         <v>9.5</v>
@@ -11476,16 +11476,16 @@
         <v>9</v>
       </c>
       <c r="L91" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M91" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N91" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O91" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P91" t="n">
         <v>1.5</v>
@@ -11564,7 +11564,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>00:10</t>
+          <t>00:15</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -11583,25 +11583,25 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I92" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J92" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K92" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L92" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="M92" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N92" t="n">
         <v>1.36</v>
@@ -11610,46 +11610,46 @@
         <v>3.1</v>
       </c>
       <c r="P92" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Q92" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="R92" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S92" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T92" t="n">
         <v>11</v>
       </c>
       <c r="U92" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V92" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W92" t="n">
         <v>9.5</v>
-      </c>
-      <c r="W92" t="n">
-        <v>9</v>
       </c>
       <c r="X92" t="n">
         <v>10</v>
       </c>
       <c r="Y92" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z92" t="n">
         <v>21</v>
       </c>
       <c r="AA92" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB92" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC92" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD92" t="n">
         <v>151</v>
@@ -11661,16 +11661,16 @@
         <v>51</v>
       </c>
       <c r="AG92" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH92" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI92" t="n">
         <v>51</v>
       </c>
       <c r="AJ92" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93">
@@ -11705,13 +11705,13 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H93" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I93" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J93" t="n">
         <v>1.03</v>
@@ -11720,31 +11720,31 @@
         <v>15</v>
       </c>
       <c r="L93" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M93" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N93" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="O93" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P93" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q93" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R93" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S93" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T93" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U93" t="n">
         <v>13</v>
@@ -11753,16 +11753,16 @@
         <v>9.5</v>
       </c>
       <c r="W93" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X93" t="n">
         <v>17</v>
       </c>
       <c r="Y93" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z93" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA93" t="n">
         <v>7</v>
@@ -11771,13 +11771,13 @@
         <v>12</v>
       </c>
       <c r="AC93" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD93" t="n">
         <v>126</v>
       </c>
       <c r="AE93" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF93" t="n">
         <v>17</v>
@@ -11792,7 +11792,7 @@
         <v>21</v>
       </c>
       <c r="AJ93" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94">
@@ -12076,13 +12076,13 @@
         <v>4.75</v>
       </c>
       <c r="J96" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K96" t="n">
         <v>17</v>
       </c>
       <c r="L96" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
@@ -12198,13 +12198,13 @@
         <v>2.7</v>
       </c>
       <c r="J97" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K97" t="n">
         <v>15</v>
       </c>
       <c r="L97" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M97" t="n">
         <v>4.33</v>
@@ -12246,7 +12246,7 @@
         <v>23</v>
       </c>
       <c r="Z97" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA97" t="n">
         <v>7</v>
@@ -12320,13 +12320,13 @@
         <v>3.7</v>
       </c>
       <c r="J98" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K98" t="n">
         <v>11</v>
       </c>
       <c r="L98" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M98" t="n">
         <v>3.75</v>
@@ -12344,7 +12344,7 @@
         <v>3</v>
       </c>
       <c r="R98" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S98" t="n">
         <v>2.1</v>
@@ -12442,13 +12442,13 @@
         <v>3.4</v>
       </c>
       <c r="J99" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K99" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L99" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M99" t="n">
         <v>3</v>
@@ -12466,10 +12466,10 @@
         <v>2.5</v>
       </c>
       <c r="R99" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S99" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T99" t="n">
         <v>7</v>
@@ -12564,22 +12564,22 @@
         <v>6</v>
       </c>
       <c r="J100" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K100" t="n">
         <v>19</v>
       </c>
       <c r="L100" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M100" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N100" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O100" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P100" t="n">
         <v>1.29</v>
@@ -12588,7 +12588,7 @@
         <v>3.5</v>
       </c>
       <c r="R100" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S100" t="n">
         <v>2</v>
@@ -12686,7 +12686,7 @@
         <v>5.5</v>
       </c>
       <c r="J101" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K101" t="n">
         <v>11</v>
@@ -12695,13 +12695,13 @@
         <v>1.25</v>
       </c>
       <c r="M101" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N101" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O101" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P101" t="n">
         <v>1.4</v>
@@ -12710,10 +12710,10 @@
         <v>2.75</v>
       </c>
       <c r="R101" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S101" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T101" t="n">
         <v>7</v>
@@ -12808,13 +12808,13 @@
         <v>1.38</v>
       </c>
       <c r="J102" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K102" t="n">
         <v>17</v>
       </c>
       <c r="L102" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
@@ -12921,25 +12921,25 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I103" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J103" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K103" t="n">
         <v>7</v>
       </c>
       <c r="L103" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M103" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N103" t="n">
         <v>2.4</v>
@@ -12963,7 +12963,7 @@
         <v>6</v>
       </c>
       <c r="U103" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V103" t="n">
         <v>9.5</v>
@@ -12984,7 +12984,7 @@
         <v>6</v>
       </c>
       <c r="AB103" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC103" t="n">
         <v>67</v>
@@ -12996,7 +12996,7 @@
         <v>9.5</v>
       </c>
       <c r="AF103" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG103" t="n">
         <v>15</v>
@@ -13043,19 +13043,19 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I104" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="J104" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K104" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L104" t="n">
         <v>1.2</v>
@@ -13064,10 +13064,10 @@
         <v>4.33</v>
       </c>
       <c r="N104" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O104" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P104" t="n">
         <v>1.33</v>
@@ -13082,13 +13082,13 @@
         <v>2.2</v>
       </c>
       <c r="T104" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U104" t="n">
         <v>10</v>
       </c>
       <c r="V104" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W104" t="n">
         <v>17</v>
@@ -13103,25 +13103,25 @@
         <v>12</v>
       </c>
       <c r="AA104" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB104" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC104" t="n">
         <v>41</v>
       </c>
       <c r="AD104" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE104" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF104" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG104" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH104" t="n">
         <v>41</v>
@@ -13430,7 +13430,7 @@
         <v>4.33</v>
       </c>
       <c r="N107" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="O107" t="n">
         <v>2.15</v>
@@ -13918,7 +13918,7 @@
         <v>4.33</v>
       </c>
       <c r="N111" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="O111" t="n">
         <v>2.15</v>
@@ -14046,7 +14046,7 @@
         <v>1.62</v>
       </c>
       <c r="P112" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q112" t="n">
         <v>2.5</v>
@@ -14156,19 +14156,19 @@
         <v>6.5</v>
       </c>
       <c r="L113" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M113" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N113" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O113" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P113" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q113" t="n">
         <v>2.25</v>
@@ -14288,7 +14288,7 @@
         <v>1.88</v>
       </c>
       <c r="P114" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q114" t="n">
         <v>2.75</v>
@@ -14383,13 +14383,13 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H115" t="n">
         <v>3.1</v>
       </c>
       <c r="I115" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J115" t="n">
         <v>1.1</v>
@@ -14422,7 +14422,7 @@
         <v>1.67</v>
       </c>
       <c r="T115" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U115" t="n">
         <v>17</v>
@@ -14461,10 +14461,10 @@
         <v>9</v>
       </c>
       <c r="AG115" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH115" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI115" t="n">
         <v>21</v>
@@ -14642,10 +14642,10 @@
         <v>10</v>
       </c>
       <c r="L117" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M117" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N117" t="n">
         <v>2.1</v>
@@ -14871,13 +14871,13 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H119" t="n">
         <v>2.7</v>
       </c>
       <c r="I119" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J119" t="n">
         <v>1.1</v>
@@ -15017,7 +15017,7 @@
         <v>2.25</v>
       </c>
       <c r="O120" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P120" t="n">
         <v>1.5</v>
@@ -15115,7 +15115,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H121" t="n">
         <v>3.1</v>
@@ -15139,13 +15139,13 @@
         <v>2.4</v>
       </c>
       <c r="O121" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P121" t="n">
         <v>1.5</v>
       </c>
-      <c r="P121" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Q121" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="R121" t="n">
         <v>2.1</v>
@@ -15160,7 +15160,7 @@
         <v>17</v>
       </c>
       <c r="V121" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W121" t="n">
         <v>41</v>
@@ -15190,7 +15190,7 @@
         <v>6</v>
       </c>
       <c r="AF121" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG121" t="n">
         <v>9.5</v>
@@ -15202,7 +15202,7 @@
         <v>21</v>
       </c>
       <c r="AJ121" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122">
@@ -15359,94 +15359,94 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="I123" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="J123" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K123" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="L123" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="M123" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="N123" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="O123" t="n">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="P123" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="Q123" t="n">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="R123" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="S123" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="T123" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="U123" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="V123" t="n">
         <v>8</v>
       </c>
       <c r="W123" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="X123" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y123" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Z123" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="AA123" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AB123" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC123" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AD123" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AE123" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF123" t="n">
         <v>37</v>
       </c>
       <c r="AG123" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH123" t="n">
         <v>120</v>
       </c>
       <c r="AI123" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ123" t="n">
         <v>60</v>
-      </c>
-      <c r="AJ123" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="124">
@@ -15481,82 +15481,82 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="H124" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I124" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="J124" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="K124" t="n">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="L124" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="M124" t="n">
-        <v>2.9</v>
+        <v>2.57</v>
       </c>
       <c r="N124" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O124" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="P124" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="Q124" t="n">
-        <v>2.65</v>
+        <v>2.42</v>
       </c>
       <c r="R124" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="S124" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="T124" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="U124" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="V124" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W124" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X124" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y124" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Z124" t="n">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="AA124" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AB124" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AC124" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AD124" t="n">
         <v>1000</v>
       </c>
       <c r="AE124" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF124" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG124" t="n">
         <v>15</v>
@@ -15565,10 +15565,10 @@
         <v>70</v>
       </c>
       <c r="AI124" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ124" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="125">
@@ -15969,19 +15969,19 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H128" t="n">
         <v>3.25</v>
       </c>
       <c r="I128" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J128" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K128" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L128" t="n">
         <v>1.33</v>
@@ -15990,10 +15990,10 @@
         <v>3.25</v>
       </c>
       <c r="N128" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O128" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P128" t="n">
         <v>1.44</v>
@@ -16002,19 +16002,19 @@
         <v>2.63</v>
       </c>
       <c r="R128" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S128" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T128" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U128" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V128" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W128" t="n">
         <v>23</v>
@@ -16041,19 +16041,19 @@
         <v>251</v>
       </c>
       <c r="AE128" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF128" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG128" t="n">
         <v>11</v>
       </c>
       <c r="AH128" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI128" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ128" t="n">
         <v>34</v>
@@ -16097,13 +16097,13 @@
         <v>3.4</v>
       </c>
       <c r="I129" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J129" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K129" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L129" t="n">
         <v>1.33</v>
@@ -16139,7 +16139,7 @@
         <v>12</v>
       </c>
       <c r="W129" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X129" t="n">
         <v>29</v>
@@ -16166,7 +16166,7 @@
         <v>7</v>
       </c>
       <c r="AF129" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG129" t="n">
         <v>9</v>
@@ -16457,13 +16457,13 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H132" t="n">
         <v>3.2</v>
       </c>
       <c r="I132" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J132" t="n">
         <v>1.06</v>
@@ -16499,16 +16499,16 @@
         <v>8</v>
       </c>
       <c r="U132" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V132" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W132" t="n">
         <v>23</v>
       </c>
       <c r="X132" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y132" t="n">
         <v>29</v>
@@ -16532,7 +16532,7 @@
         <v>9</v>
       </c>
       <c r="AF132" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG132" t="n">
         <v>11</v>
@@ -16701,19 +16701,19 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H134" t="n">
         <v>3.1</v>
       </c>
       <c r="I134" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J134" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K134" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L134" t="n">
         <v>1.4</v>
@@ -16722,10 +16722,10 @@
         <v>2.75</v>
       </c>
       <c r="N134" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O134" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P134" t="n">
         <v>1.5</v>
@@ -16746,7 +16746,7 @@
         <v>12</v>
       </c>
       <c r="V134" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W134" t="n">
         <v>26</v>
@@ -16755,16 +16755,16 @@
         <v>23</v>
       </c>
       <c r="Y134" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z134" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA134" t="n">
         <v>6</v>
       </c>
       <c r="AB134" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC134" t="n">
         <v>51</v>
@@ -16773,10 +16773,10 @@
         <v>351</v>
       </c>
       <c r="AE134" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF134" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG134" t="n">
         <v>11</v>
@@ -16788,7 +16788,7 @@
         <v>23</v>
       </c>
       <c r="AJ134" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135">
@@ -16823,13 +16823,13 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H135" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I135" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J135" t="n">
         <v>1.08</v>
@@ -16844,10 +16844,10 @@
         <v>2.63</v>
       </c>
       <c r="N135" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O135" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P135" t="n">
         <v>1.53</v>
@@ -16898,7 +16898,7 @@
         <v>11</v>
       </c>
       <c r="AF135" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG135" t="n">
         <v>19</v>
@@ -16945,19 +16945,19 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="H136" t="n">
         <v>3.1</v>
       </c>
       <c r="I136" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="J136" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K136" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L136" t="n">
         <v>1.44</v>
@@ -16987,16 +16987,16 @@
         <v>7</v>
       </c>
       <c r="U136" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V136" t="n">
         <v>11</v>
       </c>
       <c r="W136" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X136" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y136" t="n">
         <v>41</v>
@@ -17017,16 +17017,16 @@
         <v>1000</v>
       </c>
       <c r="AE136" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF136" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG136" t="n">
         <v>11</v>
       </c>
       <c r="AH136" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI136" t="n">
         <v>26</v>
@@ -17076,10 +17076,10 @@
         <v>2.8</v>
       </c>
       <c r="J137" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K137" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L137" t="n">
         <v>1.53</v>
@@ -17204,16 +17204,16 @@
         <v>11</v>
       </c>
       <c r="L138" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M138" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N138" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O138" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P138" t="n">
         <v>1.4</v>
@@ -17323,7 +17323,7 @@
         <v>1.04</v>
       </c>
       <c r="K139" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L139" t="n">
         <v>1.22</v>
@@ -17332,10 +17332,10 @@
         <v>4</v>
       </c>
       <c r="N139" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O139" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P139" t="n">
         <v>1.36</v>
@@ -17454,10 +17454,10 @@
         <v>3.25</v>
       </c>
       <c r="N140" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O140" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P140" t="n">
         <v>1.44</v>
@@ -17686,10 +17686,10 @@
         <v>3.2</v>
       </c>
       <c r="J142" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K142" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L142" t="n">
         <v>1.25</v>
@@ -17698,10 +17698,10 @@
         <v>3.75</v>
       </c>
       <c r="N142" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O142" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P142" t="n">
         <v>1.36</v>
@@ -17820,10 +17820,10 @@
         <v>3.75</v>
       </c>
       <c r="N143" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O143" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P143" t="n">
         <v>1.36</v>
@@ -18064,10 +18064,10 @@
         <v>3.75</v>
       </c>
       <c r="N145" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O145" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P145" t="n">
         <v>1.4</v>
@@ -18076,16 +18076,16 @@
         <v>2.75</v>
       </c>
       <c r="R145" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S145" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T145" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U145" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V145" t="n">
         <v>11</v>
@@ -18100,7 +18100,7 @@
         <v>29</v>
       </c>
       <c r="Z145" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA145" t="n">
         <v>6.5</v>
@@ -18112,13 +18112,13 @@
         <v>41</v>
       </c>
       <c r="AD145" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE145" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF145" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG145" t="n">
         <v>10</v>
@@ -18127,10 +18127,10 @@
         <v>23</v>
       </c>
       <c r="AI145" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ145" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146">
@@ -18287,52 +18287,52 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H147" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="I147" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="J147" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K147" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L147" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="M147" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="N147" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="O147" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="P147" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="Q147" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="R147" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S147" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T147" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="U147" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V147" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="W147" t="n">
         <v>37</v>
@@ -18344,22 +18344,22 @@
         <v>50</v>
       </c>
       <c r="Z147" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AA147" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB147" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC147" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD147" t="n">
         <v>101</v>
       </c>
       <c r="AE147" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AF147" t="n">
         <v>11</v>
@@ -18371,7 +18371,7 @@
         <v>28</v>
       </c>
       <c r="AI147" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ147" t="n">
         <v>45</v>
@@ -18409,24 +18409,24 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H148" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I148" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M148" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="N148" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="O148" t="n">
         <v>1.6</v>
@@ -18438,37 +18438,37 @@
         <v>2.47</v>
       </c>
       <c r="R148" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="S148" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="T148" t="n">
         <v>5.3</v>
       </c>
       <c r="U148" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="V148" t="n">
         <v>8.75</v>
       </c>
       <c r="W148" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="X148" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y148" t="n">
         <v>40</v>
       </c>
       <c r="Z148" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AA148" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AB148" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC148" t="n">
         <v>150</v>
@@ -18477,22 +18477,22 @@
         <v>101</v>
       </c>
       <c r="AE148" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF148" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG148" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH148" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI148" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ148" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="149">
@@ -18893,19 +18893,19 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H152" t="n">
         <v>3.2</v>
       </c>
       <c r="I152" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J152" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K152" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L152" t="n">
         <v>1.44</v>
@@ -18920,10 +18920,10 @@
         <v>1.53</v>
       </c>
       <c r="P152" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q152" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R152" t="n">
         <v>2.1</v>
@@ -18932,7 +18932,7 @@
         <v>1.67</v>
       </c>
       <c r="T152" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U152" t="n">
         <v>10</v>
@@ -18941,10 +18941,10 @@
         <v>10</v>
       </c>
       <c r="W152" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X152" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y152" t="n">
         <v>41</v>
@@ -18968,7 +18968,7 @@
         <v>7.5</v>
       </c>
       <c r="AF152" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG152" t="n">
         <v>12</v>
@@ -19027,19 +19027,19 @@
         <v>1.06</v>
       </c>
       <c r="K153" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L153" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M153" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N153" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O153" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P153" t="n">
         <v>1.44</v>
@@ -19259,13 +19259,13 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H155" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I155" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J155" t="n">
         <v>1.04</v>
@@ -19274,16 +19274,16 @@
         <v>12</v>
       </c>
       <c r="L155" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M155" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N155" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O155" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P155" t="n">
         <v>1.36</v>
@@ -19292,10 +19292,10 @@
         <v>3</v>
       </c>
       <c r="R155" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S155" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T155" t="n">
         <v>9</v>
@@ -19334,7 +19334,7 @@
         <v>12</v>
       </c>
       <c r="AF155" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG155" t="n">
         <v>12</v>
@@ -19343,7 +19343,7 @@
         <v>34</v>
       </c>
       <c r="AI155" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ155" t="n">
         <v>29</v>
@@ -19381,13 +19381,13 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H156" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="I156" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J156" t="n">
         <v>1.1</v>
@@ -19396,79 +19396,79 @@
         <v>6.2</v>
       </c>
       <c r="L156" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M156" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="N156" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="O156" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P156" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="Q156" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="R156" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="S156" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="T156" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="U156" t="n">
         <v>10.25</v>
       </c>
       <c r="V156" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W156" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X156" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y156" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z156" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="AA156" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AB156" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC156" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AD156" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="AE156" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF156" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG156" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH156" t="n">
         <v>45</v>
       </c>
       <c r="AI156" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ156" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="157">

--- a/Jogos_da_Semana_FlashScore_2025-03-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-30.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J2" t="n">
         <v>1.07</v>
@@ -1156,10 +1156,10 @@
         <v>3.5</v>
       </c>
       <c r="N6" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="O6" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="P6" t="n">
         <v>1.44</v>
@@ -1278,10 +1278,10 @@
         <v>3.2</v>
       </c>
       <c r="N7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O7" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="P7" t="n">
         <v>1.44</v>
@@ -1400,10 +1400,10 @@
         <v>4.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O8" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P8" t="n">
         <v>1.3</v>
@@ -1516,16 +1516,16 @@
         <v>9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M9" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O9" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="P9" t="n">
         <v>1.44</v>
@@ -2010,10 +2010,10 @@
         <v>4</v>
       </c>
       <c r="N13" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="O13" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="P13" t="n">
         <v>1.33</v>
@@ -2254,7 +2254,7 @@
         <v>5.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O15" t="n">
         <v>2.5</v>
@@ -2376,7 +2376,7 @@
         <v>5.5</v>
       </c>
       <c r="N16" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O16" t="n">
         <v>2.5</v>
@@ -2498,10 +2498,10 @@
         <v>2.75</v>
       </c>
       <c r="N17" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P17" t="n">
         <v>1.5</v>
@@ -2730,10 +2730,10 @@
         <v>7</v>
       </c>
       <c r="J19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L19" t="n">
         <v>1.3</v>
@@ -2742,10 +2742,10 @@
         <v>3.5</v>
       </c>
       <c r="N19" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="P19" t="n">
         <v>1.4</v>
@@ -2977,7 +2977,7 @@
         <v>1.06</v>
       </c>
       <c r="K21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L21" t="n">
         <v>1.33</v>
@@ -3218,10 +3218,10 @@
         <v>5.25</v>
       </c>
       <c r="J23" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L23" t="n">
         <v>1.57</v>
@@ -3290,7 +3290,7 @@
         <v>19</v>
       </c>
       <c r="AH23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI23" t="n">
         <v>51</v>
@@ -6516,10 +6516,10 @@
         <v>3.4</v>
       </c>
       <c r="N50" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O50" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P50" t="n">
         <v>1.4</v>
@@ -7232,22 +7232,22 @@
         <v>8</v>
       </c>
       <c r="J56" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L56" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N56" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O56" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P56" t="n">
         <v>1.33</v>
@@ -7360,16 +7360,16 @@
         <v>15</v>
       </c>
       <c r="L57" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M57" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N57" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O57" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P57" t="n">
         <v>1.3</v>
@@ -7598,10 +7598,10 @@
         <v>2.55</v>
       </c>
       <c r="J59" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K59" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L59" t="n">
         <v>1.4</v>
@@ -8206,22 +8206,22 @@
         <v>2.1</v>
       </c>
       <c r="P64" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q64" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R64" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S64" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V64" t="n">
         <v>10</v>
@@ -8233,7 +8233,7 @@
         <v>19</v>
       </c>
       <c r="Y64" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z64" t="n">
         <v>13</v>
@@ -8242,19 +8242,19 @@
         <v>7</v>
       </c>
       <c r="AB64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC64" t="n">
         <v>41</v>
       </c>
       <c r="AD64" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG64" t="n">
         <v>10</v>
@@ -8266,7 +8266,7 @@
         <v>19</v>
       </c>
       <c r="AJ64" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
@@ -9054,7 +9054,7 @@
         <v>3.4</v>
       </c>
       <c r="N71" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O71" t="n">
         <v>1.8</v>
@@ -9765,13 +9765,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H77" t="n">
         <v>3.5</v>
       </c>
       <c r="I77" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J77" t="n">
         <v>1.06</v>
@@ -9780,10 +9780,10 @@
         <v>10</v>
       </c>
       <c r="L77" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M77" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N77" t="n">
         <v>2.05</v>
@@ -9792,10 +9792,10 @@
         <v>1.8</v>
       </c>
       <c r="P77" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R77" t="n">
         <v>1.8</v>
@@ -9807,16 +9807,16 @@
         <v>8</v>
       </c>
       <c r="U77" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V77" t="n">
         <v>9.5</v>
       </c>
       <c r="W77" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X77" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y77" t="n">
         <v>29</v>
@@ -9840,7 +9840,7 @@
         <v>9</v>
       </c>
       <c r="AF77" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG77" t="n">
         <v>11</v>
@@ -9852,7 +9852,7 @@
         <v>23</v>
       </c>
       <c r="AJ77" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78">
@@ -10009,7 +10009,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H79" t="n">
         <v>3.7</v>
@@ -10036,55 +10036,55 @@
         <v>2.05</v>
       </c>
       <c r="P79" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q79" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R79" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S79" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T79" t="n">
         <v>13</v>
       </c>
       <c r="U79" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V79" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W79" t="n">
         <v>41</v>
       </c>
       <c r="X79" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y79" t="n">
         <v>34</v>
       </c>
       <c r="Z79" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA79" t="n">
         <v>7</v>
       </c>
       <c r="AB79" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC79" t="n">
         <v>41</v>
       </c>
       <c r="AD79" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE79" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF79" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG79" t="n">
         <v>8.5</v>
@@ -10093,7 +10093,7 @@
         <v>15</v>
       </c>
       <c r="AI79" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ79" t="n">
         <v>23</v>
@@ -10619,13 +10619,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="H84" t="n">
         <v>3.7</v>
       </c>
       <c r="I84" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="J84" t="n">
         <v>1.04</v>
@@ -10664,16 +10664,16 @@
         <v>15</v>
       </c>
       <c r="V84" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W84" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X84" t="n">
         <v>21</v>
       </c>
       <c r="Y84" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z84" t="n">
         <v>13</v>
@@ -10691,22 +10691,22 @@
         <v>151</v>
       </c>
       <c r="AE84" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG84" t="n">
         <v>9.5</v>
       </c>
       <c r="AH84" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI84" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ84" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
@@ -10753,7 +10753,7 @@
         <v>1.08</v>
       </c>
       <c r="K85" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L85" t="n">
         <v>1.44</v>
@@ -10762,10 +10762,10 @@
         <v>2.63</v>
       </c>
       <c r="N85" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O85" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P85" t="n">
         <v>1.53</v>
@@ -11120,10 +11120,10 @@
         <v>2.75</v>
       </c>
       <c r="N88" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O88" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P88" t="n">
         <v>1.5</v>
@@ -11221,19 +11221,19 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H89" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I89" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="J89" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K89" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L89" t="n">
         <v>1.1</v>
@@ -11242,10 +11242,10 @@
         <v>7</v>
       </c>
       <c r="N89" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="O89" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P89" t="n">
         <v>1.2</v>
@@ -11254,37 +11254,37 @@
         <v>4.33</v>
       </c>
       <c r="R89" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S89" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T89" t="n">
         <v>11</v>
       </c>
       <c r="U89" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V89" t="n">
         <v>9</v>
       </c>
       <c r="W89" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X89" t="n">
         <v>10</v>
       </c>
       <c r="Y89" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z89" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA89" t="n">
         <v>12</v>
       </c>
       <c r="AB89" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC89" t="n">
         <v>41</v>
@@ -11296,13 +11296,13 @@
         <v>29</v>
       </c>
       <c r="AF89" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG89" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH89" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI89" t="n">
         <v>51</v>
@@ -11474,10 +11474,10 @@
         <v>3.6</v>
       </c>
       <c r="J91" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K91" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L91" t="n">
         <v>1.29</v>
@@ -11486,10 +11486,10 @@
         <v>3.5</v>
       </c>
       <c r="N91" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O91" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P91" t="n">
         <v>1.4</v>
@@ -11714,13 +11714,13 @@
         <v>4.75</v>
       </c>
       <c r="J93" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K93" t="n">
         <v>17</v>
       </c>
       <c r="L93" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
@@ -11836,13 +11836,13 @@
         <v>2.7</v>
       </c>
       <c r="J94" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K94" t="n">
         <v>15</v>
       </c>
       <c r="L94" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M94" t="n">
         <v>4.33</v>
@@ -12336,10 +12336,10 @@
         <v>3.75</v>
       </c>
       <c r="N98" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O98" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P98" t="n">
         <v>1.4</v>
@@ -13291,31 +13291,31 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H106" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I106" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J106" t="n">
         <v>1.06</v>
       </c>
       <c r="K106" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L106" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M106" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N106" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O106" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P106" t="n">
         <v>1.4</v>
@@ -13330,7 +13330,7 @@
         <v>1.83</v>
       </c>
       <c r="T106" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U106" t="n">
         <v>21</v>
@@ -13348,10 +13348,10 @@
         <v>41</v>
       </c>
       <c r="Z106" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA106" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB106" t="n">
         <v>15</v>
@@ -13369,7 +13369,7 @@
         <v>8.5</v>
       </c>
       <c r="AG106" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH106" t="n">
         <v>15</v>
@@ -15851,13 +15851,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H127" t="n">
         <v>3.5</v>
       </c>
       <c r="I127" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J127" t="n">
         <v>1.06</v>
@@ -15899,7 +15899,7 @@
         <v>9</v>
       </c>
       <c r="W127" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X127" t="n">
         <v>17</v>
@@ -15908,7 +15908,7 @@
         <v>29</v>
       </c>
       <c r="Z127" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA127" t="n">
         <v>6.5</v>
@@ -15923,7 +15923,7 @@
         <v>351</v>
       </c>
       <c r="AE127" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF127" t="n">
         <v>19</v>
@@ -15982,10 +15982,10 @@
         <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K128" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L128" t="n">
         <v>1.36</v>
@@ -16018,7 +16018,7 @@
         <v>17</v>
       </c>
       <c r="V128" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W128" t="n">
         <v>41</v>
@@ -16054,7 +16054,7 @@
         <v>9</v>
       </c>
       <c r="AH128" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI128" t="n">
         <v>19</v>
@@ -16095,13 +16095,13 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H129" t="n">
         <v>3.2</v>
       </c>
       <c r="I129" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J129" t="n">
         <v>1.06</v>
@@ -16116,10 +16116,10 @@
         <v>3.4</v>
       </c>
       <c r="N129" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O129" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P129" t="n">
         <v>1.44</v>
@@ -16170,7 +16170,7 @@
         <v>9</v>
       </c>
       <c r="AF129" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG129" t="n">
         <v>11</v>
@@ -16238,10 +16238,10 @@
         <v>3.25</v>
       </c>
       <c r="N130" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O130" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P130" t="n">
         <v>1.44</v>
@@ -16583,10 +16583,10 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H133" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I133" t="n">
         <v>2.9</v>
@@ -16625,7 +16625,7 @@
         <v>7</v>
       </c>
       <c r="U133" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V133" t="n">
         <v>11</v>
@@ -16643,13 +16643,13 @@
         <v>7</v>
       </c>
       <c r="AA133" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB133" t="n">
         <v>17</v>
       </c>
       <c r="AC133" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD133" t="n">
         <v>1000</v>
@@ -16661,7 +16661,7 @@
         <v>13</v>
       </c>
       <c r="AG133" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH133" t="n">
         <v>29</v>
@@ -16952,7 +16952,7 @@
         <v>1.75</v>
       </c>
       <c r="H136" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I136" t="n">
         <v>4.33</v>
@@ -16961,7 +16961,7 @@
         <v>1.04</v>
       </c>
       <c r="K136" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L136" t="n">
         <v>1.22</v>
@@ -16976,16 +16976,16 @@
         <v>2.05</v>
       </c>
       <c r="P136" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q136" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R136" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S136" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T136" t="n">
         <v>8</v>
@@ -17036,7 +17036,7 @@
         <v>34</v>
       </c>
       <c r="AJ136" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137">
@@ -18540,10 +18540,10 @@
         <v>3.2</v>
       </c>
       <c r="J149" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K149" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L149" t="n">
         <v>1.44</v>
@@ -18796,10 +18796,10 @@
         <v>3.75</v>
       </c>
       <c r="N151" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="O151" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P151" t="n">
         <v>1.4</v>
@@ -18918,10 +18918,10 @@
         <v>3.75</v>
       </c>
       <c r="N152" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O152" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P152" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-30.xlsx
@@ -653,13 +653,13 @@
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
         <v>1.36</v>
@@ -668,10 +668,10 @@
         <v>3.2</v>
       </c>
       <c r="N2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P2" t="n">
         <v>1.44</v>
@@ -680,16 +680,16 @@
         <v>2.63</v>
       </c>
       <c r="R2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V2" t="n">
         <v>9</v>
@@ -704,7 +704,7 @@
         <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA2" t="n">
         <v>6</v>
@@ -790,10 +790,10 @@
         <v>3.5</v>
       </c>
       <c r="N3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="O3" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="P3" t="n">
         <v>1.4</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
         <v>1.04</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="L4" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P4" t="n">
         <v>1.33</v>
@@ -924,13 +924,13 @@
         <v>3.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U4" t="n">
         <v>9</v>
@@ -945,25 +945,25 @@
         <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="n">
         <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
         <v>41</v>
       </c>
       <c r="AD4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
         <v>23</v>
@@ -972,7 +972,7 @@
         <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="n">
         <v>34</v>
@@ -1058,7 +1058,7 @@
         <v>15</v>
       </c>
       <c r="V5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W5" t="n">
         <v>34</v>
@@ -1141,7 +1141,7 @@
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J6" t="n">
         <v>1.06</v>
@@ -1150,22 +1150,22 @@
         <v>10</v>
       </c>
       <c r="L6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N6" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="O6" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="P6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R6" t="n">
         <v>1.8</v>
@@ -1174,7 +1174,7 @@
         <v>1.95</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U6" t="n">
         <v>9.5</v>
@@ -1189,10 +1189,10 @@
         <v>17</v>
       </c>
       <c r="Y6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA6" t="n">
         <v>6.5</v>
@@ -1222,7 +1222,7 @@
         <v>29</v>
       </c>
       <c r="AJ6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
         <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J7" t="n">
         <v>1.07</v>
@@ -1278,10 +1278,10 @@
         <v>3.2</v>
       </c>
       <c r="N7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="P7" t="n">
         <v>1.44</v>
@@ -1299,7 +1299,7 @@
         <v>6.5</v>
       </c>
       <c r="U7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V7" t="n">
         <v>9</v>
@@ -1379,19 +1379,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
         <v>5.25</v>
       </c>
       <c r="J8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L8" t="n">
         <v>1.2</v>
@@ -1403,7 +1403,7 @@
         <v>1.62</v>
       </c>
       <c r="O8" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P8" t="n">
         <v>1.3</v>
@@ -1412,10 +1412,10 @@
         <v>3.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T8" t="n">
         <v>8.5</v>
@@ -1427,7 +1427,7 @@
         <v>8.5</v>
       </c>
       <c r="W8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X8" t="n">
         <v>12</v>
@@ -1436,10 +1436,10 @@
         <v>21</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB8" t="n">
         <v>15</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J9" t="n">
         <v>1.07</v>
@@ -1516,16 +1516,16 @@
         <v>9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="P9" t="n">
         <v>1.44</v>
@@ -1534,22 +1534,22 @@
         <v>2.63</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S9" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V9" t="n">
         <v>8.5</v>
       </c>
       <c r="W9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X9" t="n">
         <v>15</v>
@@ -1564,16 +1564,16 @@
         <v>7</v>
       </c>
       <c r="AB9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD9" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>41</v>
       </c>
       <c r="AJ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
@@ -1644,10 +1644,10 @@
         <v>3.75</v>
       </c>
       <c r="N10" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="O10" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P10" t="n">
         <v>1.4</v>
@@ -1665,7 +1665,7 @@
         <v>11</v>
       </c>
       <c r="U10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V10" t="n">
         <v>12</v>
@@ -1680,7 +1680,7 @@
         <v>34</v>
       </c>
       <c r="Z10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA10" t="n">
         <v>6.5</v>
@@ -1751,7 +1751,7 @@
         <v>4.33</v>
       </c>
       <c r="I11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J11" t="n">
         <v>1.05</v>
@@ -1760,16 +1760,16 @@
         <v>11</v>
       </c>
       <c r="L11" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N11" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="O11" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="P11" t="n">
         <v>1.36</v>
@@ -1873,7 +1873,7 @@
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J12" t="n">
         <v>1.06</v>
@@ -1888,10 +1888,10 @@
         <v>3.4</v>
       </c>
       <c r="N12" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="P12" t="n">
         <v>1.44</v>
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="G14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H14" t="n">
         <v>3.9</v>
       </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
       <c r="I14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J14" t="n">
         <v>1.04</v>
@@ -2132,10 +2132,10 @@
         <v>3.75</v>
       </c>
       <c r="N14" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O14" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
         <v>1.36</v>
@@ -2168,7 +2168,7 @@
         <v>34</v>
       </c>
       <c r="Z14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA14" t="n">
         <v>7.5</v>
@@ -2355,13 +2355,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H16" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J16" t="n">
         <v>1.02</v>
@@ -2412,10 +2412,10 @@
         <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB16" t="n">
         <v>15</v>
@@ -2433,7 +2433,7 @@
         <v>34</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH16" t="n">
         <v>67</v>
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H17" t="n">
         <v>3.1</v>
@@ -2486,10 +2486,10 @@
         <v>2.3</v>
       </c>
       <c r="J17" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L17" t="n">
         <v>1.44</v>
@@ -2498,10 +2498,10 @@
         <v>2.75</v>
       </c>
       <c r="N17" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="O17" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P17" t="n">
         <v>1.5</v>
@@ -2510,10 +2510,10 @@
         <v>2.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T17" t="n">
         <v>8.5</v>
@@ -2599,13 +2599,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H18" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J18" t="n">
         <v>1.01</v>
@@ -2632,10 +2632,10 @@
         <v>4.33</v>
       </c>
       <c r="R18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T18" t="n">
         <v>12</v>
@@ -2647,7 +2647,7 @@
         <v>9.5</v>
       </c>
       <c r="W18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X18" t="n">
         <v>10</v>
@@ -2665,28 +2665,28 @@
         <v>19</v>
       </c>
       <c r="AC18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD18" t="n">
         <v>151</v>
       </c>
       <c r="AE18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF18" t="n">
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH18" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI18" t="n">
         <v>51</v>
       </c>
       <c r="AJ18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J19" t="n">
         <v>1.05</v>
@@ -2742,10 +2742,10 @@
         <v>3.5</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="O19" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="P19" t="n">
         <v>1.4</v>
@@ -2849,7 +2849,7 @@
         <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J20" t="n">
         <v>1.11</v>
@@ -2974,10 +2974,10 @@
         <v>4.2</v>
       </c>
       <c r="J21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L21" t="n">
         <v>1.33</v>
@@ -3462,10 +3462,10 @@
         <v>3.3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L25" t="n">
         <v>1.67</v>
@@ -4185,13 +4185,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="H31" t="n">
         <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J31" t="n">
         <v>1.13</v>
@@ -4218,25 +4218,25 @@
         <v>2.1</v>
       </c>
       <c r="R31" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S31" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T31" t="n">
         <v>5.5</v>
       </c>
       <c r="U31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V31" t="n">
         <v>11</v>
       </c>
       <c r="W31" t="n">
+        <v>21</v>
+      </c>
+      <c r="X31" t="n">
         <v>23</v>
-      </c>
-      <c r="X31" t="n">
-        <v>26</v>
       </c>
       <c r="Y31" t="n">
         <v>41</v>
@@ -4260,16 +4260,16 @@
         <v>6.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
         <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ31" t="n">
         <v>51</v>
@@ -4307,13 +4307,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H32" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I32" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J32" t="n">
         <v>1.17</v>
@@ -4346,7 +4346,7 @@
         <v>1.4</v>
       </c>
       <c r="T32" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="U32" t="n">
         <v>6.5</v>
@@ -4429,13 +4429,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H33" t="n">
         <v>3.1</v>
       </c>
       <c r="I33" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
         <v>1.17</v>
@@ -4468,10 +4468,10 @@
         <v>1.4</v>
       </c>
       <c r="T33" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V33" t="n">
         <v>17</v>
@@ -4480,7 +4480,7 @@
         <v>51</v>
       </c>
       <c r="X33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y33" t="n">
         <v>67</v>
@@ -4510,7 +4510,7 @@
         <v>11</v>
       </c>
       <c r="AH33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI33" t="n">
         <v>26</v>
@@ -4560,10 +4560,10 @@
         <v>3.6</v>
       </c>
       <c r="J34" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K34" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L34" t="n">
         <v>1.73</v>
@@ -4673,13 +4673,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H35" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I35" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J35" t="n">
         <v>1.13</v>
@@ -4715,13 +4715,13 @@
         <v>5.5</v>
       </c>
       <c r="U35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V35" t="n">
         <v>11</v>
       </c>
       <c r="W35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X35" t="n">
         <v>26</v>
@@ -4751,13 +4751,13 @@
         <v>15</v>
       </c>
       <c r="AG35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ35" t="n">
         <v>51</v>
@@ -4795,7 +4795,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H36" t="n">
         <v>3.1</v>
@@ -4834,10 +4834,10 @@
         <v>1.44</v>
       </c>
       <c r="T36" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="U36" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V36" t="n">
         <v>11</v>
@@ -4867,7 +4867,7 @@
         <v>101</v>
       </c>
       <c r="AE36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF36" t="n">
         <v>21</v>
@@ -4917,7 +4917,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H37" t="n">
         <v>2.88</v>
@@ -4965,7 +4965,7 @@
         <v>12</v>
       </c>
       <c r="W37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X37" t="n">
         <v>29</v>
@@ -5283,19 +5283,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="H40" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I40" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
         <v>1.03</v>
       </c>
       <c r="K40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L40" t="n">
         <v>1.17</v>
@@ -5304,10 +5304,10 @@
         <v>5</v>
       </c>
       <c r="N40" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="O40" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="P40" t="n">
         <v>1.29</v>
@@ -5316,25 +5316,25 @@
         <v>3.5</v>
       </c>
       <c r="R40" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S40" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T40" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U40" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V40" t="n">
         <v>8.5</v>
       </c>
       <c r="W40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y40" t="n">
         <v>21</v>
@@ -5355,22 +5355,22 @@
         <v>151</v>
       </c>
       <c r="AE40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG40" t="n">
         <v>19</v>
       </c>
-      <c r="AF40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>17</v>
-      </c>
       <c r="AH40" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI40" t="n">
         <v>41</v>
       </c>
       <c r="AJ40" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41">
@@ -5414,22 +5414,22 @@
         <v>2.55</v>
       </c>
       <c r="J41" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L41" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N41" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O41" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P41" t="n">
         <v>1.33</v>
@@ -5906,10 +5906,10 @@
         <v>3.5</v>
       </c>
       <c r="N45" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="O45" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="P45" t="n">
         <v>1.4</v>
@@ -6007,13 +6007,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H46" t="n">
         <v>3.2</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J46" t="n">
         <v>1.08</v>
@@ -6028,10 +6028,10 @@
         <v>3</v>
       </c>
       <c r="N46" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O46" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P46" t="n">
         <v>1.5</v>
@@ -6049,13 +6049,13 @@
         <v>7</v>
       </c>
       <c r="U46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V46" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X46" t="n">
         <v>21</v>
@@ -6070,7 +6070,7 @@
         <v>6</v>
       </c>
       <c r="AB46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC46" t="n">
         <v>51</v>
@@ -6085,13 +6085,13 @@
         <v>15</v>
       </c>
       <c r="AG46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH46" t="n">
         <v>34</v>
       </c>
       <c r="AI46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ46" t="n">
         <v>41</v>
@@ -6150,10 +6150,10 @@
         <v>3.5</v>
       </c>
       <c r="N47" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="O47" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="P47" t="n">
         <v>1.4</v>
@@ -6186,10 +6186,10 @@
         <v>26</v>
       </c>
       <c r="Z47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA47" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB47" t="n">
         <v>15</v>
@@ -6394,10 +6394,10 @@
         <v>3</v>
       </c>
       <c r="N49" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O49" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P49" t="n">
         <v>1.5</v>
@@ -6756,10 +6756,10 @@
         <v>2.63</v>
       </c>
       <c r="N52" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O52" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P52" t="n">
         <v>1.53</v>
@@ -6991,7 +6991,7 @@
         <v>1.06</v>
       </c>
       <c r="K54" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L54" t="n">
         <v>1.33</v>
@@ -7036,7 +7036,7 @@
         <v>34</v>
       </c>
       <c r="Z54" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA54" t="n">
         <v>8</v>
@@ -7045,7 +7045,7 @@
         <v>21</v>
       </c>
       <c r="AC54" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD54" t="n">
         <v>1250</v>
@@ -7110,16 +7110,16 @@
         <v>2.55</v>
       </c>
       <c r="J55" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L55" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N55" t="n">
         <v>2.25</v>
@@ -7360,16 +7360,16 @@
         <v>15</v>
       </c>
       <c r="L57" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N57" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O57" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P57" t="n">
         <v>1.3</v>
@@ -7476,10 +7476,10 @@
         <v>3.4</v>
       </c>
       <c r="J58" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K58" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L58" t="n">
         <v>1.3</v>
@@ -7488,10 +7488,10 @@
         <v>3.4</v>
       </c>
       <c r="N58" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O58" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P58" t="n">
         <v>1.4</v>
@@ -7598,10 +7598,10 @@
         <v>2.55</v>
       </c>
       <c r="J59" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K59" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L59" t="n">
         <v>1.4</v>
@@ -7711,19 +7711,19 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H60" t="n">
         <v>3.1</v>
       </c>
       <c r="I60" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K60" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L60" t="n">
         <v>1.33</v>
@@ -7744,13 +7744,13 @@
         <v>2.63</v>
       </c>
       <c r="R60" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S60" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T60" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U60" t="n">
         <v>12</v>
@@ -7768,7 +7768,7 @@
         <v>29</v>
       </c>
       <c r="Z60" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA60" t="n">
         <v>6</v>
@@ -7777,25 +7777,25 @@
         <v>13</v>
       </c>
       <c r="AC60" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD60" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE60" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF60" t="n">
         <v>15</v>
       </c>
       <c r="AG60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH60" t="n">
         <v>29</v>
       </c>
       <c r="AI60" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ60" t="n">
         <v>34</v>
@@ -7833,13 +7833,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
         <v>3.4</v>
       </c>
       <c r="I61" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J61" t="n">
         <v>1.06</v>
@@ -7848,10 +7848,10 @@
         <v>10</v>
       </c>
       <c r="L61" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M61" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N61" t="n">
         <v>2.1</v>
@@ -7890,7 +7890,7 @@
         <v>29</v>
       </c>
       <c r="Z61" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA61" t="n">
         <v>6.5</v>
@@ -7908,7 +7908,7 @@
         <v>9.5</v>
       </c>
       <c r="AF61" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG61" t="n">
         <v>13</v>
@@ -7917,7 +7917,7 @@
         <v>41</v>
       </c>
       <c r="AI61" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ61" t="n">
         <v>41</v>
@@ -7955,23 +7955,23 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="H62" t="n">
         <v>6.5</v>
       </c>
       <c r="I62" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="O62" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
@@ -7982,46 +7982,46 @@
         <v>1.65</v>
       </c>
       <c r="T62" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U62" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="V62" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W62" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="X62" t="n">
         <v>9</v>
       </c>
-      <c r="W62" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="X62" t="n">
-        <v>8.75</v>
-      </c>
       <c r="Y62" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z62" t="n">
         <v>18.5</v>
       </c>
       <c r="AA62" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB62" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AC62" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD62" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE62" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AF62" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AG62" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH62" t="n">
         <v>500</v>
@@ -8030,7 +8030,7 @@
         <v>250</v>
       </c>
       <c r="AJ62" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63">
@@ -8065,18 +8065,18 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H63" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I63" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M63" t="n">
         <v>4.4</v>
@@ -8090,46 +8090,46 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="S63" t="n">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
       <c r="T63" t="n">
         <v>7.1</v>
       </c>
       <c r="U63" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="V63" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="W63" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="X63" t="n">
         <v>9.25</v>
       </c>
       <c r="Y63" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z63" t="n">
         <v>12.5</v>
       </c>
       <c r="AA63" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AB63" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC63" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AD63" t="n">
         <v>175</v>
       </c>
       <c r="AE63" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF63" t="n">
         <v>40</v>
@@ -8194,16 +8194,16 @@
         <v>13</v>
       </c>
       <c r="L64" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M64" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N64" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O64" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P64" t="n">
         <v>1.33</v>
@@ -8310,22 +8310,22 @@
         <v>3.3</v>
       </c>
       <c r="J65" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K65" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L65" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M65" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N65" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O65" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P65" t="n">
         <v>1.44</v>
@@ -8423,13 +8423,13 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H66" t="n">
         <v>3.4</v>
       </c>
       <c r="I66" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J66" t="n">
         <v>1.05</v>
@@ -8465,7 +8465,7 @@
         <v>12</v>
       </c>
       <c r="U66" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V66" t="n">
         <v>13</v>
@@ -8489,19 +8489,19 @@
         <v>15</v>
       </c>
       <c r="AC66" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD66" t="n">
         <v>201</v>
       </c>
       <c r="AE66" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF66" t="n">
         <v>9.5</v>
       </c>
       <c r="AG66" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH66" t="n">
         <v>17</v>
@@ -8545,19 +8545,19 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H67" t="n">
         <v>3.5</v>
       </c>
       <c r="I67" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J67" t="n">
         <v>1.04</v>
       </c>
       <c r="K67" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L67" t="n">
         <v>1.22</v>
@@ -8566,10 +8566,10 @@
         <v>4</v>
       </c>
       <c r="N67" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O67" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P67" t="n">
         <v>1.36</v>
@@ -8578,10 +8578,10 @@
         <v>3</v>
       </c>
       <c r="R67" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S67" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T67" t="n">
         <v>9</v>
@@ -8626,7 +8626,7 @@
         <v>12</v>
       </c>
       <c r="AH67" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI67" t="n">
         <v>26</v>
@@ -8670,16 +8670,16 @@
         <v>1.65</v>
       </c>
       <c r="H68" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I68" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J68" t="n">
         <v>1.04</v>
       </c>
       <c r="K68" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L68" t="n">
         <v>1.25</v>
@@ -8688,7 +8688,7 @@
         <v>3.75</v>
       </c>
       <c r="N68" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O68" t="n">
         <v>2</v>
@@ -8715,13 +8715,13 @@
         <v>8.5</v>
       </c>
       <c r="W68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X68" t="n">
         <v>13</v>
       </c>
       <c r="Y68" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z68" t="n">
         <v>12</v>
@@ -8730,13 +8730,13 @@
         <v>7.5</v>
       </c>
       <c r="AB68" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC68" t="n">
         <v>51</v>
       </c>
       <c r="AD68" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE68" t="n">
         <v>15</v>
@@ -9042,10 +9042,10 @@
         <v>3.9</v>
       </c>
       <c r="J71" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K71" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="L71" t="n">
         <v>1.3</v>
@@ -9057,7 +9057,7 @@
         <v>2.05</v>
       </c>
       <c r="O71" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P71" t="n">
         <v>1.44</v>
@@ -9090,7 +9090,7 @@
         <v>29</v>
       </c>
       <c r="Z71" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA71" t="n">
         <v>6.5</v>
@@ -9643,7 +9643,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H76" t="n">
         <v>3.4</v>
@@ -9655,19 +9655,19 @@
         <v>1.06</v>
       </c>
       <c r="K76" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L76" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M76" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N76" t="n">
         <v>2.05</v>
       </c>
       <c r="O76" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P76" t="n">
         <v>1.44</v>
@@ -9685,7 +9685,7 @@
         <v>8.5</v>
       </c>
       <c r="U76" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V76" t="n">
         <v>10</v>
@@ -9700,7 +9700,7 @@
         <v>29</v>
       </c>
       <c r="Z76" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA76" t="n">
         <v>6.5</v>
@@ -9765,13 +9765,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
       <c r="H77" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I77" t="n">
-        <v>2.88</v>
+        <v>2.45</v>
       </c>
       <c r="J77" t="n">
         <v>1.06</v>
@@ -9780,16 +9780,16 @@
         <v>10</v>
       </c>
       <c r="L77" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M77" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N77" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O77" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="P77" t="n">
         <v>1.44</v>
@@ -9798,31 +9798,31 @@
         <v>2.63</v>
       </c>
       <c r="R77" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S77" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T77" t="n">
         <v>8</v>
       </c>
       <c r="U77" t="n">
+        <v>13</v>
+      </c>
+      <c r="V77" t="n">
         <v>11</v>
       </c>
-      <c r="V77" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W77" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="X77" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y77" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z77" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA77" t="n">
         <v>6.5</v>
@@ -9834,22 +9834,22 @@
         <v>51</v>
       </c>
       <c r="AD77" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE77" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AF77" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AG77" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH77" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AI77" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ77" t="n">
         <v>34</v>
@@ -9887,82 +9887,82 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H78" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I78" t="n">
         <v>3</v>
       </c>
-      <c r="I78" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J78" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K78" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L78" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M78" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N78" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="O78" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P78" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R78" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S78" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T78" t="n">
         <v>6.5</v>
       </c>
       <c r="U78" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V78" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W78" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X78" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y78" t="n">
         <v>41</v>
       </c>
       <c r="Z78" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA78" t="n">
         <v>6</v>
       </c>
       <c r="AB78" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC78" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD78" t="n">
         <v>101</v>
       </c>
       <c r="AE78" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF78" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG78" t="n">
         <v>12</v>
@@ -10009,37 +10009,37 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="H79" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I79" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="J79" t="n">
         <v>1.04</v>
       </c>
       <c r="K79" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L79" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M79" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N79" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="O79" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="P79" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q79" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R79" t="n">
         <v>1.67</v>
@@ -10051,7 +10051,7 @@
         <v>13</v>
       </c>
       <c r="U79" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V79" t="n">
         <v>13</v>
@@ -10060,10 +10060,10 @@
         <v>41</v>
       </c>
       <c r="X79" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y79" t="n">
         <v>29</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>34</v>
       </c>
       <c r="Z79" t="n">
         <v>13</v>
@@ -10081,19 +10081,19 @@
         <v>151</v>
       </c>
       <c r="AE79" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF79" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG79" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH79" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI79" t="n">
         <v>15</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>13</v>
       </c>
       <c r="AJ79" t="n">
         <v>23</v>
@@ -10131,31 +10131,31 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H80" t="n">
         <v>3.4</v>
       </c>
       <c r="I80" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="J80" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K80" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L80" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M80" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N80" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O80" t="n">
         <v>1.88</v>
-      </c>
-      <c r="O80" t="n">
-        <v>1.98</v>
       </c>
       <c r="P80" t="n">
         <v>1.4</v>
@@ -10173,13 +10173,13 @@
         <v>8</v>
       </c>
       <c r="U80" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V80" t="n">
         <v>9</v>
       </c>
       <c r="W80" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X80" t="n">
         <v>17</v>
@@ -10188,34 +10188,34 @@
         <v>26</v>
       </c>
       <c r="Z80" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA80" t="n">
         <v>6.5</v>
       </c>
       <c r="AB80" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC80" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD80" t="n">
         <v>201</v>
       </c>
       <c r="AE80" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF80" t="n">
         <v>17</v>
       </c>
       <c r="AG80" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH80" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI80" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ80" t="n">
         <v>34</v>
@@ -10253,37 +10253,37 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H81" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I81" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="J81" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K81" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L81" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M81" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N81" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O81" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P81" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R81" t="n">
         <v>1.91</v>
@@ -10292,25 +10292,25 @@
         <v>1.8</v>
       </c>
       <c r="T81" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U81" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V81" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W81" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X81" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y81" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z81" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA81" t="n">
         <v>6.5</v>
@@ -10325,19 +10325,19 @@
         <v>351</v>
       </c>
       <c r="AE81" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AF81" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG81" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH81" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI81" t="n">
         <v>34</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>29</v>
       </c>
       <c r="AJ81" t="n">
         <v>41</v>
@@ -10375,13 +10375,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H82" t="n">
         <v>3</v>
       </c>
       <c r="I82" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J82" t="n">
         <v>1.1</v>
@@ -10423,10 +10423,10 @@
         <v>13</v>
       </c>
       <c r="W82" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X82" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y82" t="n">
         <v>41</v>
@@ -10444,13 +10444,13 @@
         <v>67</v>
       </c>
       <c r="AD82" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE82" t="n">
         <v>6.5</v>
       </c>
       <c r="AF82" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG82" t="n">
         <v>10</v>
@@ -10503,19 +10503,19 @@
         <v>3.1</v>
       </c>
       <c r="I83" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J83" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K83" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L83" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M83" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N83" t="n">
         <v>2.5</v>
@@ -10554,7 +10554,7 @@
         <v>41</v>
       </c>
       <c r="Z83" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA83" t="n">
         <v>6</v>
@@ -10619,13 +10619,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="H84" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I84" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="J84" t="n">
         <v>1.04</v>
@@ -10634,40 +10634,40 @@
         <v>13</v>
       </c>
       <c r="L84" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M84" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N84" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O84" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P84" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q84" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R84" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S84" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T84" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U84" t="n">
         <v>15</v>
       </c>
       <c r="V84" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W84" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X84" t="n">
         <v>21</v>
@@ -10694,19 +10694,19 @@
         <v>9.5</v>
       </c>
       <c r="AF84" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG84" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH84" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ84" t="n">
         <v>23</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="85">
@@ -10744,10 +10744,10 @@
         <v>2.8</v>
       </c>
       <c r="H85" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I85" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J85" t="n">
         <v>1.08</v>
@@ -10768,19 +10768,19 @@
         <v>1.53</v>
       </c>
       <c r="P85" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R85" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S85" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T85" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U85" t="n">
         <v>13</v>
@@ -10792,13 +10792,13 @@
         <v>29</v>
       </c>
       <c r="X85" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y85" t="n">
         <v>41</v>
       </c>
       <c r="Z85" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA85" t="n">
         <v>6.5</v>
@@ -10813,13 +10813,13 @@
         <v>1250</v>
       </c>
       <c r="AE85" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF85" t="n">
         <v>11</v>
       </c>
       <c r="AG85" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH85" t="n">
         <v>23</v>
@@ -10985,13 +10985,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H87" t="n">
         <v>4.55</v>
       </c>
       <c r="I87" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -10999,7 +10999,7 @@
         <v>1.23</v>
       </c>
       <c r="M87" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N87" t="n">
         <v>1.7</v>
@@ -11010,13 +11010,13 @@
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="n">
-        <v>2.19</v>
+        <v>2.17</v>
       </c>
       <c r="S87" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="T87" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="U87" t="n">
         <v>40</v>
@@ -11028,19 +11028,19 @@
         <v>150</v>
       </c>
       <c r="X87" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Y87" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Z87" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AA87" t="n">
         <v>8</v>
       </c>
       <c r="AB87" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC87" t="n">
         <v>90</v>
@@ -11052,19 +11052,19 @@
         <v>5.6</v>
       </c>
       <c r="AF87" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AG87" t="n">
         <v>7.4</v>
       </c>
       <c r="AH87" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AI87" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ87" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88">
@@ -11099,31 +11099,31 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H88" t="n">
         <v>3.4</v>
       </c>
       <c r="I88" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J88" t="n">
         <v>1.07</v>
       </c>
       <c r="K88" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L88" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M88" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N88" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O88" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P88" t="n">
         <v>1.5</v>
@@ -11141,19 +11141,19 @@
         <v>8</v>
       </c>
       <c r="U88" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V88" t="n">
         <v>11</v>
       </c>
       <c r="W88" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X88" t="n">
         <v>26</v>
       </c>
       <c r="Y88" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z88" t="n">
         <v>8.5</v>
@@ -11174,13 +11174,13 @@
         <v>7</v>
       </c>
       <c r="AF88" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG88" t="n">
         <v>10</v>
       </c>
-      <c r="AG88" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AH88" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI88" t="n">
         <v>21</v>
@@ -11221,13 +11221,13 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="H89" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I89" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="J89" t="n">
         <v>1.01</v>
@@ -11236,61 +11236,61 @@
         <v>26</v>
       </c>
       <c r="L89" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="M89" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N89" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="O89" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P89" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Q89" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="R89" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S89" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="T89" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U89" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V89" t="n">
         <v>9</v>
       </c>
       <c r="W89" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X89" t="n">
         <v>10</v>
       </c>
       <c r="Y89" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z89" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA89" t="n">
         <v>12</v>
       </c>
       <c r="AB89" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC89" t="n">
         <v>41</v>
       </c>
       <c r="AD89" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AE89" t="n">
         <v>29</v>
@@ -11299,16 +11299,16 @@
         <v>41</v>
       </c>
       <c r="AG89" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH89" t="n">
         <v>81</v>
       </c>
       <c r="AI89" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ89" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90">
@@ -11355,19 +11355,19 @@
         <v>1.03</v>
       </c>
       <c r="K90" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L90" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M90" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N90" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O90" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P90" t="n">
         <v>1.3</v>
@@ -11486,10 +11486,10 @@
         <v>3.5</v>
       </c>
       <c r="N91" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O91" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P91" t="n">
         <v>1.4</v>
@@ -11587,90 +11587,90 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="H92" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="I92" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M92" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="N92" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="O92" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P92" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="R92" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="S92" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T92" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="U92" t="n">
-        <v>9.75</v>
+        <v>8.25</v>
       </c>
       <c r="V92" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W92" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="X92" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y92" t="n">
         <v>32</v>
       </c>
       <c r="Z92" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA92" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="AB92" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AC92" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD92" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE92" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="AF92" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AG92" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AH92" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AI92" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ92" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93">
@@ -11714,13 +11714,13 @@
         <v>4.75</v>
       </c>
       <c r="J93" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K93" t="n">
         <v>17</v>
       </c>
       <c r="L93" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
@@ -11836,22 +11836,22 @@
         <v>2.7</v>
       </c>
       <c r="J94" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K94" t="n">
         <v>15</v>
       </c>
       <c r="L94" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M94" t="n">
         <v>4.33</v>
       </c>
       <c r="N94" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O94" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P94" t="n">
         <v>1.33</v>
@@ -11860,10 +11860,10 @@
         <v>3.25</v>
       </c>
       <c r="R94" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S94" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T94" t="n">
         <v>10</v>
@@ -11887,7 +11887,7 @@
         <v>15</v>
       </c>
       <c r="AA94" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB94" t="n">
         <v>13</v>
@@ -11914,7 +11914,7 @@
         <v>21</v>
       </c>
       <c r="AJ94" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95">
@@ -11970,10 +11970,10 @@
         <v>3.75</v>
       </c>
       <c r="N95" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O95" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P95" t="n">
         <v>1.36</v>
@@ -12092,10 +12092,10 @@
         <v>3</v>
       </c>
       <c r="N96" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O96" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P96" t="n">
         <v>1.5</v>
@@ -12193,13 +12193,13 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H97" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I97" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J97" t="n">
         <v>1.02</v>
@@ -12226,10 +12226,10 @@
         <v>3.5</v>
       </c>
       <c r="R97" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S97" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T97" t="n">
         <v>9</v>
@@ -12265,7 +12265,7 @@
         <v>201</v>
       </c>
       <c r="AE97" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF97" t="n">
         <v>34</v>
@@ -12315,10 +12315,10 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H98" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I98" t="n">
         <v>6.5</v>
@@ -12336,16 +12336,16 @@
         <v>3.75</v>
       </c>
       <c r="N98" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O98" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P98" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R98" t="n">
         <v>1.95</v>
@@ -12369,13 +12369,13 @@
         <v>13</v>
       </c>
       <c r="Y98" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z98" t="n">
         <v>10</v>
       </c>
       <c r="AA98" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB98" t="n">
         <v>17</v>
@@ -12387,13 +12387,13 @@
         <v>301</v>
       </c>
       <c r="AE98" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF98" t="n">
         <v>34</v>
       </c>
       <c r="AG98" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH98" t="n">
         <v>67</v>
@@ -12440,7 +12440,7 @@
         <v>6.5</v>
       </c>
       <c r="H99" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I99" t="n">
         <v>1.38</v>
@@ -12458,25 +12458,25 @@
         <v>5</v>
       </c>
       <c r="N99" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O99" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P99" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q99" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R99" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S99" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T99" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U99" t="n">
         <v>41</v>
@@ -12485,7 +12485,7 @@
         <v>19</v>
       </c>
       <c r="W99" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="X99" t="n">
         <v>41</v>
@@ -12494,13 +12494,13 @@
         <v>41</v>
       </c>
       <c r="Z99" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA99" t="n">
         <v>10</v>
       </c>
       <c r="AB99" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC99" t="n">
         <v>51</v>
@@ -12509,22 +12509,22 @@
         <v>201</v>
       </c>
       <c r="AE99" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF99" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG99" t="n">
         <v>8.5</v>
       </c>
       <c r="AH99" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI99" t="n">
         <v>11</v>
       </c>
       <c r="AJ99" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100">
@@ -12937,7 +12937,7 @@
         <v>1.07</v>
       </c>
       <c r="K103" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L103" t="n">
         <v>1.36</v>
@@ -13068,10 +13068,10 @@
         <v>4.33</v>
       </c>
       <c r="N104" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O104" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P104" t="n">
         <v>1.33</v>
@@ -13306,16 +13306,16 @@
         <v>10</v>
       </c>
       <c r="L106" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M106" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N106" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O106" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P106" t="n">
         <v>1.4</v>
@@ -13425,7 +13425,7 @@
         <v>1.06</v>
       </c>
       <c r="K107" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L107" t="n">
         <v>1.3</v>
@@ -13544,10 +13544,10 @@
         <v>5</v>
       </c>
       <c r="J108" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K108" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L108" t="n">
         <v>1.2</v>
@@ -13657,79 +13657,79 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H109" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I109" t="n">
         <v>5</v>
       </c>
       <c r="J109" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K109" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L109" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M109" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N109" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O109" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="P109" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R109" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S109" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="T109" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U109" t="n">
         <v>7.5</v>
       </c>
       <c r="V109" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W109" t="n">
         <v>13</v>
       </c>
       <c r="X109" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB109" t="n">
         <v>17</v>
-      </c>
-      <c r="Y109" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z109" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA109" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB109" t="n">
-        <v>19</v>
       </c>
       <c r="AC109" t="n">
         <v>67</v>
       </c>
       <c r="AD109" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AE109" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF109" t="n">
         <v>23</v>
@@ -13744,7 +13744,7 @@
         <v>41</v>
       </c>
       <c r="AJ109" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110">
@@ -13779,31 +13779,31 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="H110" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I110" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J110" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K110" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L110" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M110" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N110" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O110" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P110" t="n">
         <v>1.57</v>
@@ -13818,16 +13818,16 @@
         <v>1.57</v>
       </c>
       <c r="T110" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U110" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V110" t="n">
         <v>9.5</v>
       </c>
       <c r="W110" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X110" t="n">
         <v>19</v>
@@ -13849,10 +13849,10 @@
       </c>
       <c r="AD110" t="inlineStr"/>
       <c r="AE110" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF110" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG110" t="n">
         <v>17</v>
@@ -13861,7 +13861,7 @@
         <v>51</v>
       </c>
       <c r="AI110" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ110" t="n">
         <v>51</v>
@@ -14021,13 +14021,13 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H112" t="n">
         <v>3.1</v>
       </c>
       <c r="I112" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J112" t="n">
         <v>1.1</v>
@@ -14060,10 +14060,10 @@
         <v>1.67</v>
       </c>
       <c r="T112" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U112" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V112" t="n">
         <v>13</v>
@@ -14096,13 +14096,13 @@
         <v>6</v>
       </c>
       <c r="AF112" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG112" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH112" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI112" t="n">
         <v>21</v>
@@ -14155,7 +14155,7 @@
         <v>1.08</v>
       </c>
       <c r="K113" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L113" t="n">
         <v>1.4</v>
@@ -14280,10 +14280,10 @@
         <v>10</v>
       </c>
       <c r="L114" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M114" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N114" t="n">
         <v>2.1</v>
@@ -14509,13 +14509,13 @@
         </is>
       </c>
       <c r="G116" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H116" t="n">
         <v>2.75</v>
       </c>
-      <c r="H116" t="n">
-        <v>2.7</v>
-      </c>
       <c r="I116" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J116" t="n">
         <v>1.1</v>
@@ -14548,7 +14548,7 @@
         <v>1.8</v>
       </c>
       <c r="T116" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U116" t="n">
         <v>13</v>
@@ -14584,16 +14584,16 @@
         <v>7.5</v>
       </c>
       <c r="AF116" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG116" t="n">
         <v>11</v>
       </c>
       <c r="AH116" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI116" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ116" t="n">
         <v>41</v>
@@ -14631,10 +14631,10 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I117" t="n">
         <v>2.8</v>
@@ -14658,43 +14658,43 @@
         <v>1.6</v>
       </c>
       <c r="P117" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R117" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S117" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T117" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U117" t="n">
         <v>12</v>
       </c>
       <c r="V117" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W117" t="n">
         <v>26</v>
       </c>
       <c r="X117" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y117" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z117" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA117" t="n">
         <v>6</v>
       </c>
       <c r="AB117" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC117" t="n">
         <v>51</v>
@@ -14703,7 +14703,7 @@
         <v>301</v>
       </c>
       <c r="AE117" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF117" t="n">
         <v>13</v>
@@ -14715,10 +14715,10 @@
         <v>29</v>
       </c>
       <c r="AI117" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ117" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118">
@@ -14753,13 +14753,13 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H118" t="n">
         <v>3.1</v>
       </c>
       <c r="I118" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J118" t="n">
         <v>1.1</v>
@@ -14792,7 +14792,7 @@
         <v>1.67</v>
       </c>
       <c r="T118" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U118" t="n">
         <v>19</v>
@@ -14807,7 +14807,7 @@
         <v>41</v>
       </c>
       <c r="Y118" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z118" t="n">
         <v>7</v>
@@ -14825,10 +14825,10 @@
         <v>800</v>
       </c>
       <c r="AE118" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF118" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG118" t="n">
         <v>9.5</v>
@@ -14884,22 +14884,22 @@
         <v>2.63</v>
       </c>
       <c r="J119" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K119" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L119" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M119" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N119" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="O119" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P119" t="n">
         <v>1.5</v>
@@ -15241,91 +15241,91 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.65</v>
+        <v>2.12</v>
       </c>
       <c r="H122" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="I122" t="n">
-        <v>2.72</v>
+        <v>3.3</v>
       </c>
       <c r="J122" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K122" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="L122" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="M122" t="n">
-        <v>2.5</v>
+        <v>2.85</v>
       </c>
       <c r="N122" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O122" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="P122" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="Q122" t="n">
-        <v>2.37</v>
+        <v>2.62</v>
       </c>
       <c r="R122" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S122" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="T122" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="U122" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="V122" t="n">
-        <v>10.25</v>
+        <v>8.75</v>
       </c>
       <c r="W122" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="X122" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="Y122" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Z122" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="AA122" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AB122" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC122" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AD122" t="n">
         <v>700</v>
       </c>
       <c r="AE122" t="n">
-        <v>6.7</v>
+        <v>8.75</v>
       </c>
       <c r="AF122" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG122" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AH122" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI122" t="n">
         <v>32</v>
-      </c>
-      <c r="AI122" t="n">
-        <v>29</v>
       </c>
       <c r="AJ122" t="n">
         <v>45</v>
@@ -15485,13 +15485,13 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H124" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I124" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J124" t="n">
         <v>1.09</v>
@@ -15503,10 +15503,10 @@
         <v>1.4</v>
       </c>
       <c r="M124" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="N124" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="O124" t="n">
         <v>1.62</v>
@@ -15518,13 +15518,13 @@
         <v>2.57</v>
       </c>
       <c r="R124" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="S124" t="n">
         <v>1.6</v>
       </c>
       <c r="T124" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="U124" t="n">
         <v>6.2</v>
@@ -15533,10 +15533,10 @@
         <v>8.5</v>
       </c>
       <c r="W124" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="X124" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y124" t="n">
         <v>37</v>
@@ -15545,34 +15545,34 @@
         <v>6.3</v>
       </c>
       <c r="AA124" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AB124" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC124" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD124" t="n">
         <v>700</v>
       </c>
       <c r="AE124" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF124" t="n">
         <v>37</v>
       </c>
       <c r="AG124" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH124" t="n">
         <v>150</v>
       </c>
       <c r="AI124" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ124" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125">
@@ -15607,19 +15607,19 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="H125" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I125" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J125" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K125" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L125" t="n">
         <v>1.33</v>
@@ -15655,19 +15655,19 @@
         <v>9.5</v>
       </c>
       <c r="W125" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X125" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y125" t="n">
         <v>29</v>
       </c>
       <c r="Z125" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA125" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB125" t="n">
         <v>15</v>
@@ -15676,10 +15676,10 @@
         <v>51</v>
       </c>
       <c r="AD125" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE125" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF125" t="n">
         <v>15</v>
@@ -15688,10 +15688,10 @@
         <v>11</v>
       </c>
       <c r="AH125" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI125" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ125" t="n">
         <v>34</v>
@@ -15738,10 +15738,10 @@
         <v>2.1</v>
       </c>
       <c r="J126" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K126" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L126" t="n">
         <v>1.33</v>
@@ -15851,19 +15851,19 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H127" t="n">
         <v>3.5</v>
       </c>
       <c r="I127" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J127" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K127" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L127" t="n">
         <v>1.36</v>
@@ -15872,10 +15872,10 @@
         <v>3</v>
       </c>
       <c r="N127" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O127" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P127" t="n">
         <v>1.44</v>
@@ -15899,7 +15899,7 @@
         <v>9</v>
       </c>
       <c r="W127" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X127" t="n">
         <v>17</v>
@@ -15920,10 +15920,10 @@
         <v>51</v>
       </c>
       <c r="AD127" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE127" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF127" t="n">
         <v>19</v>
@@ -15973,37 +15973,37 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H128" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J128" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K128" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L128" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M128" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N128" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O128" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="P128" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q128" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R128" t="n">
         <v>1.91</v>
@@ -16048,10 +16048,10 @@
         <v>6.5</v>
       </c>
       <c r="AF128" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG128" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH128" t="n">
         <v>19</v>
@@ -16095,13 +16095,13 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H129" t="n">
         <v>3.2</v>
       </c>
       <c r="I129" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J129" t="n">
         <v>1.06</v>
@@ -16170,7 +16170,7 @@
         <v>9</v>
       </c>
       <c r="AF129" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG129" t="n">
         <v>11</v>
@@ -16339,19 +16339,19 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H131" t="n">
         <v>3.1</v>
       </c>
       <c r="I131" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J131" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K131" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L131" t="n">
         <v>1.4</v>
@@ -16360,10 +16360,10 @@
         <v>2.75</v>
       </c>
       <c r="N131" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O131" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P131" t="n">
         <v>1.5</v>
@@ -16378,16 +16378,16 @@
         <v>1.8</v>
       </c>
       <c r="T131" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U131" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V131" t="n">
         <v>10</v>
       </c>
       <c r="W131" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X131" t="n">
         <v>23</v>
@@ -16396,13 +16396,13 @@
         <v>34</v>
       </c>
       <c r="Z131" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA131" t="n">
         <v>6</v>
       </c>
       <c r="AB131" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC131" t="n">
         <v>51</v>
@@ -16423,10 +16423,10 @@
         <v>29</v>
       </c>
       <c r="AI131" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ131" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132">
@@ -16482,10 +16482,10 @@
         <v>2.63</v>
       </c>
       <c r="N132" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O132" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P132" t="n">
         <v>1.53</v>
@@ -16705,58 +16705,58 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H134" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I134" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J134" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K134" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L134" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M134" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N134" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O134" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P134" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Q134" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R134" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S134" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T134" t="n">
         <v>6.5</v>
       </c>
       <c r="U134" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V134" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W134" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X134" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y134" t="n">
         <v>41</v>
@@ -16780,13 +16780,13 @@
         <v>7</v>
       </c>
       <c r="AF134" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG134" t="n">
         <v>12</v>
       </c>
       <c r="AH134" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI134" t="n">
         <v>29</v>
@@ -16827,13 +16827,13 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H135" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I135" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J135" t="n">
         <v>1.05</v>
@@ -16842,16 +16842,16 @@
         <v>11</v>
       </c>
       <c r="L135" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M135" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N135" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="O135" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="P135" t="n">
         <v>1.4</v>
@@ -16860,22 +16860,22 @@
         <v>2.75</v>
       </c>
       <c r="R135" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S135" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T135" t="n">
         <v>7.5</v>
       </c>
       <c r="U135" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V135" t="n">
         <v>8.5</v>
       </c>
       <c r="W135" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X135" t="n">
         <v>15</v>
@@ -16893,7 +16893,7 @@
         <v>15</v>
       </c>
       <c r="AC135" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD135" t="n">
         <v>201</v>
@@ -16911,10 +16911,10 @@
         <v>41</v>
       </c>
       <c r="AI135" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ135" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ135" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="136">
@@ -16961,7 +16961,7 @@
         <v>1.04</v>
       </c>
       <c r="K136" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L136" t="n">
         <v>1.22</v>
@@ -16970,10 +16970,10 @@
         <v>4</v>
       </c>
       <c r="N136" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O136" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P136" t="n">
         <v>1.33</v>
@@ -17080,10 +17080,10 @@
         <v>3.1</v>
       </c>
       <c r="J137" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K137" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L137" t="n">
         <v>1.33</v>
@@ -17092,10 +17092,10 @@
         <v>3.25</v>
       </c>
       <c r="N137" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O137" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P137" t="n">
         <v>1.44</v>
@@ -17214,10 +17214,10 @@
         <v>4</v>
       </c>
       <c r="N138" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O138" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P138" t="n">
         <v>1.33</v>
@@ -17315,43 +17315,43 @@
         </is>
       </c>
       <c r="G139" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H139" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I139" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K139" t="n">
+        <v>10</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M139" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N139" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O139" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P139" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R139" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S139" t="n">
         <v>2</v>
-      </c>
-      <c r="H139" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I139" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J139" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K139" t="n">
-        <v>11</v>
-      </c>
-      <c r="L139" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M139" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N139" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="O139" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="P139" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q139" t="n">
-        <v>3</v>
-      </c>
-      <c r="R139" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S139" t="n">
-        <v>2.05</v>
       </c>
       <c r="T139" t="n">
         <v>8</v>
@@ -17363,7 +17363,7 @@
         <v>9</v>
       </c>
       <c r="W139" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X139" t="n">
         <v>17</v>
@@ -17372,22 +17372,22 @@
         <v>26</v>
       </c>
       <c r="Z139" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA139" t="n">
         <v>6.5</v>
       </c>
       <c r="AB139" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC139" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD139" t="n">
         <v>201</v>
       </c>
       <c r="AE139" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF139" t="n">
         <v>17</v>
@@ -17440,46 +17440,46 @@
         <v>1.9</v>
       </c>
       <c r="H140" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I140" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J140" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K140" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L140" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M140" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N140" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="O140" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="P140" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q140" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R140" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S140" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T140" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U140" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V140" t="n">
         <v>8.5</v>
@@ -17491,10 +17491,10 @@
         <v>15</v>
       </c>
       <c r="Y140" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z140" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA140" t="n">
         <v>7</v>
@@ -17503,10 +17503,10 @@
         <v>15</v>
       </c>
       <c r="AC140" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD140" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE140" t="n">
         <v>11</v>
@@ -17559,10 +17559,10 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H141" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I141" t="n">
         <v>1.5</v>
@@ -17628,7 +17628,7 @@
         <v>41</v>
       </c>
       <c r="AD141" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE141" t="n">
         <v>10</v>
@@ -17646,7 +17646,7 @@
         <v>11</v>
       </c>
       <c r="AJ141" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142">
@@ -17681,13 +17681,13 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="H142" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I142" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="J142" t="n">
         <v>1.05</v>
@@ -17696,16 +17696,16 @@
         <v>11</v>
       </c>
       <c r="L142" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M142" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N142" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O142" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P142" t="n">
         <v>1.4</v>
@@ -17714,10 +17714,10 @@
         <v>2.75</v>
       </c>
       <c r="R142" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S142" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T142" t="n">
         <v>10</v>
@@ -17729,16 +17729,16 @@
         <v>11</v>
       </c>
       <c r="W142" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X142" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y142" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z142" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA142" t="n">
         <v>6.5</v>
@@ -17750,19 +17750,19 @@
         <v>41</v>
       </c>
       <c r="AD142" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE142" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG142" t="n">
         <v>9.5</v>
       </c>
-      <c r="AF142" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG142" t="n">
-        <v>10</v>
-      </c>
       <c r="AH142" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI142" t="n">
         <v>19</v>
@@ -17824,10 +17824,10 @@
         <v>4</v>
       </c>
       <c r="N143" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O143" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P143" t="n">
         <v>1.33</v>
@@ -17836,13 +17836,13 @@
         <v>3.25</v>
       </c>
       <c r="R143" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S143" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T143" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U143" t="n">
         <v>10</v>
@@ -17937,7 +17937,7 @@
         <v>1.11</v>
       </c>
       <c r="K144" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L144" t="n">
         <v>1.52</v>
@@ -18906,10 +18906,10 @@
         <v>3.3</v>
       </c>
       <c r="J152" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K152" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L152" t="n">
         <v>1.25</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-30.xlsx
@@ -650,28 +650,28 @@
         <v>2.05</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P2" t="n">
         <v>1.44</v>
@@ -680,16 +680,16 @@
         <v>2.63</v>
       </c>
       <c r="R2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V2" t="n">
         <v>9</v>
@@ -704,7 +704,7 @@
         <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA2" t="n">
         <v>6</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>1.06</v>
@@ -784,22 +784,22 @@
         <v>10</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N3" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="O3" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="P3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R3" t="n">
         <v>1.8</v>
@@ -808,25 +808,25 @@
         <v>1.95</v>
       </c>
       <c r="T3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W3" t="n">
         <v>41</v>
       </c>
       <c r="X3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y3" t="n">
         <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA3" t="n">
         <v>6.5</v>
@@ -844,19 +844,19 @@
         <v>7</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
         <v>3.9</v>
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="L4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N4" t="n">
         <v>1.67</v>
@@ -939,7 +939,7 @@
         <v>8.5</v>
       </c>
       <c r="W4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X4" t="n">
         <v>13</v>
@@ -954,7 +954,7 @@
         <v>7.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
         <v>41</v>
@@ -966,7 +966,7 @@
         <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
@@ -1135,46 +1135,46 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
         <v>3.7</v>
       </c>
       <c r="J6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M6" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="P6" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S6" t="n">
         <v>1.8</v>
       </c>
-      <c r="S6" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U6" t="n">
         <v>9.5</v>
@@ -1183,16 +1183,16 @@
         <v>9</v>
       </c>
       <c r="W6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AA6" t="n">
         <v>6.5</v>
@@ -1204,13 +1204,13 @@
         <v>51</v>
       </c>
       <c r="AD6" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1222,7 +1222,7 @@
         <v>29</v>
       </c>
       <c r="AJ6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I8" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J8" t="n">
         <v>1.03</v>
@@ -1400,10 +1400,10 @@
         <v>4.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O8" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P8" t="n">
         <v>1.3</v>
@@ -1412,31 +1412,31 @@
         <v>3.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V8" t="n">
         <v>8.5</v>
       </c>
       <c r="W8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X8" t="n">
         <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="n">
         <v>8</v>
@@ -1448,19 +1448,19 @@
         <v>41</v>
       </c>
       <c r="AD8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI8" t="n">
         <v>41</v>
@@ -1504,16 +1504,16 @@
         <v>1.7</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
         <v>5.25</v>
       </c>
       <c r="J9" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.33</v>
@@ -1522,16 +1522,16 @@
         <v>3.4</v>
       </c>
       <c r="N9" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="O9" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="P9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R9" t="n">
         <v>1.95</v>
@@ -1558,7 +1558,7 @@
         <v>29</v>
       </c>
       <c r="Z9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA9" t="n">
         <v>7</v>
@@ -1573,7 +1573,7 @@
         <v>351</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>26</v>
@@ -1632,22 +1632,22 @@
         <v>2.1</v>
       </c>
       <c r="J10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M10" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="O10" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="P10" t="n">
         <v>1.4</v>
@@ -1760,16 +1760,16 @@
         <v>11</v>
       </c>
       <c r="L11" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N11" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="O11" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="P11" t="n">
         <v>1.36</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="J12" t="n">
         <v>1.06</v>
@@ -1882,52 +1882,52 @@
         <v>10</v>
       </c>
       <c r="L12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N12" t="n">
         <v>2</v>
       </c>
       <c r="O12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.8</v>
       </c>
-      <c r="P12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.91</v>
-      </c>
       <c r="S12" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U12" t="n">
         <v>9</v>
       </c>
       <c r="V12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB12" t="n">
         <v>15</v>
@@ -1936,13 +1936,13 @@
         <v>51</v>
       </c>
       <c r="AD12" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
         <v>13</v>
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
         <v>1.04</v>
@@ -2010,10 +2010,10 @@
         <v>4</v>
       </c>
       <c r="N13" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P13" t="n">
         <v>1.33</v>
@@ -2022,16 +2022,16 @@
         <v>3.25</v>
       </c>
       <c r="R13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V13" t="n">
         <v>8.5</v>
@@ -2049,31 +2049,31 @@
         <v>13</v>
       </c>
       <c r="AA13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC13" t="n">
         <v>41</v>
       </c>
       <c r="AD13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE13" t="n">
         <v>13</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
         <v>41</v>
       </c>
       <c r="AI13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ13" t="n">
         <v>34</v>
@@ -2114,7 +2114,7 @@
         <v>3.8</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
         <v>1.83</v>
@@ -2126,16 +2126,16 @@
         <v>13</v>
       </c>
       <c r="L14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="P14" t="n">
         <v>1.36</v>
@@ -2144,10 +2144,10 @@
         <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T14" t="n">
         <v>12</v>
@@ -2168,7 +2168,7 @@
         <v>34</v>
       </c>
       <c r="Z14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA14" t="n">
         <v>7.5</v>
@@ -2177,7 +2177,7 @@
         <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD14" t="n">
         <v>201</v>
@@ -2186,7 +2186,7 @@
         <v>8</v>
       </c>
       <c r="AF14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG14" t="n">
         <v>8.5</v>
@@ -2233,46 +2233,46 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="H15" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="J15" t="n">
         <v>1.02</v>
       </c>
       <c r="K15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M15" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="N15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
         <v>1.5</v>
       </c>
-      <c r="O15" t="n">
+      <c r="S15" t="n">
         <v>2.5</v>
       </c>
-      <c r="P15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.38</v>
-      </c>
       <c r="T15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U15" t="n">
         <v>10</v>
@@ -2284,34 +2284,34 @@
         <v>13</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB15" t="n">
         <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD15" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH15" t="n">
         <v>51</v>
@@ -2358,7 +2358,7 @@
         <v>1.48</v>
       </c>
       <c r="H16" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I16" t="n">
         <v>5.75</v>
@@ -2376,10 +2376,10 @@
         <v>5.5</v>
       </c>
       <c r="N16" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O16" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P16" t="n">
         <v>1.25</v>
@@ -2412,10 +2412,10 @@
         <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB16" t="n">
         <v>15</v>
@@ -2477,13 +2477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H17" t="n">
         <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J17" t="n">
         <v>1.1</v>
@@ -2504,10 +2504,10 @@
         <v>1.57</v>
       </c>
       <c r="P17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R17" t="n">
         <v>2</v>
@@ -2522,13 +2522,13 @@
         <v>15</v>
       </c>
       <c r="V17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W17" t="n">
+        <v>41</v>
+      </c>
+      <c r="X17" t="n">
         <v>34</v>
-      </c>
-      <c r="X17" t="n">
-        <v>29</v>
       </c>
       <c r="Y17" t="n">
         <v>41</v>
@@ -2543,16 +2543,16 @@
         <v>17</v>
       </c>
       <c r="AC17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD17" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE17" t="n">
         <v>6.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG17" t="n">
         <v>9.5</v>
@@ -2599,19 +2599,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
         <v>1.01</v>
       </c>
       <c r="K18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L18" t="n">
         <v>1.1</v>
@@ -2632,10 +2632,10 @@
         <v>4.33</v>
       </c>
       <c r="R18" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S18" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T18" t="n">
         <v>12</v>
@@ -2647,7 +2647,7 @@
         <v>9.5</v>
       </c>
       <c r="W18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X18" t="n">
         <v>10</v>
@@ -2662,10 +2662,10 @@
         <v>13</v>
       </c>
       <c r="AB18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD18" t="n">
         <v>151</v>
@@ -2742,10 +2742,10 @@
         <v>3.5</v>
       </c>
       <c r="N19" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="O19" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="P19" t="n">
         <v>1.4</v>
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H20" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
         <v>1.11</v>
@@ -2858,10 +2858,10 @@
         <v>6.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M20" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N20" t="n">
         <v>2.63</v>
@@ -2870,10 +2870,10 @@
         <v>1.5</v>
       </c>
       <c r="P20" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R20" t="n">
         <v>2.2</v>
@@ -2900,13 +2900,13 @@
         <v>41</v>
       </c>
       <c r="Z20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA20" t="n">
         <v>6</v>
       </c>
       <c r="AB20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC20" t="n">
         <v>81</v>
@@ -2918,7 +2918,7 @@
         <v>8.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG20" t="n">
         <v>15</v>
@@ -2971,25 +2971,25 @@
         <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J21" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L21" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M21" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="P21" t="n">
         <v>1.44</v>
@@ -2998,43 +2998,43 @@
         <v>2.63</v>
       </c>
       <c r="R21" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S21" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W21" t="n">
         <v>15</v>
       </c>
       <c r="X21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y21" t="n">
         <v>29</v>
       </c>
       <c r="Z21" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA21" t="n">
         <v>6.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC21" t="n">
         <v>51</v>
       </c>
       <c r="AD21" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE21" t="n">
         <v>11</v>
@@ -3046,10 +3046,10 @@
         <v>15</v>
       </c>
       <c r="AH21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI21" t="n">
         <v>41</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>34</v>
       </c>
       <c r="AJ21" t="n">
         <v>41</v>
@@ -3093,7 +3093,7 @@
         <v>2.9</v>
       </c>
       <c r="I22" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J22" t="n">
         <v>1.1</v>
@@ -3144,7 +3144,7 @@
         <v>41</v>
       </c>
       <c r="Z22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA22" t="n">
         <v>5.5</v>
@@ -3153,7 +3153,7 @@
         <v>17</v>
       </c>
       <c r="AC22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD22" t="n">
         <v>451</v>
@@ -3209,25 +3209,25 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H23" t="n">
         <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="K23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L23" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M23" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="N23" t="n">
         <v>2.7</v>
@@ -3281,10 +3281,10 @@
         <v>101</v>
       </c>
       <c r="AE23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG23" t="n">
         <v>19</v>
@@ -3453,13 +3453,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H25" t="n">
         <v>2.7</v>
       </c>
       <c r="I25" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J25" t="n">
         <v>1.14</v>
@@ -3537,7 +3537,7 @@
         <v>34</v>
       </c>
       <c r="AI25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ25" t="n">
         <v>51</v>
@@ -3941,94 +3941,94 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J29" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="K29" t="n">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="L29" t="n">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="M29" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N29" t="n">
-        <v>3.4</v>
+        <v>2.35</v>
       </c>
       <c r="O29" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="P29" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="R29" t="n">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="S29" t="n">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="T29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U29" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V29" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="W29" t="n">
+        <v>17</v>
+      </c>
+      <c r="X29" t="n">
         <v>19</v>
       </c>
-      <c r="X29" t="n">
-        <v>26</v>
-      </c>
       <c r="Y29" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="Z29" t="n">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="AA29" t="n">
         <v>6</v>
       </c>
       <c r="AB29" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AC29" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AD29" t="n">
         <v>101</v>
       </c>
       <c r="AE29" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AF29" t="n">
         <v>19</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH29" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI29" t="n">
         <v>41</v>
       </c>
       <c r="AJ29" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
@@ -4185,13 +4185,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H31" t="n">
         <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
         <v>1.13</v>
@@ -4218,25 +4218,25 @@
         <v>2.1</v>
       </c>
       <c r="R31" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S31" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T31" t="n">
         <v>5.5</v>
       </c>
       <c r="U31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V31" t="n">
         <v>11</v>
       </c>
       <c r="W31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y31" t="n">
         <v>41</v>
@@ -4260,16 +4260,16 @@
         <v>6.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG31" t="n">
         <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ31" t="n">
         <v>51</v>
@@ -4438,10 +4438,10 @@
         <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L33" t="n">
         <v>1.73</v>
@@ -4456,10 +4456,10 @@
         <v>1.33</v>
       </c>
       <c r="P33" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R33" t="n">
         <v>2.75</v>
@@ -5048,10 +5048,10 @@
         <v>2.63</v>
       </c>
       <c r="J38" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L38" t="n">
         <v>1.36</v>
@@ -5060,10 +5060,10 @@
         <v>3</v>
       </c>
       <c r="N38" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O38" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P38" t="n">
         <v>1.44</v>
@@ -5298,10 +5298,10 @@
         <v>17</v>
       </c>
       <c r="L40" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N40" t="n">
         <v>1.53</v>
@@ -5405,13 +5405,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="H41" t="n">
         <v>3.6</v>
       </c>
       <c r="I41" t="n">
-        <v>2.55</v>
+        <v>2.88</v>
       </c>
       <c r="J41" t="n">
         <v>1.03</v>
@@ -5444,19 +5444,19 @@
         <v>2.25</v>
       </c>
       <c r="T41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V41" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y41" t="n">
         <v>23</v>
@@ -5477,22 +5477,22 @@
         <v>126</v>
       </c>
       <c r="AE41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG41" t="n">
         <v>11</v>
       </c>
-      <c r="AF41" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>10</v>
-      </c>
       <c r="AH41" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ41" t="n">
         <v>26</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="42">
@@ -5885,13 +5885,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H45" t="n">
         <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J45" t="n">
         <v>1.06</v>
@@ -5906,10 +5906,10 @@
         <v>3.5</v>
       </c>
       <c r="N45" t="n">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="O45" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="P45" t="n">
         <v>1.4</v>
@@ -5933,22 +5933,22 @@
         <v>8.5</v>
       </c>
       <c r="W45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X45" t="n">
         <v>13</v>
       </c>
       <c r="Y45" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z45" t="n">
         <v>9.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB45" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC45" t="n">
         <v>51</v>
@@ -5960,7 +5960,7 @@
         <v>13</v>
       </c>
       <c r="AF45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG45" t="n">
         <v>17</v>
@@ -6150,10 +6150,10 @@
         <v>3.5</v>
       </c>
       <c r="N47" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="O47" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="P47" t="n">
         <v>1.4</v>
@@ -6251,25 +6251,25 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H48" t="n">
         <v>3.3</v>
       </c>
       <c r="I48" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J48" t="n">
         <v>1.07</v>
       </c>
       <c r="K48" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L48" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M48" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N48" t="n">
         <v>2.1</v>
@@ -6293,7 +6293,7 @@
         <v>6.5</v>
       </c>
       <c r="U48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V48" t="n">
         <v>9</v>
@@ -6323,13 +6323,13 @@
         <v>351</v>
       </c>
       <c r="AE48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH48" t="n">
         <v>41</v>
@@ -6394,10 +6394,10 @@
         <v>3</v>
       </c>
       <c r="N49" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O49" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P49" t="n">
         <v>1.5</v>
@@ -6501,7 +6501,7 @@
         <v>3.4</v>
       </c>
       <c r="I50" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J50" t="n">
         <v>1.06</v>
@@ -6510,31 +6510,31 @@
         <v>10</v>
       </c>
       <c r="L50" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M50" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N50" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R50" t="n">
         <v>1.83</v>
       </c>
-      <c r="P50" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.8</v>
-      </c>
       <c r="S50" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T50" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U50" t="n">
         <v>9.5</v>
@@ -6567,7 +6567,7 @@
         <v>251</v>
       </c>
       <c r="AE50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF50" t="n">
         <v>19</v>
@@ -6735,13 +6735,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H52" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I52" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J52" t="n">
         <v>1.1</v>
@@ -6756,10 +6756,10 @@
         <v>2.63</v>
       </c>
       <c r="N52" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O52" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P52" t="n">
         <v>1.53</v>
@@ -6768,22 +6768,22 @@
         <v>2.38</v>
       </c>
       <c r="R52" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S52" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T52" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U52" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V52" t="n">
         <v>9</v>
       </c>
       <c r="W52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X52" t="n">
         <v>17</v>
@@ -6795,7 +6795,7 @@
         <v>7</v>
       </c>
       <c r="AA52" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB52" t="n">
         <v>21</v>
@@ -6807,22 +6807,22 @@
         <v>301</v>
       </c>
       <c r="AE52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF52" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG52" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH52" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI52" t="n">
         <v>51</v>
       </c>
       <c r="AJ52" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53">
@@ -7101,19 +7101,19 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H55" t="n">
         <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="J55" t="n">
         <v>1.08</v>
       </c>
       <c r="K55" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L55" t="n">
         <v>1.4</v>
@@ -7134,31 +7134,31 @@
         <v>2.5</v>
       </c>
       <c r="R55" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S55" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T55" t="n">
         <v>8</v>
       </c>
       <c r="U55" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W55" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X55" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y55" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z55" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA55" t="n">
         <v>6</v>
@@ -7170,19 +7170,19 @@
         <v>51</v>
       </c>
       <c r="AD55" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE55" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG55" t="n">
         <v>10</v>
       </c>
       <c r="AH55" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI55" t="n">
         <v>21</v>
@@ -7223,13 +7223,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="H56" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I56" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J56" t="n">
         <v>1.03</v>
@@ -7256,10 +7256,10 @@
         <v>3.25</v>
       </c>
       <c r="R56" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S56" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T56" t="n">
         <v>7</v>
@@ -7268,16 +7268,16 @@
         <v>6.5</v>
       </c>
       <c r="V56" t="n">
+        <v>9</v>
+      </c>
+      <c r="W56" t="n">
         <v>8.5</v>
-      </c>
-      <c r="W56" t="n">
-        <v>9</v>
       </c>
       <c r="X56" t="n">
         <v>12</v>
       </c>
       <c r="Y56" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z56" t="n">
         <v>12</v>
@@ -7289,13 +7289,13 @@
         <v>21</v>
       </c>
       <c r="AC56" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD56" t="n">
         <v>351</v>
       </c>
       <c r="AE56" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF56" t="n">
         <v>41</v>
@@ -7304,7 +7304,7 @@
         <v>23</v>
       </c>
       <c r="AH56" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI56" t="n">
         <v>51</v>
@@ -7345,13 +7345,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H57" t="n">
         <v>3.5</v>
       </c>
       <c r="I57" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J57" t="n">
         <v>1.03</v>
@@ -7390,13 +7390,13 @@
         <v>13</v>
       </c>
       <c r="V57" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W57" t="n">
         <v>21</v>
       </c>
       <c r="X57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y57" t="n">
         <v>21</v>
@@ -7417,19 +7417,19 @@
         <v>101</v>
       </c>
       <c r="AE57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF57" t="n">
         <v>19</v>
       </c>
       <c r="AG57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH57" t="n">
         <v>34</v>
       </c>
       <c r="AI57" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ57" t="n">
         <v>26</v>
@@ -7467,13 +7467,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H58" t="n">
         <v>3.4</v>
       </c>
       <c r="I58" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J58" t="n">
         <v>1.06</v>
@@ -7482,22 +7482,22 @@
         <v>10</v>
       </c>
       <c r="L58" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M58" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N58" t="n">
         <v>2.05</v>
       </c>
       <c r="O58" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P58" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R58" t="n">
         <v>1.8</v>
@@ -7518,13 +7518,13 @@
         <v>19</v>
       </c>
       <c r="X58" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y58" t="n">
         <v>29</v>
       </c>
       <c r="Z58" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA58" t="n">
         <v>6.5</v>
@@ -7539,7 +7539,7 @@
         <v>251</v>
       </c>
       <c r="AE58" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF58" t="n">
         <v>17</v>
@@ -7551,7 +7551,7 @@
         <v>34</v>
       </c>
       <c r="AI58" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ58" t="n">
         <v>34</v>
@@ -7833,13 +7833,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H61" t="n">
         <v>3.4</v>
       </c>
       <c r="I61" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J61" t="n">
         <v>1.06</v>
@@ -7848,10 +7848,10 @@
         <v>10</v>
       </c>
       <c r="L61" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M61" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N61" t="n">
         <v>2.1</v>
@@ -7875,7 +7875,7 @@
         <v>6.5</v>
       </c>
       <c r="U61" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V61" t="n">
         <v>9</v>
@@ -7890,7 +7890,7 @@
         <v>29</v>
       </c>
       <c r="Z61" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA61" t="n">
         <v>6.5</v>
@@ -7905,10 +7905,10 @@
         <v>351</v>
       </c>
       <c r="AE61" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF61" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG61" t="n">
         <v>13</v>
@@ -7917,7 +7917,7 @@
         <v>41</v>
       </c>
       <c r="AI61" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ61" t="n">
         <v>41</v>
@@ -7958,52 +7958,52 @@
         <v>1.11</v>
       </c>
       <c r="H62" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="I62" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="O62" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="n">
-        <v>2.11</v>
+        <v>2.09</v>
       </c>
       <c r="S62" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="T62" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U62" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="V62" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W62" t="n">
         <v>5.5</v>
       </c>
-      <c r="V62" t="n">
+      <c r="X62" t="n">
         <v>9.25</v>
-      </c>
-      <c r="W62" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="X62" t="n">
-        <v>9</v>
       </c>
       <c r="Y62" t="n">
         <v>27</v>
       </c>
       <c r="Z62" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA62" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB62" t="n">
         <v>28</v>
@@ -8015,22 +8015,22 @@
         <v>700</v>
       </c>
       <c r="AE62" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AF62" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AG62" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AH62" t="n">
         <v>500</v>
       </c>
       <c r="AI62" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AJ62" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63">
@@ -8068,7 +8068,7 @@
         <v>1.5</v>
       </c>
       <c r="H63" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I63" t="n">
         <v>6.4</v>
@@ -8079,13 +8079,13 @@
         <v>1.18</v>
       </c>
       <c r="M63" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="N63" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="O63" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -8096,10 +8096,10 @@
         <v>2.04</v>
       </c>
       <c r="T63" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="U63" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="V63" t="n">
         <v>6.5</v>
@@ -8111,25 +8111,25 @@
         <v>9.25</v>
       </c>
       <c r="Y63" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA63" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AB63" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AC63" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD63" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AE63" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AF63" t="n">
         <v>40</v>
@@ -8182,46 +8182,46 @@
         <v>2.55</v>
       </c>
       <c r="H64" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I64" t="n">
         <v>2.55</v>
       </c>
       <c r="J64" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K64" t="n">
+        <v>11</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T64" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U64" t="n">
         <v>13</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M64" t="n">
-        <v>4</v>
-      </c>
-      <c r="N64" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O64" t="n">
-        <v>2</v>
-      </c>
-      <c r="P64" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R64" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S64" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T64" t="n">
-        <v>11</v>
-      </c>
-      <c r="U64" t="n">
-        <v>15</v>
       </c>
       <c r="V64" t="n">
         <v>10</v>
@@ -8230,31 +8230,31 @@
         <v>26</v>
       </c>
       <c r="X64" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y64" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Z64" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB64" t="n">
         <v>13</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>12</v>
       </c>
       <c r="AC64" t="n">
         <v>41</v>
       </c>
       <c r="AD64" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AE64" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AF64" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG64" t="n">
         <v>10</v>
@@ -8263,10 +8263,10 @@
         <v>26</v>
       </c>
       <c r="AI64" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ64" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65">
@@ -8304,28 +8304,28 @@
         <v>2.2</v>
       </c>
       <c r="H65" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I65" t="n">
         <v>3.2</v>
       </c>
-      <c r="I65" t="n">
-        <v>3.3</v>
-      </c>
       <c r="J65" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K65" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L65" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M65" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N65" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="O65" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="P65" t="n">
         <v>1.44</v>
@@ -8334,16 +8334,16 @@
         <v>2.63</v>
       </c>
       <c r="R65" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S65" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T65" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U65" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V65" t="n">
         <v>9.5</v>
@@ -8358,7 +8358,7 @@
         <v>29</v>
       </c>
       <c r="Z65" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA65" t="n">
         <v>6</v>
@@ -8370,10 +8370,10 @@
         <v>51</v>
       </c>
       <c r="AD65" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE65" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF65" t="n">
         <v>17</v>
@@ -8385,10 +8385,10 @@
         <v>34</v>
       </c>
       <c r="AI65" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ65" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
@@ -8426,7 +8426,7 @@
         <v>3.9</v>
       </c>
       <c r="H66" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I66" t="n">
         <v>1.91</v>
@@ -8438,16 +8438,16 @@
         <v>11</v>
       </c>
       <c r="L66" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M66" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N66" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O66" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P66" t="n">
         <v>1.4</v>
@@ -8489,13 +8489,13 @@
         <v>15</v>
       </c>
       <c r="AC66" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD66" t="n">
         <v>201</v>
       </c>
       <c r="AE66" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF66" t="n">
         <v>9.5</v>
@@ -8789,13 +8789,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H69" t="n">
         <v>3.6</v>
       </c>
       <c r="I69" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
         <v>1.04</v>
@@ -8834,7 +8834,7 @@
         <v>12</v>
       </c>
       <c r="V69" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W69" t="n">
         <v>21</v>
@@ -8861,7 +8861,7 @@
         <v>151</v>
       </c>
       <c r="AE69" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF69" t="n">
         <v>17</v>
@@ -8870,13 +8870,13 @@
         <v>11</v>
       </c>
       <c r="AH69" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ69" t="n">
         <v>29</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="70">
@@ -8911,13 +8911,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="H70" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I70" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J70" t="n">
         <v>1.08</v>
@@ -8926,22 +8926,22 @@
         <v>8</v>
       </c>
       <c r="L70" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M70" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N70" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="O70" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P70" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R70" t="n">
         <v>2.1</v>
@@ -8953,13 +8953,13 @@
         <v>5.5</v>
       </c>
       <c r="U70" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V70" t="n">
         <v>9</v>
       </c>
       <c r="W70" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X70" t="n">
         <v>17</v>
@@ -8968,7 +8968,7 @@
         <v>34</v>
       </c>
       <c r="Z70" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA70" t="n">
         <v>6.5</v>
@@ -8983,10 +8983,10 @@
         <v>501</v>
       </c>
       <c r="AE70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF70" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG70" t="n">
         <v>17</v>
@@ -9033,19 +9033,19 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H71" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I71" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K71" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L71" t="n">
         <v>1.3</v>
@@ -9057,13 +9057,13 @@
         <v>2.05</v>
       </c>
       <c r="O71" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P71" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R71" t="n">
         <v>1.8</v>
@@ -9078,19 +9078,19 @@
         <v>9</v>
       </c>
       <c r="V71" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W71" t="n">
         <v>17</v>
       </c>
       <c r="X71" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y71" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z71" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA71" t="n">
         <v>6.5</v>
@@ -9108,7 +9108,7 @@
         <v>11</v>
       </c>
       <c r="AF71" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG71" t="n">
         <v>13</v>
@@ -9155,37 +9155,37 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H72" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I72" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J72" t="n">
         <v>1.07</v>
       </c>
       <c r="K72" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L72" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M72" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N72" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O72" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P72" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R72" t="n">
         <v>2.05</v>
@@ -9203,19 +9203,19 @@
         <v>8.5</v>
       </c>
       <c r="W72" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X72" t="n">
         <v>15</v>
       </c>
       <c r="Y72" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z72" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA72" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB72" t="n">
         <v>19</v>
@@ -9224,7 +9224,7 @@
         <v>67</v>
       </c>
       <c r="AD72" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE72" t="n">
         <v>12</v>
@@ -9399,19 +9399,19 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H74" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K74" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L74" t="n">
         <v>1.4</v>
@@ -9456,13 +9456,13 @@
         <v>34</v>
       </c>
       <c r="Z74" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA74" t="n">
         <v>6</v>
       </c>
       <c r="AB74" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC74" t="n">
         <v>51</v>
@@ -9474,10 +9474,10 @@
         <v>8</v>
       </c>
       <c r="AF74" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG74" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH74" t="n">
         <v>34</v>
@@ -9521,37 +9521,37 @@
         </is>
       </c>
       <c r="G75" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>7</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N75" t="n">
         <v>2.4</v>
       </c>
-      <c r="H75" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I75" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K75" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="L75" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M75" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N75" t="n">
-        <v>2.5</v>
-      </c>
       <c r="O75" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P75" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R75" t="n">
         <v>2.05</v>
@@ -9563,16 +9563,16 @@
         <v>6.5</v>
       </c>
       <c r="U75" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V75" t="n">
         <v>10</v>
       </c>
       <c r="W75" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X75" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y75" t="n">
         <v>41</v>
@@ -9581,7 +9581,7 @@
         <v>6.5</v>
       </c>
       <c r="AA75" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB75" t="n">
         <v>17</v>
@@ -9590,10 +9590,10 @@
         <v>67</v>
       </c>
       <c r="AD75" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE75" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF75" t="n">
         <v>15</v>
@@ -9602,7 +9602,7 @@
         <v>13</v>
       </c>
       <c r="AH75" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI75" t="n">
         <v>34</v>
@@ -9643,13 +9643,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H76" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I76" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J76" t="n">
         <v>1.06</v>
@@ -10497,19 +10497,19 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H83" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I83" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J83" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K83" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L83" t="n">
         <v>1.5</v>
@@ -10518,10 +10518,10 @@
         <v>2.5</v>
       </c>
       <c r="N83" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O83" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P83" t="n">
         <v>1.57</v>
@@ -10530,13 +10530,13 @@
         <v>2.25</v>
       </c>
       <c r="R83" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S83" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T83" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U83" t="n">
         <v>15</v>
@@ -10545,7 +10545,7 @@
         <v>13</v>
       </c>
       <c r="W83" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X83" t="n">
         <v>34</v>
@@ -10581,7 +10581,7 @@
         <v>21</v>
       </c>
       <c r="AI83" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ83" t="n">
         <v>41</v>
@@ -10640,10 +10640,10 @@
         <v>4</v>
       </c>
       <c r="N84" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O84" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P84" t="n">
         <v>1.33</v>
@@ -10722,7 +10722,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>04:03</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -10741,7 +10741,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H85" t="n">
         <v>3.2</v>
@@ -10750,22 +10750,22 @@
         <v>2.5</v>
       </c>
       <c r="J85" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K85" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L85" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M85" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N85" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O85" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="P85" t="n">
         <v>1.57</v>
@@ -10783,7 +10783,7 @@
         <v>7</v>
       </c>
       <c r="U85" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V85" t="n">
         <v>11</v>
@@ -10792,7 +10792,7 @@
         <v>29</v>
       </c>
       <c r="X85" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y85" t="n">
         <v>41</v>
@@ -10801,7 +10801,7 @@
         <v>7</v>
       </c>
       <c r="AA85" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB85" t="n">
         <v>19</v>
@@ -10822,10 +10822,10 @@
         <v>11</v>
       </c>
       <c r="AH85" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI85" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ85" t="n">
         <v>41</v>
@@ -10999,7 +10999,7 @@
         <v>1.23</v>
       </c>
       <c r="M87" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N87" t="n">
         <v>1.7</v>
@@ -11010,10 +11010,10 @@
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="n">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="S87" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="T87" t="n">
         <v>15.5</v>
@@ -11465,13 +11465,13 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H91" t="n">
         <v>3.4</v>
       </c>
       <c r="I91" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J91" t="n">
         <v>1.05</v>
@@ -11486,7 +11486,7 @@
         <v>3.5</v>
       </c>
       <c r="N91" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O91" t="n">
         <v>1.85</v>
@@ -11510,13 +11510,13 @@
         <v>9.5</v>
       </c>
       <c r="V91" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W91" t="n">
         <v>17</v>
       </c>
       <c r="X91" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y91" t="n">
         <v>26</v>
@@ -11534,7 +11534,7 @@
         <v>51</v>
       </c>
       <c r="AD91" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE91" t="n">
         <v>11</v>
@@ -11705,13 +11705,13 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H93" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I93" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J93" t="n">
         <v>1.03</v>
@@ -11726,10 +11726,10 @@
         <v>5</v>
       </c>
       <c r="N93" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O93" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P93" t="n">
         <v>1.29</v>
@@ -11738,10 +11738,10 @@
         <v>3.5</v>
       </c>
       <c r="R93" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S93" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T93" t="n">
         <v>9.5</v>
@@ -11765,7 +11765,7 @@
         <v>17</v>
       </c>
       <c r="AA93" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB93" t="n">
         <v>13</v>
@@ -11774,13 +11774,13 @@
         <v>41</v>
       </c>
       <c r="AD93" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE93" t="n">
         <v>17</v>
       </c>
       <c r="AF93" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG93" t="n">
         <v>15</v>
@@ -11827,13 +11827,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H94" t="n">
         <v>3.7</v>
       </c>
       <c r="I94" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J94" t="n">
         <v>1.03</v>
@@ -11866,7 +11866,7 @@
         <v>2.25</v>
       </c>
       <c r="T94" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U94" t="n">
         <v>13</v>
@@ -11878,7 +11878,7 @@
         <v>23</v>
       </c>
       <c r="X94" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y94" t="n">
         <v>23</v>
@@ -11887,7 +11887,7 @@
         <v>15</v>
       </c>
       <c r="AA94" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB94" t="n">
         <v>13</v>
@@ -11908,10 +11908,10 @@
         <v>10</v>
       </c>
       <c r="AH94" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI94" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ94" t="n">
         <v>23</v>
@@ -11949,13 +11949,13 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H95" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I95" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J95" t="n">
         <v>1.05</v>
@@ -11976,16 +11976,16 @@
         <v>1.9</v>
       </c>
       <c r="P95" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q95" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R95" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S95" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T95" t="n">
         <v>8.5</v>
@@ -11997,43 +11997,43 @@
         <v>9</v>
       </c>
       <c r="W95" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X95" t="n">
         <v>17</v>
       </c>
       <c r="Y95" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z95" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA95" t="n">
         <v>6</v>
       </c>
       <c r="AB95" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC95" t="n">
         <v>41</v>
       </c>
       <c r="AD95" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE95" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG95" t="n">
         <v>12</v>
-      </c>
-      <c r="AF95" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG95" t="n">
-        <v>13</v>
       </c>
       <c r="AH95" t="n">
         <v>41</v>
       </c>
       <c r="AI95" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ95" t="n">
         <v>34</v>
@@ -12437,37 +12437,37 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="H99" t="n">
         <v>4.75</v>
       </c>
       <c r="I99" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="J99" t="n">
         <v>1.03</v>
       </c>
       <c r="K99" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L99" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M99" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N99" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O99" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="P99" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q99" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R99" t="n">
         <v>1.8</v>
@@ -12479,13 +12479,13 @@
         <v>19</v>
       </c>
       <c r="U99" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="V99" t="n">
         <v>19</v>
       </c>
       <c r="W99" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="X99" t="n">
         <v>41</v>
@@ -12494,10 +12494,10 @@
         <v>41</v>
       </c>
       <c r="Z99" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA99" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB99" t="n">
         <v>19</v>
@@ -12506,10 +12506,10 @@
         <v>51</v>
       </c>
       <c r="AD99" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE99" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF99" t="n">
         <v>7.5</v>
@@ -12518,7 +12518,7 @@
         <v>8.5</v>
       </c>
       <c r="AH99" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI99" t="n">
         <v>11</v>
@@ -12681,13 +12681,13 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H101" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I101" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J101" t="n">
         <v>1.04</v>
@@ -12702,10 +12702,10 @@
         <v>4.33</v>
       </c>
       <c r="N101" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O101" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P101" t="n">
         <v>1.33</v>
@@ -12735,10 +12735,10 @@
         <v>15</v>
       </c>
       <c r="Y101" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z101" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA101" t="n">
         <v>7</v>
@@ -12768,7 +12768,7 @@
         <v>29</v>
       </c>
       <c r="AJ101" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102">
@@ -12812,10 +12812,10 @@
         <v>3.2</v>
       </c>
       <c r="J102" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K102" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L102" t="n">
         <v>1.44</v>
@@ -12934,22 +12934,22 @@
         <v>3</v>
       </c>
       <c r="J103" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K103" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L103" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M103" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N103" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="O103" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P103" t="n">
         <v>1.44</v>
@@ -13047,13 +13047,13 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H104" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I104" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J104" t="n">
         <v>1.04</v>
@@ -13098,16 +13098,16 @@
         <v>21</v>
       </c>
       <c r="X104" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y104" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z104" t="n">
         <v>13</v>
       </c>
       <c r="AA104" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB104" t="n">
         <v>12</v>
@@ -13119,10 +13119,10 @@
         <v>126</v>
       </c>
       <c r="AE104" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF104" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG104" t="n">
         <v>12</v>
@@ -13169,13 +13169,13 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H105" t="n">
         <v>3.4</v>
       </c>
       <c r="I105" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J105" t="n">
         <v>1.05</v>
@@ -13184,22 +13184,22 @@
         <v>11</v>
       </c>
       <c r="L105" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M105" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N105" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="O105" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="P105" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q105" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R105" t="n">
         <v>1.7</v>
@@ -13241,22 +13241,22 @@
         <v>201</v>
       </c>
       <c r="AE105" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF105" t="n">
         <v>17</v>
       </c>
       <c r="AG105" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH105" t="n">
         <v>34</v>
       </c>
       <c r="AI105" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ105" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106">
@@ -13535,13 +13535,13 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H108" t="n">
         <v>3.9</v>
       </c>
       <c r="I108" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J108" t="n">
         <v>1.03</v>
@@ -13556,10 +13556,10 @@
         <v>4.33</v>
       </c>
       <c r="N108" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O108" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P108" t="n">
         <v>1.33</v>
@@ -13577,7 +13577,7 @@
         <v>8</v>
       </c>
       <c r="U108" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V108" t="n">
         <v>8.5</v>
@@ -13586,7 +13586,7 @@
         <v>12</v>
       </c>
       <c r="X108" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y108" t="n">
         <v>23</v>
@@ -13607,13 +13607,13 @@
         <v>201</v>
       </c>
       <c r="AE108" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF108" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG108" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH108" t="n">
         <v>51</v>
@@ -13657,31 +13657,31 @@
         </is>
       </c>
       <c r="G109" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I109" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K109" t="n">
+        <v>10</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M109" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N109" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O109" t="n">
         <v>1.73</v>
-      </c>
-      <c r="H109" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I109" t="n">
-        <v>5</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K109" t="n">
-        <v>9</v>
-      </c>
-      <c r="L109" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M109" t="n">
-        <v>3</v>
-      </c>
-      <c r="N109" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O109" t="n">
-        <v>1.7</v>
       </c>
       <c r="P109" t="n">
         <v>1.44</v>
@@ -13690,22 +13690,22 @@
         <v>2.63</v>
       </c>
       <c r="R109" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S109" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T109" t="n">
         <v>6</v>
       </c>
       <c r="U109" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V109" t="n">
         <v>8.5</v>
       </c>
       <c r="W109" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X109" t="n">
         <v>15</v>
@@ -13714,25 +13714,25 @@
         <v>29</v>
       </c>
       <c r="Z109" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA109" t="n">
         <v>7</v>
       </c>
       <c r="AB109" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC109" t="n">
         <v>67</v>
       </c>
       <c r="AD109" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE109" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF109" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG109" t="n">
         <v>17</v>
@@ -13744,7 +13744,7 @@
         <v>41</v>
       </c>
       <c r="AJ109" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="110">
@@ -13779,37 +13779,37 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H110" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I110" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J110" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K110" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L110" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M110" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N110" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="O110" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="P110" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q110" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R110" t="n">
         <v>2.25</v>
@@ -13824,22 +13824,22 @@
         <v>7</v>
       </c>
       <c r="V110" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W110" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X110" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y110" t="n">
         <v>41</v>
       </c>
       <c r="Z110" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA110" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB110" t="n">
         <v>21</v>
@@ -13849,13 +13849,13 @@
       </c>
       <c r="AD110" t="inlineStr"/>
       <c r="AE110" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF110" t="n">
         <v>23</v>
       </c>
       <c r="AG110" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH110" t="n">
         <v>51</v>
@@ -13899,13 +13899,13 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>6.25</v>
+        <v>5.5</v>
       </c>
       <c r="H111" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I111" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="J111" t="n">
         <v>1.05</v>
@@ -13914,16 +13914,16 @@
         <v>11</v>
       </c>
       <c r="L111" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M111" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N111" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O111" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P111" t="n">
         <v>1.4</v>
@@ -13932,28 +13932,28 @@
         <v>2.75</v>
       </c>
       <c r="R111" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S111" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T111" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U111" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V111" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W111" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="X111" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y111" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z111" t="n">
         <v>10</v>
@@ -13962,25 +13962,25 @@
         <v>7.5</v>
       </c>
       <c r="AB111" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC111" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD111" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AE111" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF111" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG111" t="n">
         <v>8.5</v>
       </c>
       <c r="AH111" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI111" t="n">
         <v>13</v>
@@ -14021,13 +14021,13 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H112" t="n">
         <v>3.1</v>
       </c>
       <c r="I112" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J112" t="n">
         <v>1.1</v>
@@ -14036,10 +14036,10 @@
         <v>7</v>
       </c>
       <c r="L112" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M112" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N112" t="n">
         <v>2.5</v>
@@ -14060,10 +14060,10 @@
         <v>1.67</v>
       </c>
       <c r="T112" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U112" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V112" t="n">
         <v>13</v>
@@ -14078,7 +14078,7 @@
         <v>41</v>
       </c>
       <c r="Z112" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA112" t="n">
         <v>6</v>
@@ -14096,13 +14096,13 @@
         <v>6</v>
       </c>
       <c r="AF112" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG112" t="n">
         <v>9.5</v>
       </c>
-      <c r="AG112" t="n">
-        <v>10</v>
-      </c>
       <c r="AH112" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI112" t="n">
         <v>21</v>
@@ -14143,85 +14143,85 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H113" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I113" t="n">
         <v>2.3</v>
       </c>
       <c r="J113" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K113" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L113" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M113" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N113" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O113" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="P113" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q113" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R113" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S113" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="T113" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U113" t="n">
         <v>15</v>
       </c>
       <c r="V113" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W113" t="n">
+        <v>29</v>
+      </c>
+      <c r="X113" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y113" t="n">
         <v>34</v>
       </c>
-      <c r="X113" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y113" t="n">
-        <v>41</v>
-      </c>
       <c r="Z113" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA113" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB113" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC113" t="n">
         <v>51</v>
       </c>
       <c r="AD113" t="n">
-        <v>900</v>
+        <v>301</v>
       </c>
       <c r="AE113" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF113" t="n">
         <v>11</v>
       </c>
       <c r="AG113" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH113" t="n">
         <v>23</v>
@@ -14274,10 +14274,10 @@
         <v>3.2</v>
       </c>
       <c r="J114" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K114" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L114" t="n">
         <v>1.36</v>
@@ -14286,10 +14286,10 @@
         <v>3</v>
       </c>
       <c r="N114" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O114" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P114" t="n">
         <v>1.44</v>
@@ -14387,31 +14387,31 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H115" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I115" t="n">
         <v>2.25</v>
       </c>
       <c r="J115" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K115" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L115" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M115" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N115" t="n">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="O115" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="P115" t="n">
         <v>1.44</v>
@@ -14420,19 +14420,19 @@
         <v>2.63</v>
       </c>
       <c r="R115" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S115" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T115" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U115" t="n">
         <v>15</v>
       </c>
       <c r="V115" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W115" t="n">
         <v>34</v>
@@ -14441,13 +14441,13 @@
         <v>26</v>
       </c>
       <c r="Y115" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z115" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA115" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB115" t="n">
         <v>15</v>
@@ -14456,10 +14456,10 @@
         <v>51</v>
       </c>
       <c r="AD115" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE115" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF115" t="n">
         <v>11</v>
@@ -14471,10 +14471,10 @@
         <v>21</v>
       </c>
       <c r="AI115" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ115" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116">
@@ -14652,10 +14652,10 @@
         <v>2.75</v>
       </c>
       <c r="N117" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O117" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P117" t="n">
         <v>1.53</v>
@@ -14762,10 +14762,10 @@
         <v>1.95</v>
       </c>
       <c r="J118" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K118" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L118" t="n">
         <v>1.44</v>
@@ -14875,31 +14875,31 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="H119" t="n">
         <v>3</v>
       </c>
       <c r="I119" t="n">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="J119" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K119" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L119" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M119" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N119" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="O119" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P119" t="n">
         <v>1.5</v>
@@ -14914,22 +14914,22 @@
         <v>1.8</v>
       </c>
       <c r="T119" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U119" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V119" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W119" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X119" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y119" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z119" t="n">
         <v>7.5</v>
@@ -14947,22 +14947,22 @@
         <v>351</v>
       </c>
       <c r="AE119" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF119" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG119" t="n">
         <v>11</v>
       </c>
       <c r="AH119" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI119" t="n">
         <v>26</v>
       </c>
-      <c r="AI119" t="n">
-        <v>23</v>
-      </c>
       <c r="AJ119" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120">
@@ -15241,94 +15241,94 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.12</v>
+        <v>2.35</v>
       </c>
       <c r="H122" t="n">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="I122" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J122" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="K122" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="L122" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="M122" t="n">
-        <v>2.85</v>
+        <v>2.42</v>
       </c>
       <c r="N122" t="n">
-        <v>2.1</v>
+        <v>2.42</v>
       </c>
       <c r="O122" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="P122" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="Q122" t="n">
-        <v>2.62</v>
+        <v>2.3</v>
       </c>
       <c r="R122" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S122" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="T122" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="U122" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="V122" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="W122" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X122" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Y122" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="Z122" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="AA122" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="AB122" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC122" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AD122" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AE122" t="n">
-        <v>8.75</v>
+        <v>7.9</v>
       </c>
       <c r="AF122" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG122" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AH122" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AI122" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AJ122" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="123">
@@ -15366,13 +15366,13 @@
         <v>2.25</v>
       </c>
       <c r="H123" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I123" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J123" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="K123" t="n">
         <v>6</v>
@@ -15396,13 +15396,13 @@
         <v>2.5</v>
       </c>
       <c r="R123" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S123" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T123" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="U123" t="n">
         <v>9.75</v>
@@ -15423,25 +15423,25 @@
         <v>6</v>
       </c>
       <c r="AA123" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB123" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC123" t="n">
         <v>90</v>
       </c>
       <c r="AD123" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE123" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF123" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG123" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AH123" t="n">
         <v>45</v>
@@ -15485,82 +15485,82 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H124" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I124" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J124" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K124" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="L124" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M124" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N124" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O124" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P124" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="R124" t="n">
         <v>2.15</v>
       </c>
-      <c r="O124" t="n">
+      <c r="S124" t="n">
         <v>1.62</v>
       </c>
-      <c r="P124" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q124" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="R124" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S124" t="n">
-        <v>1.6</v>
-      </c>
       <c r="T124" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="U124" t="n">
         <v>6.2</v>
       </c>
       <c r="V124" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W124" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="X124" t="n">
         <v>14</v>
       </c>
       <c r="Y124" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z124" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AA124" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AB124" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AC124" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD124" t="n">
         <v>700</v>
       </c>
       <c r="AE124" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF124" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG124" t="n">
         <v>21</v>
@@ -15569,10 +15569,10 @@
         <v>150</v>
       </c>
       <c r="AI124" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ124" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="125">
@@ -15729,31 +15729,31 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H126" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I126" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J126" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K126" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L126" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M126" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N126" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="O126" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P126" t="n">
         <v>1.44</v>
@@ -15768,16 +15768,16 @@
         <v>1.83</v>
       </c>
       <c r="T126" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U126" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V126" t="n">
         <v>12</v>
       </c>
       <c r="W126" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X126" t="n">
         <v>29</v>
@@ -15786,31 +15786,31 @@
         <v>41</v>
       </c>
       <c r="Z126" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA126" t="n">
         <v>6.5</v>
       </c>
       <c r="AB126" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC126" t="n">
         <v>51</v>
       </c>
       <c r="AD126" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE126" t="n">
         <v>7</v>
       </c>
       <c r="AF126" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG126" t="n">
         <v>9.5</v>
       </c>
-      <c r="AG126" t="n">
-        <v>9</v>
-      </c>
       <c r="AH126" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI126" t="n">
         <v>19</v>
@@ -15851,19 +15851,19 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H127" t="n">
         <v>3.5</v>
       </c>
       <c r="I127" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J127" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K127" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L127" t="n">
         <v>1.36</v>
@@ -15872,10 +15872,10 @@
         <v>3</v>
       </c>
       <c r="N127" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O127" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P127" t="n">
         <v>1.44</v>
@@ -15884,22 +15884,22 @@
         <v>2.63</v>
       </c>
       <c r="R127" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S127" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T127" t="n">
         <v>6.5</v>
       </c>
       <c r="U127" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V127" t="n">
         <v>9</v>
       </c>
       <c r="W127" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X127" t="n">
         <v>17</v>
@@ -15917,25 +15917,25 @@
         <v>17</v>
       </c>
       <c r="AC127" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD127" t="n">
         <v>401</v>
       </c>
       <c r="AE127" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF127" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG127" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH127" t="n">
         <v>41</v>
       </c>
       <c r="AI127" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ127" t="n">
         <v>41</v>
@@ -16217,13 +16217,13 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H130" t="n">
         <v>3.5</v>
       </c>
       <c r="I130" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J130" t="n">
         <v>1.06</v>
@@ -16232,16 +16232,16 @@
         <v>10</v>
       </c>
       <c r="L130" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M130" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N130" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="O130" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P130" t="n">
         <v>1.44</v>
@@ -16259,13 +16259,13 @@
         <v>6.5</v>
       </c>
       <c r="U130" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V130" t="n">
         <v>9</v>
       </c>
       <c r="W130" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X130" t="n">
         <v>17</v>
@@ -16286,22 +16286,22 @@
         <v>51</v>
       </c>
       <c r="AD130" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AE130" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF130" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG130" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH130" t="n">
         <v>41</v>
       </c>
       <c r="AI130" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ130" t="n">
         <v>41</v>
@@ -16339,13 +16339,13 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="H131" t="n">
         <v>3.1</v>
       </c>
       <c r="I131" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="J131" t="n">
         <v>1.08</v>
@@ -16360,37 +16360,37 @@
         <v>2.75</v>
       </c>
       <c r="N131" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O131" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P131" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q131" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R131" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S131" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T131" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U131" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V131" t="n">
         <v>10</v>
       </c>
       <c r="W131" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X131" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y131" t="n">
         <v>34</v>
@@ -16414,16 +16414,16 @@
         <v>8</v>
       </c>
       <c r="AF131" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG131" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH131" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI131" t="n">
         <v>29</v>
-      </c>
-      <c r="AI131" t="n">
-        <v>26</v>
       </c>
       <c r="AJ131" t="n">
         <v>41</v>
@@ -16461,13 +16461,13 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H132" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I132" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J132" t="n">
         <v>1.08</v>
@@ -16482,10 +16482,10 @@
         <v>2.63</v>
       </c>
       <c r="N132" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O132" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P132" t="n">
         <v>1.53</v>
@@ -16509,7 +16509,7 @@
         <v>9</v>
       </c>
       <c r="W132" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X132" t="n">
         <v>17</v>
@@ -16518,31 +16518,31 @@
         <v>41</v>
       </c>
       <c r="Z132" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA132" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB132" t="n">
         <v>23</v>
       </c>
       <c r="AC132" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD132" t="n">
         <v>101</v>
       </c>
       <c r="AE132" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF132" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG132" t="n">
         <v>19</v>
       </c>
       <c r="AH132" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI132" t="n">
         <v>51</v>
@@ -16586,28 +16586,28 @@
         <v>2.63</v>
       </c>
       <c r="H133" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I133" t="n">
         <v>2.9</v>
       </c>
       <c r="J133" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K133" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L133" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M133" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N133" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O133" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="P133" t="n">
         <v>1.53</v>
@@ -16616,13 +16616,13 @@
         <v>2.38</v>
       </c>
       <c r="R133" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S133" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T133" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U133" t="n">
         <v>12</v>
@@ -16643,25 +16643,25 @@
         <v>7</v>
       </c>
       <c r="AA133" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB133" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC133" t="n">
         <v>51</v>
       </c>
       <c r="AD133" t="n">
-        <v>1000</v>
+        <v>351</v>
       </c>
       <c r="AE133" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF133" t="n">
         <v>13</v>
       </c>
       <c r="AG133" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH133" t="n">
         <v>29</v>
@@ -16705,19 +16705,19 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="H134" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I134" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J134" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="K134" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L134" t="n">
         <v>1.5</v>
@@ -16726,10 +16726,10 @@
         <v>2.5</v>
       </c>
       <c r="N134" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O134" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P134" t="n">
         <v>1.57</v>
@@ -16744,31 +16744,31 @@
         <v>1.67</v>
       </c>
       <c r="T134" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U134" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V134" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W134" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="X134" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y134" t="n">
         <v>41</v>
       </c>
       <c r="Z134" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA134" t="n">
         <v>6</v>
       </c>
-      <c r="AA134" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AB134" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC134" t="n">
         <v>67</v>
@@ -16777,19 +16777,19 @@
         <v>101</v>
       </c>
       <c r="AE134" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF134" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG134" t="n">
         <v>13</v>
-      </c>
-      <c r="AG134" t="n">
-        <v>12</v>
       </c>
       <c r="AH134" t="n">
         <v>34</v>
       </c>
       <c r="AI134" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ134" t="n">
         <v>41</v>
@@ -16827,94 +16827,94 @@
         </is>
       </c>
       <c r="G135" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H135" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I135" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K135" t="n">
+        <v>9</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M135" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N135" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O135" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P135" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R135" t="n">
         <v>1.91</v>
       </c>
-      <c r="H135" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I135" t="n">
-        <v>4</v>
-      </c>
-      <c r="J135" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K135" t="n">
-        <v>11</v>
-      </c>
-      <c r="L135" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M135" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N135" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="O135" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P135" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q135" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R135" t="n">
-        <v>1.75</v>
-      </c>
       <c r="S135" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T135" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U135" t="n">
+        <v>10</v>
+      </c>
+      <c r="V135" t="n">
         <v>9.5</v>
       </c>
-      <c r="V135" t="n">
+      <c r="W135" t="n">
+        <v>21</v>
+      </c>
+      <c r="X135" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z135" t="n">
         <v>8.5</v>
       </c>
-      <c r="W135" t="n">
-        <v>17</v>
-      </c>
-      <c r="X135" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y135" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z135" t="n">
-        <v>11</v>
-      </c>
       <c r="AA135" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB135" t="n">
         <v>15</v>
       </c>
       <c r="AC135" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD135" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AE135" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG135" t="n">
         <v>12</v>
       </c>
-      <c r="AF135" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG135" t="n">
-        <v>13</v>
-      </c>
       <c r="AH135" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI135" t="n">
         <v>29</v>
       </c>
       <c r="AJ135" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136">
@@ -16949,67 +16949,67 @@
         </is>
       </c>
       <c r="G136" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H136" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I136" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K136" t="n">
+        <v>11</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M136" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N136" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O136" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P136" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R136" t="n">
         <v>1.75</v>
       </c>
-      <c r="H136" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I136" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J136" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K136" t="n">
-        <v>13</v>
-      </c>
-      <c r="L136" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M136" t="n">
-        <v>4</v>
-      </c>
-      <c r="N136" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="O136" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="P136" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q136" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R136" t="n">
-        <v>1.7</v>
-      </c>
       <c r="S136" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T136" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U136" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V136" t="n">
         <v>8.5</v>
       </c>
       <c r="W136" t="n">
+        <v>17</v>
+      </c>
+      <c r="X136" t="n">
         <v>15</v>
       </c>
-      <c r="X136" t="n">
-        <v>13</v>
-      </c>
       <c r="Y136" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z136" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA136" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB136" t="n">
         <v>15</v>
@@ -17021,19 +17021,19 @@
         <v>201</v>
       </c>
       <c r="AE136" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG136" t="n">
         <v>13</v>
-      </c>
-      <c r="AF136" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG136" t="n">
-        <v>15</v>
       </c>
       <c r="AH136" t="n">
         <v>41</v>
       </c>
       <c r="AI136" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ136" t="n">
         <v>34</v>
@@ -17071,49 +17071,49 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H137" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I137" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J137" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K137" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L137" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="M137" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="N137" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="O137" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="P137" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="R137" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S137" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T137" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="U137" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="V137" t="n">
         <v>9.5</v>
@@ -17122,43 +17122,43 @@
         <v>21</v>
       </c>
       <c r="X137" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y137" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z137" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AA137" t="n">
         <v>6</v>
       </c>
       <c r="AB137" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC137" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD137" t="n">
-        <v>251</v>
+        <v>401</v>
       </c>
       <c r="AE137" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF137" t="n">
         <v>15</v>
       </c>
       <c r="AG137" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH137" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI137" t="n">
         <v>34</v>
       </c>
-      <c r="AI137" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ137" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138">
@@ -17214,10 +17214,10 @@
         <v>4</v>
       </c>
       <c r="N138" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O138" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P138" t="n">
         <v>1.33</v>
@@ -17321,25 +17321,25 @@
         <v>3.25</v>
       </c>
       <c r="I139" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J139" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K139" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L139" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M139" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N139" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="O139" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="P139" t="n">
         <v>1.4</v>
@@ -17348,13 +17348,13 @@
         <v>2.75</v>
       </c>
       <c r="R139" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S139" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T139" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U139" t="n">
         <v>10</v>
@@ -17363,13 +17363,13 @@
         <v>9</v>
       </c>
       <c r="W139" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X139" t="n">
         <v>17</v>
       </c>
       <c r="Y139" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z139" t="n">
         <v>10</v>
@@ -17384,7 +17384,7 @@
         <v>51</v>
       </c>
       <c r="AD139" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE139" t="n">
         <v>10</v>
@@ -17399,7 +17399,7 @@
         <v>34</v>
       </c>
       <c r="AI139" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ139" t="n">
         <v>34</v>
@@ -17458,10 +17458,10 @@
         <v>3.5</v>
       </c>
       <c r="N140" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O140" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P140" t="n">
         <v>1.4</v>
@@ -17562,10 +17562,10 @@
         <v>5.75</v>
       </c>
       <c r="H141" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I141" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J141" t="n">
         <v>1.02</v>
@@ -17574,16 +17574,16 @@
         <v>19</v>
       </c>
       <c r="L141" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M141" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N141" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O141" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P141" t="n">
         <v>1.25</v>
@@ -17592,10 +17592,10 @@
         <v>3.75</v>
       </c>
       <c r="R141" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S141" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T141" t="n">
         <v>21</v>
@@ -17619,7 +17619,7 @@
         <v>19</v>
       </c>
       <c r="AA141" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB141" t="n">
         <v>15</v>
@@ -17681,13 +17681,13 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H142" t="n">
         <v>3.4</v>
       </c>
       <c r="I142" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="J142" t="n">
         <v>1.05</v>
@@ -17729,16 +17729,16 @@
         <v>11</v>
       </c>
       <c r="W142" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X142" t="n">
         <v>23</v>
       </c>
       <c r="Y142" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z142" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA142" t="n">
         <v>6.5</v>
@@ -17756,13 +17756,13 @@
         <v>8.5</v>
       </c>
       <c r="AF142" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG142" t="n">
         <v>9.5</v>
       </c>
       <c r="AH142" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI142" t="n">
         <v>19</v>
@@ -17803,82 +17803,82 @@
         </is>
       </c>
       <c r="G143" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H143" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I143" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K143" t="n">
+        <v>11</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M143" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N143" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O143" t="n">
         <v>1.9</v>
       </c>
-      <c r="H143" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I143" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J143" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K143" t="n">
-        <v>13</v>
-      </c>
-      <c r="L143" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M143" t="n">
-        <v>4</v>
-      </c>
-      <c r="N143" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O143" t="n">
-        <v>2.1</v>
-      </c>
       <c r="P143" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="Q143" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="R143" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S143" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T143" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U143" t="n">
         <v>10</v>
       </c>
       <c r="V143" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W143" t="n">
+        <v>19</v>
+      </c>
+      <c r="X143" t="n">
         <v>17</v>
       </c>
-      <c r="X143" t="n">
+      <c r="Y143" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB143" t="n">
         <v>15</v>
-      </c>
-      <c r="Y143" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z143" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA143" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB143" t="n">
-        <v>13</v>
       </c>
       <c r="AC143" t="n">
         <v>41</v>
       </c>
       <c r="AD143" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE143" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF143" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG143" t="n">
         <v>13</v>
@@ -18287,7 +18287,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H147" t="n">
         <v>3.25</v>
@@ -18299,7 +18299,7 @@
         <v>1.07</v>
       </c>
       <c r="K147" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L147" t="n">
         <v>1.36</v>
@@ -18314,22 +18314,22 @@
         <v>1.67</v>
       </c>
       <c r="P147" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q147" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R147" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S147" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T147" t="n">
         <v>9</v>
       </c>
       <c r="U147" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V147" t="n">
         <v>12</v>
@@ -18350,31 +18350,31 @@
         <v>6.5</v>
       </c>
       <c r="AB147" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC147" t="n">
         <v>51</v>
       </c>
       <c r="AD147" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE147" t="n">
         <v>7</v>
       </c>
       <c r="AF147" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG147" t="n">
         <v>9.5</v>
       </c>
       <c r="AH147" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI147" t="n">
         <v>19</v>
       </c>
       <c r="AJ147" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="148">
@@ -18796,10 +18796,10 @@
         <v>3.75</v>
       </c>
       <c r="N151" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="O151" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="P151" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-30.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>1.07</v>
@@ -689,13 +689,13 @@
         <v>7</v>
       </c>
       <c r="U2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V2" t="n">
         <v>9</v>
       </c>
       <c r="W2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X2" t="n">
         <v>17</v>
@@ -704,7 +704,7 @@
         <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA2" t="n">
         <v>6</v>
@@ -719,7 +719,7 @@
         <v>301</v>
       </c>
       <c r="AE2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
         <v>19</v>
@@ -772,16 +772,16 @@
         <v>3.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L3" t="n">
         <v>1.33</v>
@@ -841,10 +841,10 @@
         <v>251</v>
       </c>
       <c r="AE3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG3" t="n">
         <v>9</v>
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="L4" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N4" t="n">
         <v>1.67</v>
@@ -1019,7 +1019,7 @@
         <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J5" t="n">
         <v>1.07</v>
@@ -1058,7 +1058,7 @@
         <v>15</v>
       </c>
       <c r="V5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W5" t="n">
         <v>34</v>
@@ -1260,10 +1260,10 @@
         <v>1.95</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>1.07</v>
@@ -1299,7 +1299,7 @@
         <v>6.5</v>
       </c>
       <c r="U7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V7" t="n">
         <v>9</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H8" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J8" t="n">
         <v>1.03</v>
@@ -1412,31 +1412,31 @@
         <v>3.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V8" t="n">
         <v>8.5</v>
       </c>
       <c r="W8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X8" t="n">
         <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
         <v>8</v>
@@ -1448,19 +1448,19 @@
         <v>41</v>
       </c>
       <c r="AD8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI8" t="n">
         <v>41</v>
@@ -1501,19 +1501,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J9" t="n">
         <v>1.06</v>
       </c>
       <c r="K9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L9" t="n">
         <v>1.33</v>
@@ -1522,10 +1522,10 @@
         <v>3.4</v>
       </c>
       <c r="N9" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="O9" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="P9" t="n">
         <v>1.4</v>
@@ -1534,22 +1534,22 @@
         <v>2.75</v>
       </c>
       <c r="R9" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S9" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T9" t="n">
         <v>6.5</v>
       </c>
       <c r="U9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V9" t="n">
         <v>8.5</v>
       </c>
       <c r="W9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X9" t="n">
         <v>15</v>
@@ -1561,25 +1561,25 @@
         <v>9.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
         <v>51</v>
       </c>
       <c r="AD9" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>51</v>
@@ -1632,34 +1632,34 @@
         <v>2.1</v>
       </c>
       <c r="J10" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M10" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N10" t="n">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="O10" t="n">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="P10" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T10" t="n">
         <v>11</v>
@@ -1674,7 +1674,7 @@
         <v>41</v>
       </c>
       <c r="X10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y10" t="n">
         <v>34</v>
@@ -1692,13 +1692,13 @@
         <v>41</v>
       </c>
       <c r="AD10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
         <v>9</v>
@@ -1710,7 +1710,7 @@
         <v>17</v>
       </c>
       <c r="AJ10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -1748,7 +1748,7 @@
         <v>1.4</v>
       </c>
       <c r="H11" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
         <v>9</v>
@@ -1772,37 +1772,37 @@
         <v>1.95</v>
       </c>
       <c r="P11" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S11" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W11" t="n">
         <v>9</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
         <v>29</v>
       </c>
       <c r="Z11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA11" t="n">
         <v>8.5</v>
@@ -1814,10 +1814,10 @@
         <v>67</v>
       </c>
       <c r="AD11" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AE11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
         <v>41</v>
@@ -1829,10 +1829,10 @@
         <v>101</v>
       </c>
       <c r="AI11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J12" t="n">
         <v>1.06</v>
@@ -1882,16 +1882,16 @@
         <v>10</v>
       </c>
       <c r="L12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O12" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="P12" t="n">
         <v>1.4</v>
@@ -1924,10 +1924,10 @@
         <v>26</v>
       </c>
       <c r="Z12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB12" t="n">
         <v>15</v>
@@ -1939,7 +1939,7 @@
         <v>251</v>
       </c>
       <c r="AE12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
@@ -1989,22 +1989,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K13" t="n">
         <v>13</v>
       </c>
       <c r="L13" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
@@ -2016,16 +2016,16 @@
         <v>2.1</v>
       </c>
       <c r="P13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S13" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T13" t="n">
         <v>8.5</v>
@@ -2037,16 +2037,16 @@
         <v>8.5</v>
       </c>
       <c r="W13" t="n">
+        <v>17</v>
+      </c>
+      <c r="X13" t="n">
         <v>15</v>
-      </c>
-      <c r="X13" t="n">
-        <v>13</v>
       </c>
       <c r="Y13" t="n">
         <v>23</v>
       </c>
       <c r="Z13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA13" t="n">
         <v>7</v>
@@ -2114,10 +2114,10 @@
         <v>3.8</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J14" t="n">
         <v>1.04</v>
@@ -2138,19 +2138,19 @@
         <v>2.08</v>
       </c>
       <c r="P14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R14" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S14" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U14" t="n">
         <v>21</v>
@@ -2171,19 +2171,19 @@
         <v>13</v>
       </c>
       <c r="AA14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC14" t="n">
         <v>41</v>
       </c>
       <c r="AD14" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF14" t="n">
         <v>9.5</v>
@@ -2192,7 +2192,7 @@
         <v>8.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
         <v>15</v>
@@ -2233,37 +2233,37 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I15" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J15" t="n">
         <v>1.02</v>
       </c>
       <c r="K15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L15" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="M15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N15" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O15" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="P15" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R15" t="n">
         <v>1.5</v>
@@ -2272,7 +2272,7 @@
         <v>2.5</v>
       </c>
       <c r="T15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U15" t="n">
         <v>10</v>
@@ -2293,7 +2293,7 @@
         <v>21</v>
       </c>
       <c r="AA15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB15" t="n">
         <v>13</v>
@@ -2305,10 +2305,10 @@
         <v>101</v>
       </c>
       <c r="AE15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG15" t="n">
         <v>17</v>
@@ -2320,7 +2320,7 @@
         <v>34</v>
       </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -2519,7 +2519,7 @@
         <v>8.5</v>
       </c>
       <c r="U17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V17" t="n">
         <v>13</v>
@@ -2534,7 +2534,7 @@
         <v>41</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA17" t="n">
         <v>6</v>
@@ -2599,19 +2599,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H18" t="n">
         <v>6.5</v>
       </c>
       <c r="I18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J18" t="n">
         <v>1.01</v>
       </c>
       <c r="K18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L18" t="n">
         <v>1.1</v>
@@ -2632,22 +2632,22 @@
         <v>4.33</v>
       </c>
       <c r="R18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T18" t="n">
         <v>12</v>
       </c>
       <c r="U18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V18" t="n">
         <v>9.5</v>
       </c>
       <c r="W18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X18" t="n">
         <v>10</v>
@@ -2662,10 +2662,10 @@
         <v>13</v>
       </c>
       <c r="AB18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD18" t="n">
         <v>151</v>
@@ -2674,10 +2674,10 @@
         <v>29</v>
       </c>
       <c r="AF18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH18" t="n">
         <v>101</v>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J19" t="n">
         <v>1.05</v>
@@ -2736,16 +2736,16 @@
         <v>11</v>
       </c>
       <c r="L19" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N19" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O19" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="P19" t="n">
         <v>1.4</v>
@@ -2763,13 +2763,13 @@
         <v>6</v>
       </c>
       <c r="U19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V19" t="n">
         <v>8.5</v>
       </c>
       <c r="W19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X19" t="n">
         <v>13</v>
@@ -2793,13 +2793,13 @@
         <v>501</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH19" t="n">
         <v>81</v>
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J20" t="n">
         <v>1.11</v>
@@ -2870,10 +2870,10 @@
         <v>1.5</v>
       </c>
       <c r="P20" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R20" t="n">
         <v>2.2</v>
@@ -2891,7 +2891,7 @@
         <v>9.5</v>
       </c>
       <c r="W20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X20" t="n">
         <v>21</v>
@@ -2900,13 +2900,13 @@
         <v>41</v>
       </c>
       <c r="Z20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA20" t="n">
         <v>6</v>
       </c>
       <c r="AB20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="n">
         <v>81</v>
@@ -2971,7 +2971,7 @@
         <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J21" t="n">
         <v>1.08</v>
@@ -2986,25 +2986,25 @@
         <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P21" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R21" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U21" t="n">
         <v>8</v>
@@ -3019,10 +3019,10 @@
         <v>17</v>
       </c>
       <c r="Y21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA21" t="n">
         <v>6.5</v>
@@ -3031,10 +3031,10 @@
         <v>17</v>
       </c>
       <c r="AC21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD21" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE21" t="n">
         <v>11</v>
@@ -3209,25 +3209,25 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H23" t="n">
         <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J23" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M23" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N23" t="n">
         <v>2.7</v>
@@ -3281,16 +3281,16 @@
         <v>101</v>
       </c>
       <c r="AE23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG23" t="n">
         <v>19</v>
       </c>
       <c r="AH23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI23" t="n">
         <v>51</v>
@@ -3331,13 +3331,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J24" t="n">
         <v>1.1</v>
@@ -3352,10 +3352,10 @@
         <v>2.5</v>
       </c>
       <c r="N24" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O24" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P24" t="n">
         <v>1.57</v>
@@ -3370,10 +3370,10 @@
         <v>1.67</v>
       </c>
       <c r="T24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V24" t="n">
         <v>13</v>
@@ -3388,10 +3388,10 @@
         <v>41</v>
       </c>
       <c r="Z24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA24" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>6</v>
       </c>
       <c r="AB24" t="n">
         <v>19</v>
@@ -3406,13 +3406,13 @@
         <v>6</v>
       </c>
       <c r="AF24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG24" t="n">
         <v>9.5</v>
       </c>
-      <c r="AG24" t="n">
-        <v>10</v>
-      </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
         <v>21</v>
@@ -3453,19 +3453,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
         <v>2.7</v>
       </c>
       <c r="I25" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
         <v>1.67</v>
@@ -3492,16 +3492,16 @@
         <v>1.5</v>
       </c>
       <c r="T25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V25" t="n">
         <v>12</v>
       </c>
       <c r="W25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X25" t="n">
         <v>29</v>
@@ -3846,10 +3846,10 @@
         <v>1.29</v>
       </c>
       <c r="P28" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R28" t="n">
         <v>2.63</v>
@@ -3941,13 +3941,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H29" t="n">
         <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J29" t="n">
         <v>1.1</v>
@@ -3956,28 +3956,28 @@
         <v>7</v>
       </c>
       <c r="L29" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M29" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N29" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O29" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P29" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R29" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S29" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T29" t="n">
         <v>6</v>
@@ -3995,10 +3995,10 @@
         <v>19</v>
       </c>
       <c r="Y29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA29" t="n">
         <v>6</v>
@@ -4028,7 +4028,7 @@
         <v>41</v>
       </c>
       <c r="AJ29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H30" t="n">
         <v>2.88</v>
       </c>
       <c r="I30" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J30" t="n">
         <v>1.14</v>
@@ -4084,16 +4084,16 @@
         <v>2.1</v>
       </c>
       <c r="N30" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P30" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R30" t="n">
         <v>2.5</v>
@@ -4105,7 +4105,7 @@
         <v>6.5</v>
       </c>
       <c r="U30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V30" t="n">
         <v>13</v>
@@ -4114,13 +4114,13 @@
         <v>41</v>
       </c>
       <c r="X30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y30" t="n">
         <v>51</v>
       </c>
       <c r="Z30" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AA30" t="n">
         <v>6</v>
@@ -4138,7 +4138,7 @@
         <v>5.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG30" t="n">
         <v>11</v>
@@ -4185,13 +4185,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H31" t="n">
         <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="J31" t="n">
         <v>1.13</v>
@@ -4218,28 +4218,28 @@
         <v>2.1</v>
       </c>
       <c r="R31" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S31" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T31" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="U31" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="V31" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W31" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="X31" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Y31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z31" t="n">
         <v>6</v>
@@ -4257,22 +4257,22 @@
         <v>101</v>
       </c>
       <c r="AE31" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AG31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AI31" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AJ31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32">
@@ -4307,43 +4307,43 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H32" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I32" t="n">
         <v>6.5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="K32" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="L32" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="M32" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P32" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="R32" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S32" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T32" t="n">
         <v>4.33</v>
@@ -4358,22 +4358,22 @@
         <v>13</v>
       </c>
       <c r="X32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y32" t="n">
         <v>51</v>
       </c>
       <c r="Z32" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AA32" t="n">
         <v>6.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC32" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AD32" t="n">
         <v>101</v>
@@ -4385,7 +4385,7 @@
         <v>29</v>
       </c>
       <c r="AG32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH32" t="n">
         <v>81</v>
@@ -4394,7 +4394,7 @@
         <v>67</v>
       </c>
       <c r="AJ32" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33">
@@ -4429,13 +4429,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="H33" t="n">
         <v>3.1</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="J33" t="n">
         <v>1.14</v>
@@ -4456,61 +4456,61 @@
         <v>1.33</v>
       </c>
       <c r="P33" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R33" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="S33" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T33" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U33" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="V33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W33" t="n">
+        <v>41</v>
+      </c>
+      <c r="X33" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y33" t="n">
         <v>51</v>
-      </c>
-      <c r="X33" t="n">
-        <v>51</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>67</v>
       </c>
       <c r="Z33" t="n">
         <v>5</v>
       </c>
       <c r="AA33" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC33" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AD33" t="n">
         <v>101</v>
       </c>
       <c r="AE33" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AF33" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG33" t="n">
         <v>11</v>
       </c>
       <c r="AH33" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI33" t="n">
         <v>26</v>
@@ -4673,13 +4673,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H35" t="n">
         <v>2.8</v>
       </c>
       <c r="I35" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J35" t="n">
         <v>1.13</v>
@@ -4754,7 +4754,7 @@
         <v>13</v>
       </c>
       <c r="AH35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI35" t="n">
         <v>34</v>
@@ -5039,94 +5039,94 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.88</v>
+        <v>2.55</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I38" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J38" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K38" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L38" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N38" t="n">
-        <v>2.2</v>
+        <v>2.03</v>
       </c>
       <c r="O38" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="P38" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R38" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S38" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T38" t="n">
         <v>8.5</v>
       </c>
       <c r="U38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W38" t="n">
+        <v>26</v>
+      </c>
+      <c r="X38" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y38" t="n">
         <v>29</v>
       </c>
-      <c r="X38" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>34</v>
-      </c>
       <c r="Z38" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AA38" t="n">
         <v>6</v>
       </c>
       <c r="AB38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC38" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD38" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AE38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH38" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
@@ -5161,13 +5161,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I39" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J39" t="n">
         <v>1.04</v>
@@ -5203,13 +5203,13 @@
         <v>7.5</v>
       </c>
       <c r="U39" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V39" t="n">
         <v>8.5</v>
       </c>
       <c r="W39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X39" t="n">
         <v>12</v>
@@ -5230,19 +5230,19 @@
         <v>51</v>
       </c>
       <c r="AD39" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE39" t="n">
         <v>17</v>
       </c>
       <c r="AF39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG39" t="n">
         <v>19</v>
       </c>
       <c r="AH39" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI39" t="n">
         <v>41</v>
@@ -5298,10 +5298,10 @@
         <v>17</v>
       </c>
       <c r="L40" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M40" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N40" t="n">
         <v>1.53</v>
@@ -5411,7 +5411,7 @@
         <v>3.6</v>
       </c>
       <c r="I41" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J41" t="n">
         <v>1.03</v>
@@ -5432,19 +5432,19 @@
         <v>2.15</v>
       </c>
       <c r="P41" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q41" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R41" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S41" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U41" t="n">
         <v>13</v>
@@ -5459,7 +5459,7 @@
         <v>17</v>
       </c>
       <c r="Y41" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z41" t="n">
         <v>15</v>
@@ -5471,7 +5471,7 @@
         <v>12</v>
       </c>
       <c r="AC41" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD41" t="n">
         <v>126</v>
@@ -5492,7 +5492,7 @@
         <v>21</v>
       </c>
       <c r="AJ41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
@@ -5527,13 +5527,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H42" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I42" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -5579,7 +5579,7 @@
         <v>13</v>
       </c>
       <c r="AA42" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB42" t="n">
         <v>13</v>
@@ -5591,13 +5591,13 @@
         <v>151</v>
       </c>
       <c r="AE42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF42" t="n">
         <v>26</v>
       </c>
       <c r="AG42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH42" t="n">
         <v>51</v>
@@ -5606,7 +5606,7 @@
         <v>34</v>
       </c>
       <c r="AJ42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
@@ -5885,19 +5885,19 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I45" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J45" t="n">
         <v>1.06</v>
       </c>
       <c r="K45" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L45" t="n">
         <v>1.3</v>
@@ -5906,10 +5906,10 @@
         <v>3.5</v>
       </c>
       <c r="N45" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="O45" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="P45" t="n">
         <v>1.4</v>
@@ -5927,16 +5927,16 @@
         <v>7</v>
       </c>
       <c r="U45" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V45" t="n">
         <v>8.5</v>
       </c>
       <c r="W45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y45" t="n">
         <v>26</v>
@@ -5945,10 +5945,10 @@
         <v>9.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC45" t="n">
         <v>51</v>
@@ -5960,7 +5960,7 @@
         <v>13</v>
       </c>
       <c r="AF45" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG45" t="n">
         <v>17</v>
@@ -6010,10 +6010,10 @@
         <v>2.35</v>
       </c>
       <c r="H46" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I46" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J46" t="n">
         <v>1.08</v>
@@ -6129,13 +6129,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="H47" t="n">
         <v>3.6</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="J47" t="n">
         <v>1.06</v>
@@ -6144,16 +6144,16 @@
         <v>10</v>
       </c>
       <c r="L47" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M47" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N47" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="O47" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="P47" t="n">
         <v>1.4</v>
@@ -6168,16 +6168,16 @@
         <v>1.95</v>
       </c>
       <c r="T47" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U47" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V47" t="n">
         <v>8.5</v>
       </c>
       <c r="W47" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X47" t="n">
         <v>15</v>
@@ -6201,19 +6201,19 @@
         <v>251</v>
       </c>
       <c r="AE47" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH47" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI47" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ47" t="n">
         <v>41</v>
@@ -6263,7 +6263,7 @@
         <v>1.07</v>
       </c>
       <c r="K48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L48" t="n">
         <v>1.36</v>
@@ -6495,13 +6495,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="H50" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I50" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="J50" t="n">
         <v>1.06</v>
@@ -6537,16 +6537,16 @@
         <v>7</v>
       </c>
       <c r="U50" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="V50" t="n">
         <v>9</v>
       </c>
       <c r="W50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y50" t="n">
         <v>29</v>
@@ -6564,22 +6564,22 @@
         <v>51</v>
       </c>
       <c r="AD50" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH50" t="n">
         <v>41</v>
       </c>
       <c r="AI50" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ50" t="n">
         <v>41</v>
@@ -6620,10 +6620,10 @@
         <v>3.05</v>
       </c>
       <c r="H51" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I51" t="n">
-        <v>2.34</v>
+        <v>2.39</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -6634,7 +6634,7 @@
         <v>2.7</v>
       </c>
       <c r="N51" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="O51" t="n">
         <v>1.57</v>
@@ -6646,7 +6646,7 @@
         <v>2.39</v>
       </c>
       <c r="R51" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S51" t="n">
         <v>1.75</v>
@@ -6670,10 +6670,10 @@
         <v>45</v>
       </c>
       <c r="Z51" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AA51" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AB51" t="n">
         <v>16</v>
@@ -6688,16 +6688,16 @@
         <v>5.6</v>
       </c>
       <c r="AF51" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG51" t="n">
         <v>8.6</v>
       </c>
       <c r="AH51" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI51" t="n">
         <v>21</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>20</v>
       </c>
       <c r="AJ51" t="n">
         <v>40</v>
@@ -6735,13 +6735,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H52" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I52" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J52" t="n">
         <v>1.1</v>
@@ -6750,22 +6750,22 @@
         <v>7</v>
       </c>
       <c r="L52" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M52" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N52" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O52" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P52" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R52" t="n">
         <v>2.25</v>
@@ -6774,7 +6774,7 @@
         <v>1.57</v>
       </c>
       <c r="T52" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U52" t="n">
         <v>6.5</v>
@@ -6783,10 +6783,10 @@
         <v>9</v>
       </c>
       <c r="W52" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y52" t="n">
         <v>41</v>
@@ -6807,16 +6807,16 @@
         <v>301</v>
       </c>
       <c r="AE52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF52" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG52" t="n">
         <v>21</v>
       </c>
       <c r="AH52" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="n">
         <v>51</v>
@@ -6869,7 +6869,7 @@
         <v>1.08</v>
       </c>
       <c r="K53" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L53" t="n">
         <v>1.44</v>
@@ -6890,10 +6890,10 @@
         <v>2.38</v>
       </c>
       <c r="R53" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S53" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T53" t="n">
         <v>7</v>
@@ -6908,7 +6908,7 @@
         <v>26</v>
       </c>
       <c r="X53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y53" t="n">
         <v>41</v>
@@ -6941,7 +6941,7 @@
         <v>26</v>
       </c>
       <c r="AI53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ53" t="n">
         <v>41</v>
@@ -6979,19 +6979,19 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H54" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I54" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J54" t="n">
         <v>1.06</v>
       </c>
       <c r="K54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L54" t="n">
         <v>1.33</v>
@@ -7012,10 +7012,10 @@
         <v>2.63</v>
       </c>
       <c r="R54" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S54" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T54" t="n">
         <v>6</v>
@@ -7027,16 +7027,16 @@
         <v>8.5</v>
       </c>
       <c r="W54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y54" t="n">
         <v>34</v>
       </c>
       <c r="Z54" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA54" t="n">
         <v>8</v>
@@ -7054,10 +7054,10 @@
         <v>13</v>
       </c>
       <c r="AF54" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG54" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH54" t="n">
         <v>67</v>
@@ -7101,19 +7101,19 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H55" t="n">
         <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J55" t="n">
         <v>1.08</v>
       </c>
       <c r="K55" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L55" t="n">
         <v>1.4</v>
@@ -7122,10 +7122,10 @@
         <v>2.75</v>
       </c>
       <c r="N55" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O55" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P55" t="n">
         <v>1.5</v>
@@ -7140,7 +7140,7 @@
         <v>1.8</v>
       </c>
       <c r="T55" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U55" t="n">
         <v>15</v>
@@ -7152,7 +7152,7 @@
         <v>34</v>
       </c>
       <c r="X55" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y55" t="n">
         <v>41</v>
@@ -7164,25 +7164,25 @@
         <v>6</v>
       </c>
       <c r="AB55" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC55" t="n">
         <v>51</v>
       </c>
       <c r="AD55" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE55" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG55" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI55" t="n">
         <v>21</v>
@@ -7223,13 +7223,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H56" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="I56" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J56" t="n">
         <v>1.03</v>
@@ -7238,22 +7238,22 @@
         <v>15</v>
       </c>
       <c r="L56" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M56" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N56" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O56" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P56" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q56" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R56" t="n">
         <v>2</v>
@@ -7262,7 +7262,7 @@
         <v>1.75</v>
       </c>
       <c r="T56" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U56" t="n">
         <v>6.5</v>
@@ -7271,19 +7271,19 @@
         <v>9</v>
       </c>
       <c r="W56" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y56" t="n">
         <v>29</v>
       </c>
       <c r="Z56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA56" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB56" t="n">
         <v>21</v>
@@ -7292,7 +7292,7 @@
         <v>67</v>
       </c>
       <c r="AD56" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE56" t="n">
         <v>21</v>
@@ -7301,13 +7301,13 @@
         <v>41</v>
       </c>
       <c r="AG56" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH56" t="n">
         <v>101</v>
       </c>
       <c r="AI56" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ56" t="n">
         <v>51</v>
@@ -7351,7 +7351,7 @@
         <v>3.5</v>
       </c>
       <c r="I57" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
         <v>1.03</v>
@@ -7360,16 +7360,16 @@
         <v>15</v>
       </c>
       <c r="L57" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M57" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N57" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O57" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P57" t="n">
         <v>1.3</v>
@@ -7488,10 +7488,10 @@
         <v>3.25</v>
       </c>
       <c r="N58" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O58" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P58" t="n">
         <v>1.44</v>
@@ -7711,19 +7711,19 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H60" t="n">
         <v>3.1</v>
       </c>
       <c r="I60" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K60" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L60" t="n">
         <v>1.33</v>
@@ -7753,16 +7753,16 @@
         <v>8</v>
       </c>
       <c r="U60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V60" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W60" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X60" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y60" t="n">
         <v>29</v>
@@ -7792,7 +7792,7 @@
         <v>12</v>
       </c>
       <c r="AH60" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI60" t="n">
         <v>26</v>
@@ -7842,16 +7842,16 @@
         <v>3.9</v>
       </c>
       <c r="J61" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K61" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L61" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M61" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N61" t="n">
         <v>2.1</v>
@@ -7955,13 +7955,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="H62" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="I62" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -7976,61 +7976,61 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="n">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="S62" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="T62" t="n">
         <v>8.25</v>
       </c>
       <c r="U62" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="V62" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W62" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="X62" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="Y62" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Z62" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA62" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB62" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AC62" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD62" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE62" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AF62" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG62" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AH62" t="n">
         <v>500</v>
       </c>
       <c r="AI62" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AJ62" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63">
@@ -8065,50 +8065,50 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="H63" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I63" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="M63" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="N63" t="n">
         <v>1.6</v>
       </c>
       <c r="O63" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="S63" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="T63" t="n">
         <v>6.8</v>
       </c>
       <c r="U63" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="V63" t="n">
         <v>6.5</v>
       </c>
       <c r="W63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X63" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="Y63" t="n">
         <v>15.5</v>
@@ -8117,34 +8117,34 @@
         <v>11.5</v>
       </c>
       <c r="AA63" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AB63" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AC63" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD63" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AE63" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF63" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI63" t="n">
         <v>40</v>
       </c>
-      <c r="AG63" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>120</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>50</v>
-      </c>
       <c r="AJ63" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64">
@@ -8179,19 +8179,19 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="H64" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I64" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J64" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K64" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L64" t="n">
         <v>1.25</v>
@@ -8200,16 +8200,16 @@
         <v>3.75</v>
       </c>
       <c r="N64" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O64" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P64" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R64" t="n">
         <v>1.67</v>
@@ -8218,10 +8218,10 @@
         <v>2.1</v>
       </c>
       <c r="T64" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V64" t="n">
         <v>10</v>
@@ -8236,7 +8236,7 @@
         <v>29</v>
       </c>
       <c r="Z64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA64" t="n">
         <v>6.5</v>
@@ -8248,25 +8248,25 @@
         <v>41</v>
       </c>
       <c r="AD64" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE64" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF64" t="n">
         <v>13</v>
       </c>
       <c r="AG64" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH64" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ64" t="n">
         <v>26</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="65">
@@ -8301,13 +8301,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H65" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I65" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J65" t="n">
         <v>1.05</v>
@@ -8328,52 +8328,52 @@
         <v>1.88</v>
       </c>
       <c r="P65" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R65" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S65" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T65" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U65" t="n">
+        <v>10</v>
+      </c>
+      <c r="V65" t="n">
+        <v>9</v>
+      </c>
+      <c r="W65" t="n">
+        <v>19</v>
+      </c>
+      <c r="X65" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE65" t="n">
         <v>11</v>
-      </c>
-      <c r="V65" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W65" t="n">
-        <v>21</v>
-      </c>
-      <c r="X65" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>10</v>
       </c>
       <c r="AF65" t="n">
         <v>17</v>
@@ -8382,10 +8382,10 @@
         <v>12</v>
       </c>
       <c r="AH65" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI65" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ65" t="n">
         <v>34</v>
@@ -8423,19 +8423,19 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="H66" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I66" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K66" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L66" t="n">
         <v>1.25</v>
@@ -8444,16 +8444,16 @@
         <v>3.75</v>
       </c>
       <c r="N66" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="O66" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="P66" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R66" t="n">
         <v>1.73</v>
@@ -8465,10 +8465,10 @@
         <v>12</v>
       </c>
       <c r="U66" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W66" t="n">
         <v>41</v>
@@ -8480,10 +8480,10 @@
         <v>34</v>
       </c>
       <c r="Z66" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA66" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB66" t="n">
         <v>15</v>
@@ -8498,7 +8498,7 @@
         <v>8</v>
       </c>
       <c r="AF66" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG66" t="n">
         <v>8.5</v>
@@ -8510,7 +8510,7 @@
         <v>15</v>
       </c>
       <c r="AJ66" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67">
@@ -8551,13 +8551,13 @@
         <v>3.5</v>
       </c>
       <c r="I67" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J67" t="n">
         <v>1.04</v>
       </c>
       <c r="K67" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L67" t="n">
         <v>1.22</v>
@@ -8578,13 +8578,13 @@
         <v>3</v>
       </c>
       <c r="R67" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S67" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T67" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U67" t="n">
         <v>11</v>
@@ -8679,7 +8679,7 @@
         <v>1.04</v>
       </c>
       <c r="K68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L68" t="n">
         <v>1.25</v>
@@ -8688,10 +8688,10 @@
         <v>3.75</v>
       </c>
       <c r="N68" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O68" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P68" t="n">
         <v>1.36</v>
@@ -8789,13 +8789,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="H69" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="J69" t="n">
         <v>1.04</v>
@@ -8822,25 +8822,25 @@
         <v>3.25</v>
       </c>
       <c r="R69" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S69" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T69" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U69" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V69" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W69" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X69" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y69" t="n">
         <v>23</v>
@@ -8852,7 +8852,7 @@
         <v>7</v>
       </c>
       <c r="AB69" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC69" t="n">
         <v>41</v>
@@ -8861,22 +8861,22 @@
         <v>151</v>
       </c>
       <c r="AE69" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF69" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG69" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH69" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AI69" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ69" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
@@ -9033,19 +9033,19 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H71" t="n">
         <v>3.5</v>
       </c>
       <c r="I71" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J71" t="n">
         <v>1.06</v>
       </c>
       <c r="K71" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L71" t="n">
         <v>1.3</v>
@@ -9060,34 +9060,34 @@
         <v>1.8</v>
       </c>
       <c r="P71" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R71" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S71" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T71" t="n">
         <v>7</v>
       </c>
       <c r="U71" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V71" t="n">
         <v>8.5</v>
       </c>
       <c r="W71" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X71" t="n">
         <v>15</v>
       </c>
       <c r="Y71" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z71" t="n">
         <v>9.5</v>
@@ -9102,16 +9102,16 @@
         <v>51</v>
       </c>
       <c r="AD71" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF71" t="n">
         <v>21</v>
       </c>
       <c r="AG71" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH71" t="n">
         <v>41</v>
@@ -9155,25 +9155,25 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H72" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I72" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J72" t="n">
         <v>1.07</v>
       </c>
       <c r="K72" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L72" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M72" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N72" t="n">
         <v>2.1</v>
@@ -9209,7 +9209,7 @@
         <v>15</v>
       </c>
       <c r="Y72" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z72" t="n">
         <v>8.5</v>
@@ -9230,13 +9230,13 @@
         <v>12</v>
       </c>
       <c r="AF72" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG72" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH72" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI72" t="n">
         <v>41</v>
@@ -9643,19 +9643,19 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H76" t="n">
         <v>3.2</v>
       </c>
       <c r="I76" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J76" t="n">
         <v>1.06</v>
       </c>
       <c r="K76" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L76" t="n">
         <v>1.3</v>
@@ -9676,13 +9676,13 @@
         <v>2.63</v>
       </c>
       <c r="R76" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S76" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T76" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U76" t="n">
         <v>13</v>
@@ -9700,19 +9700,19 @@
         <v>29</v>
       </c>
       <c r="Z76" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA76" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB76" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC76" t="n">
         <v>51</v>
       </c>
       <c r="AD76" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE76" t="n">
         <v>8.5</v>
@@ -10985,86 +10985,86 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="H87" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="I87" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M87" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="N87" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O87" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="n">
-        <v>2.16</v>
+        <v>2.19</v>
       </c>
       <c r="S87" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="T87" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="U87" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="V87" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W87" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="X87" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="Y87" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Z87" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA87" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AB87" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC87" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD87" t="n">
         <v>101</v>
       </c>
       <c r="AE87" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AF87" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AG87" t="n">
         <v>7.4</v>
       </c>
       <c r="AH87" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AI87" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AJ87" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
@@ -11355,19 +11355,19 @@
         <v>1.03</v>
       </c>
       <c r="K90" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L90" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M90" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N90" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O90" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P90" t="n">
         <v>1.3</v>
@@ -11465,19 +11465,19 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="H91" t="n">
         <v>3.4</v>
       </c>
       <c r="I91" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="J91" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K91" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L91" t="n">
         <v>1.29</v>
@@ -11486,7 +11486,7 @@
         <v>3.5</v>
       </c>
       <c r="N91" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O91" t="n">
         <v>1.85</v>
@@ -11498,25 +11498,25 @@
         <v>2.75</v>
       </c>
       <c r="R91" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S91" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T91" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U91" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V91" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W91" t="n">
+        <v>19</v>
+      </c>
+      <c r="X91" t="n">
         <v>17</v>
-      </c>
-      <c r="X91" t="n">
-        <v>15</v>
       </c>
       <c r="Y91" t="n">
         <v>26</v>
@@ -11528,7 +11528,7 @@
         <v>6.5</v>
       </c>
       <c r="AB91" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC91" t="n">
         <v>51</v>
@@ -11537,19 +11537,19 @@
         <v>201</v>
       </c>
       <c r="AE91" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF91" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG91" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH91" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI91" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ91" t="n">
         <v>34</v>
@@ -11705,13 +11705,13 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H93" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I93" t="n">
         <v>4.2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>4.5</v>
       </c>
       <c r="J93" t="n">
         <v>1.03</v>
@@ -11726,10 +11726,10 @@
         <v>5</v>
       </c>
       <c r="N93" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O93" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P93" t="n">
         <v>1.29</v>
@@ -11738,22 +11738,22 @@
         <v>3.5</v>
       </c>
       <c r="R93" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S93" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T93" t="n">
         <v>9.5</v>
       </c>
       <c r="U93" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V93" t="n">
         <v>8.5</v>
       </c>
       <c r="W93" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X93" t="n">
         <v>12</v>
@@ -11765,7 +11765,7 @@
         <v>17</v>
       </c>
       <c r="AA93" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB93" t="n">
         <v>13</v>
@@ -11774,7 +11774,7 @@
         <v>41</v>
       </c>
       <c r="AD93" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE93" t="n">
         <v>17</v>
@@ -11786,13 +11786,13 @@
         <v>15</v>
       </c>
       <c r="AH93" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI93" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ93" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94">
@@ -12336,10 +12336,10 @@
         <v>3.75</v>
       </c>
       <c r="N98" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O98" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P98" t="n">
         <v>1.36</v>
@@ -12437,13 +12437,13 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="H99" t="n">
         <v>4.75</v>
       </c>
       <c r="I99" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="J99" t="n">
         <v>1.03</v>
@@ -12485,10 +12485,10 @@
         <v>19</v>
       </c>
       <c r="W99" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="X99" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y99" t="n">
         <v>41</v>
@@ -12681,13 +12681,13 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H101" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I101" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J101" t="n">
         <v>1.04</v>
@@ -12702,10 +12702,10 @@
         <v>4.33</v>
       </c>
       <c r="N101" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O101" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P101" t="n">
         <v>1.33</v>
@@ -12714,19 +12714,19 @@
         <v>3.25</v>
       </c>
       <c r="R101" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S101" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T101" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U101" t="n">
+        <v>11</v>
+      </c>
+      <c r="V101" t="n">
         <v>9</v>
-      </c>
-      <c r="U101" t="n">
-        <v>10</v>
-      </c>
-      <c r="V101" t="n">
-        <v>8.5</v>
       </c>
       <c r="W101" t="n">
         <v>17</v>
@@ -12744,16 +12744,16 @@
         <v>7</v>
       </c>
       <c r="AB101" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC101" t="n">
         <v>41</v>
       </c>
       <c r="AD101" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE101" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF101" t="n">
         <v>21</v>
@@ -12925,7 +12925,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H103" t="n">
         <v>3.2</v>
@@ -12934,43 +12934,43 @@
         <v>3</v>
       </c>
       <c r="J103" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K103" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L103" t="n">
         <v>1.33</v>
       </c>
       <c r="M103" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N103" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="O103" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P103" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R103" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S103" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T103" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U103" t="n">
         <v>11</v>
       </c>
       <c r="V103" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W103" t="n">
         <v>23</v>
@@ -12982,22 +12982,22 @@
         <v>34</v>
       </c>
       <c r="Z103" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA103" t="n">
         <v>6</v>
       </c>
       <c r="AB103" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC103" t="n">
         <v>51</v>
       </c>
       <c r="AD103" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE103" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF103" t="n">
         <v>15</v>
@@ -13012,7 +13012,7 @@
         <v>26</v>
       </c>
       <c r="AJ103" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104">
@@ -13047,13 +13047,13 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="H104" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I104" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="J104" t="n">
         <v>1.04</v>
@@ -13062,16 +13062,16 @@
         <v>13</v>
       </c>
       <c r="L104" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M104" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N104" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O104" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P104" t="n">
         <v>1.33</v>
@@ -13080,34 +13080,34 @@
         <v>3.25</v>
       </c>
       <c r="R104" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S104" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T104" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U104" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V104" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W104" t="n">
+        <v>17</v>
+      </c>
+      <c r="X104" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y104" t="n">
         <v>21</v>
-      </c>
-      <c r="X104" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y104" t="n">
-        <v>23</v>
       </c>
       <c r="Z104" t="n">
         <v>13</v>
       </c>
       <c r="AA104" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB104" t="n">
         <v>12</v>
@@ -13116,22 +13116,22 @@
         <v>41</v>
       </c>
       <c r="AD104" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE104" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF104" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG104" t="n">
         <v>12</v>
       </c>
       <c r="AH104" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI104" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ104" t="n">
         <v>29</v>
@@ -13172,43 +13172,43 @@
         <v>2.2</v>
       </c>
       <c r="H105" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I105" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J105" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K105" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L105" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M105" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N105" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="O105" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="P105" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R105" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S105" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T105" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U105" t="n">
         <v>11</v>
@@ -13223,10 +13223,10 @@
         <v>17</v>
       </c>
       <c r="Y105" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z105" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA105" t="n">
         <v>6.5</v>
@@ -13238,25 +13238,25 @@
         <v>41</v>
       </c>
       <c r="AD105" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE105" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF105" t="n">
         <v>17</v>
       </c>
       <c r="AG105" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH105" t="n">
         <v>34</v>
       </c>
       <c r="AI105" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ105" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106">
@@ -13291,19 +13291,19 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H106" t="n">
         <v>3.3</v>
       </c>
       <c r="I106" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J106" t="n">
         <v>1.06</v>
       </c>
       <c r="K106" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L106" t="n">
         <v>1.3</v>
@@ -13333,40 +13333,40 @@
         <v>12</v>
       </c>
       <c r="U106" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V106" t="n">
         <v>15</v>
       </c>
       <c r="W106" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X106" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y106" t="n">
         <v>41</v>
       </c>
       <c r="Z106" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA106" t="n">
         <v>7</v>
       </c>
       <c r="AB106" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC106" t="n">
         <v>51</v>
       </c>
       <c r="AD106" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE106" t="n">
         <v>7</v>
       </c>
       <c r="AF106" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG106" t="n">
         <v>8.5</v>
@@ -13413,13 +13413,13 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H107" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I107" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="J107" t="n">
         <v>1.06</v>
@@ -13446,22 +13446,22 @@
         <v>2.75</v>
       </c>
       <c r="R107" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S107" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T107" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U107" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V107" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W107" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="X107" t="n">
         <v>17</v>
@@ -13485,22 +13485,22 @@
         <v>251</v>
       </c>
       <c r="AE107" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF107" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG107" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH107" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI107" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ107" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ107" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="108">
@@ -13535,19 +13535,19 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H108" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I108" t="n">
         <v>4.75</v>
       </c>
       <c r="J108" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K108" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L108" t="n">
         <v>1.2</v>
@@ -13595,13 +13595,13 @@
         <v>13</v>
       </c>
       <c r="AA108" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB108" t="n">
         <v>15</v>
       </c>
       <c r="AC108" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD108" t="n">
         <v>201</v>
@@ -13657,13 +13657,13 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H109" t="n">
         <v>3.7</v>
       </c>
       <c r="I109" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J109" t="n">
         <v>1.06</v>
@@ -13678,10 +13678,10 @@
         <v>3.25</v>
       </c>
       <c r="N109" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O109" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P109" t="n">
         <v>1.44</v>
@@ -13690,16 +13690,16 @@
         <v>2.63</v>
       </c>
       <c r="R109" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S109" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T109" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U109" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V109" t="n">
         <v>8.5</v>
@@ -13714,7 +13714,7 @@
         <v>29</v>
       </c>
       <c r="Z109" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA109" t="n">
         <v>7</v>
@@ -13726,7 +13726,7 @@
         <v>67</v>
       </c>
       <c r="AD109" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE109" t="n">
         <v>13</v>
@@ -13779,13 +13779,13 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H110" t="n">
         <v>3.4</v>
       </c>
       <c r="I110" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J110" t="n">
         <v>1.08</v>
@@ -13800,10 +13800,10 @@
         <v>2.63</v>
       </c>
       <c r="N110" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O110" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P110" t="n">
         <v>1.53</v>
@@ -13812,13 +13812,13 @@
         <v>2.38</v>
       </c>
       <c r="R110" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S110" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T110" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U110" t="n">
         <v>7</v>
@@ -13839,7 +13839,7 @@
         <v>7</v>
       </c>
       <c r="AA110" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB110" t="n">
         <v>21</v>
@@ -13855,13 +13855,13 @@
         <v>23</v>
       </c>
       <c r="AG110" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH110" t="n">
         <v>51</v>
       </c>
       <c r="AI110" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ110" t="n">
         <v>51</v>
@@ -13899,13 +13899,13 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H111" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I111" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="J111" t="n">
         <v>1.05</v>
@@ -13932,28 +13932,28 @@
         <v>2.75</v>
       </c>
       <c r="R111" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S111" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T111" t="n">
         <v>13</v>
       </c>
       <c r="U111" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V111" t="n">
         <v>17</v>
       </c>
       <c r="W111" t="n">
+        <v>67</v>
+      </c>
+      <c r="X111" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y111" t="n">
         <v>51</v>
-      </c>
-      <c r="X111" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y111" t="n">
-        <v>41</v>
       </c>
       <c r="Z111" t="n">
         <v>10</v>
@@ -13965,22 +13965,22 @@
         <v>19</v>
       </c>
       <c r="AC111" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD111" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE111" t="n">
         <v>6.5</v>
       </c>
       <c r="AF111" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG111" t="n">
         <v>8.5</v>
       </c>
       <c r="AH111" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI111" t="n">
         <v>13</v>
@@ -14143,49 +14143,49 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="H113" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I113" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="J113" t="n">
         <v>1.07</v>
       </c>
       <c r="K113" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L113" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M113" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N113" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O113" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P113" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q113" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R113" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S113" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T113" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U113" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V113" t="n">
         <v>11</v>
@@ -14197,22 +14197,22 @@
         <v>26</v>
       </c>
       <c r="Y113" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z113" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA113" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB113" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC113" t="n">
         <v>51</v>
       </c>
       <c r="AD113" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE113" t="n">
         <v>7.5</v>
@@ -14221,7 +14221,7 @@
         <v>11</v>
       </c>
       <c r="AG113" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH113" t="n">
         <v>23</v>
@@ -14274,10 +14274,10 @@
         <v>3.2</v>
       </c>
       <c r="J114" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K114" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L114" t="n">
         <v>1.36</v>
@@ -14286,10 +14286,10 @@
         <v>3</v>
       </c>
       <c r="N114" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O114" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P114" t="n">
         <v>1.44</v>
@@ -14387,13 +14387,13 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H115" t="n">
         <v>3.25</v>
       </c>
       <c r="I115" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J115" t="n">
         <v>1.06</v>
@@ -14414,10 +14414,10 @@
         <v>1.83</v>
       </c>
       <c r="P115" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q115" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R115" t="n">
         <v>1.8</v>
@@ -14426,13 +14426,13 @@
         <v>1.91</v>
       </c>
       <c r="T115" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U115" t="n">
         <v>15</v>
       </c>
       <c r="V115" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W115" t="n">
         <v>34</v>
@@ -14509,13 +14509,13 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H116" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I116" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J116" t="n">
         <v>1.1</v>
@@ -14548,7 +14548,7 @@
         <v>1.8</v>
       </c>
       <c r="T116" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U116" t="n">
         <v>13</v>
@@ -14584,16 +14584,16 @@
         <v>7.5</v>
       </c>
       <c r="AF116" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG116" t="n">
         <v>11</v>
       </c>
       <c r="AH116" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI116" t="n">
         <v>26</v>
-      </c>
-      <c r="AI116" t="n">
-        <v>23</v>
       </c>
       <c r="AJ116" t="n">
         <v>41</v>
@@ -14652,10 +14652,10 @@
         <v>2.75</v>
       </c>
       <c r="N117" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O117" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P117" t="n">
         <v>1.53</v>
@@ -14875,13 +14875,13 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H119" t="n">
         <v>3</v>
       </c>
       <c r="I119" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J119" t="n">
         <v>1.08</v>
@@ -14902,7 +14902,7 @@
         <v>1.62</v>
       </c>
       <c r="P119" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q119" t="n">
         <v>2.5</v>
@@ -14920,7 +14920,7 @@
         <v>12</v>
       </c>
       <c r="V119" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W119" t="n">
         <v>26</v>
@@ -15003,40 +15003,40 @@
         <v>3.85</v>
       </c>
       <c r="I120" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J120" t="n">
         <v>1.05</v>
       </c>
       <c r="K120" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="L120" t="n">
         <v>1.27</v>
       </c>
       <c r="M120" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="N120" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="O120" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="P120" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q120" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="R120" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S120" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T120" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="U120" t="n">
         <v>6.8</v>
@@ -15051,13 +15051,13 @@
         <v>12.5</v>
       </c>
       <c r="Y120" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z120" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AA120" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AB120" t="n">
         <v>18</v>
@@ -15069,7 +15069,7 @@
         <v>700</v>
       </c>
       <c r="AE120" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF120" t="n">
         <v>37</v>
@@ -15119,31 +15119,31 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H121" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I121" t="n">
-        <v>4.7</v>
+        <v>4.15</v>
       </c>
       <c r="J121" t="n">
         <v>1.09</v>
       </c>
       <c r="K121" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L121" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M121" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="N121" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O121" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P121" t="n">
         <v>1.5</v>
@@ -15152,61 +15152,61 @@
         <v>2.42</v>
       </c>
       <c r="R121" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S121" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T121" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="U121" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="V121" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W121" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X121" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y121" t="n">
         <v>40</v>
       </c>
       <c r="Z121" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AA121" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AB121" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC121" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD121" t="n">
         <v>1000</v>
       </c>
       <c r="AE121" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AF121" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AG121" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH121" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AI121" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ121" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="122">
@@ -15241,13 +15241,13 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.35</v>
+        <v>2.47</v>
       </c>
       <c r="H122" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="I122" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J122" t="n">
         <v>1.12</v>
@@ -15271,37 +15271,37 @@
         <v>1.55</v>
       </c>
       <c r="Q122" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R122" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S122" t="n">
         <v>1.75</v>
       </c>
       <c r="T122" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="U122" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="V122" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="W122" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X122" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y122" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z122" t="n">
         <v>5.3</v>
       </c>
       <c r="AA122" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AB122" t="n">
         <v>15.5</v>
@@ -15313,19 +15313,19 @@
         <v>900</v>
       </c>
       <c r="AE122" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="AF122" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG122" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH122" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AI122" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ122" t="n">
         <v>50</v>
@@ -15363,28 +15363,28 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I123" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="J123" t="n">
         <v>1.1</v>
       </c>
       <c r="K123" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L123" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M123" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="N123" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="O123" t="n">
         <v>1.57</v>
@@ -15396,61 +15396,61 @@
         <v>2.5</v>
       </c>
       <c r="R123" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S123" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T123" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="U123" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="V123" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W123" t="n">
         <v>22</v>
       </c>
       <c r="X123" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y123" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Z123" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AA123" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB123" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC123" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD123" t="n">
         <v>800</v>
       </c>
       <c r="AE123" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF123" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG123" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH123" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI123" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AJ123" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124">
@@ -15485,13 +15485,13 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H124" t="n">
         <v>3.65</v>
       </c>
       <c r="I124" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="J124" t="n">
         <v>1.08</v>
@@ -15500,16 +15500,16 @@
         <v>6.6</v>
       </c>
       <c r="L124" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M124" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="N124" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O124" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P124" t="n">
         <v>1.42</v>
@@ -15518,22 +15518,22 @@
         <v>2.67</v>
       </c>
       <c r="R124" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S124" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T124" t="n">
         <v>5.4</v>
       </c>
       <c r="U124" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="V124" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W124" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="X124" t="n">
         <v>14</v>
@@ -15545,7 +15545,7 @@
         <v>6.6</v>
       </c>
       <c r="AA124" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB124" t="n">
         <v>20</v>
@@ -15557,19 +15557,19 @@
         <v>700</v>
       </c>
       <c r="AE124" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF124" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AG124" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AH124" t="n">
         <v>150</v>
       </c>
       <c r="AI124" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ124" t="n">
         <v>80</v>
@@ -16339,19 +16339,19 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.35</v>
+        <v>2.63</v>
       </c>
       <c r="H131" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I131" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="J131" t="n">
         <v>1.08</v>
       </c>
       <c r="K131" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L131" t="n">
         <v>1.4</v>
@@ -16360,37 +16360,37 @@
         <v>2.75</v>
       </c>
       <c r="N131" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="O131" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P131" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q131" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R131" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S131" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T131" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="U131" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V131" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W131" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X131" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y131" t="n">
         <v>34</v>
@@ -16402,7 +16402,7 @@
         <v>6</v>
       </c>
       <c r="AB131" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC131" t="n">
         <v>51</v>
@@ -16414,16 +16414,16 @@
         <v>8</v>
       </c>
       <c r="AF131" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG131" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH131" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI131" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ131" t="n">
         <v>41</v>
@@ -16461,13 +16461,13 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H132" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I132" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J132" t="n">
         <v>1.08</v>
@@ -16506,7 +16506,7 @@
         <v>6.5</v>
       </c>
       <c r="V132" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W132" t="n">
         <v>12</v>
@@ -16521,13 +16521,13 @@
         <v>7</v>
       </c>
       <c r="AA132" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB132" t="n">
         <v>23</v>
       </c>
       <c r="AC132" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD132" t="n">
         <v>101</v>
@@ -16536,13 +16536,13 @@
         <v>10</v>
       </c>
       <c r="AF132" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG132" t="n">
         <v>19</v>
       </c>
       <c r="AH132" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI132" t="n">
         <v>51</v>
@@ -16598,16 +16598,16 @@
         <v>8</v>
       </c>
       <c r="L133" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M133" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N133" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O133" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P133" t="n">
         <v>1.53</v>
@@ -16705,13 +16705,13 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H134" t="n">
         <v>2.9</v>
       </c>
       <c r="I134" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J134" t="n">
         <v>1.1</v>
@@ -16720,10 +16720,10 @@
         <v>7</v>
       </c>
       <c r="L134" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M134" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N134" t="n">
         <v>2.5</v>
@@ -16842,28 +16842,28 @@
         <v>9</v>
       </c>
       <c r="L135" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M135" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N135" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O135" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P135" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R135" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S135" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T135" t="n">
         <v>7</v>
@@ -16881,10 +16881,10 @@
         <v>19</v>
       </c>
       <c r="Y135" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z135" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA135" t="n">
         <v>6</v>
@@ -16896,13 +16896,13 @@
         <v>51</v>
       </c>
       <c r="AD135" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE135" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF135" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG135" t="n">
         <v>12</v>
@@ -16949,13 +16949,13 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H136" t="n">
         <v>3.5</v>
       </c>
       <c r="I136" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J136" t="n">
         <v>1.05</v>
@@ -16964,16 +16964,16 @@
         <v>11</v>
       </c>
       <c r="L136" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M136" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N136" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O136" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P136" t="n">
         <v>1.4</v>
@@ -16991,7 +16991,7 @@
         <v>7.5</v>
       </c>
       <c r="U136" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V136" t="n">
         <v>8.5</v>
@@ -17015,7 +17015,7 @@
         <v>15</v>
       </c>
       <c r="AC136" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD136" t="n">
         <v>201</v>
@@ -17033,10 +17033,10 @@
         <v>41</v>
       </c>
       <c r="AI136" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ136" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137">
@@ -17092,10 +17092,10 @@
         <v>2.63</v>
       </c>
       <c r="N137" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O137" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P137" t="n">
         <v>1.53</v>
@@ -17214,10 +17214,10 @@
         <v>4</v>
       </c>
       <c r="N138" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O138" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="P138" t="n">
         <v>1.33</v>
@@ -17315,67 +17315,67 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H139" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I139" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J139" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K139" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L139" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M139" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N139" t="n">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="O139" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="P139" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q139" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R139" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S139" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T139" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U139" t="n">
         <v>10</v>
       </c>
       <c r="V139" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W139" t="n">
+        <v>21</v>
+      </c>
+      <c r="X139" t="n">
         <v>19</v>
-      </c>
-      <c r="X139" t="n">
-        <v>17</v>
       </c>
       <c r="Y139" t="n">
         <v>29</v>
       </c>
       <c r="Z139" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AA139" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB139" t="n">
         <v>15</v>
@@ -17384,13 +17384,13 @@
         <v>51</v>
       </c>
       <c r="AD139" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE139" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF139" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG139" t="n">
         <v>12</v>
@@ -17402,7 +17402,7 @@
         <v>29</v>
       </c>
       <c r="AJ139" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="140">
@@ -17458,10 +17458,10 @@
         <v>3.5</v>
       </c>
       <c r="N140" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O140" t="n">
         <v>1.9</v>
-      </c>
-      <c r="O140" t="n">
-        <v>1.95</v>
       </c>
       <c r="P140" t="n">
         <v>1.4</v>
@@ -17559,19 +17559,19 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="H141" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I141" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="J141" t="n">
         <v>1.02</v>
       </c>
       <c r="K141" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L141" t="n">
         <v>1.13</v>
@@ -17580,10 +17580,10 @@
         <v>6</v>
       </c>
       <c r="N141" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O141" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P141" t="n">
         <v>1.25</v>
@@ -17592,10 +17592,10 @@
         <v>3.75</v>
       </c>
       <c r="R141" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S141" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T141" t="n">
         <v>21</v>
@@ -17616,10 +17616,10 @@
         <v>34</v>
       </c>
       <c r="Z141" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA141" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB141" t="n">
         <v>15</v>
@@ -17628,7 +17628,7 @@
         <v>41</v>
       </c>
       <c r="AD141" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE141" t="n">
         <v>10</v>
@@ -17684,10 +17684,10 @@
         <v>2.9</v>
       </c>
       <c r="H142" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I142" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J142" t="n">
         <v>1.05</v>
@@ -17762,7 +17762,7 @@
         <v>9.5</v>
       </c>
       <c r="AH142" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI142" t="n">
         <v>19</v>
@@ -17803,10 +17803,10 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H143" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I143" t="n">
         <v>3.6</v>
@@ -17818,28 +17818,28 @@
         <v>11</v>
       </c>
       <c r="L143" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M143" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N143" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O143" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="P143" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q143" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R143" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S143" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T143" t="n">
         <v>8</v>
@@ -17851,22 +17851,22 @@
         <v>9</v>
       </c>
       <c r="W143" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X143" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y143" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z143" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA143" t="n">
         <v>6.5</v>
       </c>
       <c r="AB143" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC143" t="n">
         <v>41</v>
@@ -17875,7 +17875,7 @@
         <v>201</v>
       </c>
       <c r="AE143" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF143" t="n">
         <v>19</v>
@@ -17925,13 +17925,13 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="H144" t="n">
-        <v>2.82</v>
+        <v>2.6</v>
       </c>
       <c r="I144" t="n">
-        <v>2.52</v>
+        <v>2.67</v>
       </c>
       <c r="J144" t="n">
         <v>1.11</v>
@@ -17940,40 +17940,40 @@
         <v>5.8</v>
       </c>
       <c r="L144" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M144" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="N144" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="O144" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P144" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q144" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="R144" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S144" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T144" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="U144" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="V144" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="W144" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X144" t="n">
         <v>32</v>
@@ -17982,16 +17982,16 @@
         <v>50</v>
       </c>
       <c r="Z144" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="AA144" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="AB144" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AC144" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD144" t="n">
         <v>101</v>
@@ -18000,19 +18000,19 @@
         <v>6.1</v>
       </c>
       <c r="AF144" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG144" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AH144" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AI144" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AJ144" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145">
@@ -18047,33 +18047,33 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H145" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I145" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M145" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="N145" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="O145" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P145" t="n">
         <v>1.42</v>
       </c>
       <c r="Q145" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="R145" t="n">
         <v>2.15</v>
@@ -18088,13 +18088,13 @@
         <v>6.1</v>
       </c>
       <c r="V145" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W145" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="X145" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y145" t="n">
         <v>37</v>
@@ -18103,7 +18103,7 @@
         <v>8</v>
       </c>
       <c r="AA145" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AB145" t="n">
         <v>23</v>
@@ -18115,22 +18115,22 @@
         <v>101</v>
       </c>
       <c r="AE145" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF145" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG145" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AH145" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI145" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ145" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="146">
@@ -18165,13 +18165,13 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.98</v>
+        <v>2.18</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="I146" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="J146" t="n">
         <v>1.11</v>
@@ -18180,79 +18180,79 @@
         <v>6</v>
       </c>
       <c r="L146" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M146" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="N146" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="O146" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P146" t="n">
         <v>1.52</v>
       </c>
       <c r="Q146" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R146" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="S146" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T146" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="U146" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V146" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W146" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="X146" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y146" t="n">
         <v>45</v>
       </c>
       <c r="Z146" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AA146" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AB146" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AC146" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD146" t="n">
         <v>101</v>
       </c>
       <c r="AE146" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AF146" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG146" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH146" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AI146" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ146" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="147">
@@ -18299,7 +18299,7 @@
         <v>1.07</v>
       </c>
       <c r="K147" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L147" t="n">
         <v>1.36</v>
@@ -18540,10 +18540,10 @@
         <v>3.2</v>
       </c>
       <c r="J149" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K149" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L149" t="n">
         <v>1.44</v>
@@ -18653,19 +18653,19 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H150" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I150" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J150" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K150" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L150" t="n">
         <v>1.36</v>
@@ -18704,13 +18704,13 @@
         <v>9.5</v>
       </c>
       <c r="X150" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y150" t="n">
         <v>34</v>
       </c>
       <c r="Z150" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA150" t="n">
         <v>8.5</v>
@@ -18778,28 +18778,28 @@
         <v>2.2</v>
       </c>
       <c r="H151" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I151" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J151" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K151" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L151" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M151" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N151" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O151" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="P151" t="n">
         <v>1.4</v>
@@ -18808,10 +18808,10 @@
         <v>2.75</v>
       </c>
       <c r="R151" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S151" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T151" t="n">
         <v>8.5</v>
@@ -18832,19 +18832,19 @@
         <v>26</v>
       </c>
       <c r="Z151" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA151" t="n">
         <v>6</v>
       </c>
       <c r="AB151" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC151" t="n">
         <v>41</v>
       </c>
       <c r="AD151" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE151" t="n">
         <v>11</v>
@@ -18900,28 +18900,28 @@
         <v>2.2</v>
       </c>
       <c r="H152" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I152" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J152" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K152" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L152" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M152" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N152" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="O152" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="P152" t="n">
         <v>1.36</v>
@@ -18930,16 +18930,16 @@
         <v>3</v>
       </c>
       <c r="R152" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S152" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T152" t="n">
         <v>9</v>
       </c>
       <c r="U152" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V152" t="n">
         <v>9</v>
@@ -19180,19 +19180,19 @@
         <v>1.7</v>
       </c>
       <c r="T154" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="U154" t="n">
         <v>13.5</v>
       </c>
       <c r="V154" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="W154" t="n">
         <v>37</v>
       </c>
       <c r="X154" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y154" t="n">
         <v>45</v>
@@ -19213,7 +19213,7 @@
         <v>900</v>
       </c>
       <c r="AE154" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AF154" t="n">
         <v>11.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-30.xlsx
@@ -650,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
         <v>1.33</v>
@@ -668,10 +668,10 @@
         <v>3.4</v>
       </c>
       <c r="N2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P2" t="n">
         <v>1.44</v>
@@ -704,10 +704,10 @@
         <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB2" t="n">
         <v>15</v>
@@ -719,7 +719,7 @@
         <v>301</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="n">
         <v>19</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="J3" t="n">
         <v>1.07</v>
@@ -790,10 +790,10 @@
         <v>3.4</v>
       </c>
       <c r="N3" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="P3" t="n">
         <v>1.44</v>
@@ -808,13 +808,13 @@
         <v>1.95</v>
       </c>
       <c r="T3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W3" t="n">
         <v>41</v>
@@ -826,10 +826,10 @@
         <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB3" t="n">
         <v>15</v>
@@ -844,13 +844,13 @@
         <v>7.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
         <v>9</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
         <v>17</v>
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="L4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N4" t="n">
         <v>1.67</v>
@@ -1168,10 +1168,10 @@
         <v>2.63</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S6" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T6" t="n">
         <v>7</v>
@@ -1186,7 +1186,7 @@
         <v>19</v>
       </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
         <v>29</v>
@@ -1195,7 +1195,7 @@
         <v>8.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB6" t="n">
         <v>15</v>
@@ -1204,13 +1204,13 @@
         <v>51</v>
       </c>
       <c r="AD6" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1219,7 +1219,7 @@
         <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
         <v>41</v>
@@ -1263,25 +1263,25 @@
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M7" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P7" t="n">
         <v>1.44</v>
@@ -1290,49 +1290,49 @@
         <v>2.63</v>
       </c>
       <c r="R7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.95</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.8</v>
-      </c>
       <c r="T7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U7" t="n">
         <v>9</v>
       </c>
       <c r="V7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W7" t="n">
         <v>17</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
         <v>29</v>
       </c>
       <c r="Z7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA7" t="n">
         <v>6.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
         <v>51</v>
       </c>
       <c r="AD7" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG7" t="n">
         <v>13</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H8" t="n">
         <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J8" t="n">
         <v>1.03</v>
@@ -1400,10 +1400,10 @@
         <v>4.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O8" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P8" t="n">
         <v>1.3</v>
@@ -1513,7 +1513,7 @@
         <v>1.06</v>
       </c>
       <c r="K9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.33</v>
@@ -1540,7 +1540,7 @@
         <v>1.91</v>
       </c>
       <c r="T9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U9" t="n">
         <v>8</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
         <v>1.05</v>
@@ -1647,34 +1647,34 @@
         <v>1.91</v>
       </c>
       <c r="O10" t="n">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="P10" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U10" t="n">
         <v>19</v>
       </c>
       <c r="V10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W10" t="n">
         <v>41</v>
       </c>
       <c r="X10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y10" t="n">
         <v>34</v>
@@ -1692,25 +1692,25 @@
         <v>41</v>
       </c>
       <c r="AD10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG10" t="n">
         <v>8.5</v>
       </c>
-      <c r="AF10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>9</v>
-      </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -1766,10 +1766,10 @@
         <v>3.75</v>
       </c>
       <c r="N11" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="O11" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="P11" t="n">
         <v>1.4</v>
@@ -1799,7 +1799,7 @@
         <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z11" t="n">
         <v>10</v>
@@ -1817,7 +1817,7 @@
         <v>501</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="n">
         <v>41</v>
@@ -1867,19 +1867,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L12" t="n">
         <v>1.29</v>
@@ -1888,10 +1888,10 @@
         <v>3.75</v>
       </c>
       <c r="N12" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="O12" t="n">
         <v>1.98</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.92</v>
       </c>
       <c r="P12" t="n">
         <v>1.4</v>
@@ -1915,7 +1915,7 @@
         <v>8.5</v>
       </c>
       <c r="W12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X12" t="n">
         <v>15</v>
@@ -2114,43 +2114,43 @@
         <v>3.8</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L14" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N14" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="O14" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="P14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U14" t="n">
         <v>21</v>
@@ -2168,22 +2168,22 @@
         <v>34</v>
       </c>
       <c r="Z14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA14" t="n">
         <v>7</v>
       </c>
       <c r="AB14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
         <v>41</v>
       </c>
       <c r="AD14" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
         <v>9.5</v>
@@ -2233,37 +2233,37 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J15" t="n">
         <v>1.02</v>
       </c>
       <c r="K15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O15" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="P15" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R15" t="n">
         <v>1.5</v>
@@ -2272,7 +2272,7 @@
         <v>2.5</v>
       </c>
       <c r="T15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U15" t="n">
         <v>10</v>
@@ -2293,7 +2293,7 @@
         <v>21</v>
       </c>
       <c r="AA15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB15" t="n">
         <v>13</v>
@@ -2305,10 +2305,10 @@
         <v>101</v>
       </c>
       <c r="AE15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG15" t="n">
         <v>17</v>
@@ -2320,7 +2320,7 @@
         <v>34</v>
       </c>
       <c r="AJ15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -2477,13 +2477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H17" t="n">
         <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="J17" t="n">
         <v>1.1</v>
@@ -2516,25 +2516,25 @@
         <v>1.75</v>
       </c>
       <c r="T17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y17" t="n">
         <v>41</v>
       </c>
       <c r="Z17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA17" t="n">
         <v>6</v>
@@ -2543,22 +2543,22 @@
         <v>17</v>
       </c>
       <c r="AC17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE17" t="n">
         <v>6.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
         <v>21</v>
@@ -2641,7 +2641,7 @@
         <v>12</v>
       </c>
       <c r="U18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V18" t="n">
         <v>9.5</v>
@@ -2674,7 +2674,7 @@
         <v>29</v>
       </c>
       <c r="AF18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG18" t="n">
         <v>23</v>
@@ -2876,10 +2876,10 @@
         <v>2.25</v>
       </c>
       <c r="R20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S20" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T20" t="n">
         <v>5.5</v>
@@ -2891,7 +2891,7 @@
         <v>9.5</v>
       </c>
       <c r="W20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X20" t="n">
         <v>21</v>
@@ -2909,7 +2909,7 @@
         <v>19</v>
       </c>
       <c r="AC20" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD20" t="n">
         <v>501</v>
@@ -3218,22 +3218,22 @@
         <v>5.25</v>
       </c>
       <c r="J23" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="K23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L23" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M23" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="N23" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O23" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P23" t="n">
         <v>1.62</v>
@@ -3352,10 +3352,10 @@
         <v>2.5</v>
       </c>
       <c r="N24" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P24" t="n">
         <v>1.57</v>
@@ -3453,13 +3453,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H25" t="n">
         <v>2.7</v>
       </c>
       <c r="I25" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
         <v>1.17</v>
@@ -3706,10 +3706,10 @@
         <v>3.2</v>
       </c>
       <c r="J27" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L27" t="n">
         <v>1.73</v>
@@ -3718,16 +3718,16 @@
         <v>2</v>
       </c>
       <c r="N27" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P27" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R27" t="n">
         <v>2.63</v>
@@ -4084,16 +4084,16 @@
         <v>2.1</v>
       </c>
       <c r="N30" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O30" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P30" t="n">
         <v>1.73</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
         <v>2.5</v>
@@ -4185,13 +4185,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="H31" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I31" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="J31" t="n">
         <v>1.13</v>
@@ -4218,28 +4218,28 @@
         <v>2.1</v>
       </c>
       <c r="R31" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S31" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T31" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U31" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="V31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W31" t="n">
+        <v>29</v>
+      </c>
+      <c r="X31" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y31" t="n">
         <v>41</v>
-      </c>
-      <c r="X31" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>51</v>
       </c>
       <c r="Z31" t="n">
         <v>6</v>
@@ -4257,19 +4257,19 @@
         <v>101</v>
       </c>
       <c r="AE31" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AI31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ31" t="n">
         <v>41</v>
@@ -4429,13 +4429,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H33" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J33" t="n">
         <v>1.14</v>
@@ -4468,7 +4468,7 @@
         <v>1.44</v>
       </c>
       <c r="T33" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U33" t="n">
         <v>15</v>
@@ -4504,16 +4504,16 @@
         <v>5</v>
       </c>
       <c r="AF33" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ33" t="n">
         <v>51</v>
@@ -4673,19 +4673,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H35" t="n">
         <v>2.8</v>
       </c>
       <c r="I35" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J35" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K35" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L35" t="n">
         <v>1.62</v>
@@ -4694,10 +4694,10 @@
         <v>2.2</v>
       </c>
       <c r="N35" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O35" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P35" t="n">
         <v>1.67</v>
@@ -4715,7 +4715,7 @@
         <v>5.5</v>
       </c>
       <c r="U35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V35" t="n">
         <v>11</v>
@@ -4739,7 +4739,7 @@
         <v>21</v>
       </c>
       <c r="AC35" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD35" t="n">
         <v>101</v>
@@ -4751,13 +4751,13 @@
         <v>15</v>
       </c>
       <c r="AG35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH35" t="n">
         <v>41</v>
       </c>
       <c r="AI35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ35" t="n">
         <v>51</v>
@@ -4804,10 +4804,10 @@
         <v>4.5</v>
       </c>
       <c r="J36" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K36" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L36" t="n">
         <v>1.67</v>
@@ -5039,13 +5039,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H38" t="n">
         <v>3.2</v>
       </c>
       <c r="I38" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J38" t="n">
         <v>1.06</v>
@@ -5054,16 +5054,16 @@
         <v>10</v>
       </c>
       <c r="L38" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M38" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N38" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O38" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P38" t="n">
         <v>1.4</v>
@@ -5078,10 +5078,10 @@
         <v>2</v>
       </c>
       <c r="T38" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V38" t="n">
         <v>10</v>
@@ -5117,13 +5117,13 @@
         <v>13</v>
       </c>
       <c r="AG38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH38" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI38" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ38" t="n">
         <v>29</v>
@@ -5161,13 +5161,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J39" t="n">
         <v>1.04</v>
@@ -5194,22 +5194,22 @@
         <v>3.25</v>
       </c>
       <c r="R39" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S39" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T39" t="n">
         <v>7.5</v>
       </c>
       <c r="U39" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V39" t="n">
         <v>8.5</v>
       </c>
       <c r="W39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X39" t="n">
         <v>12</v>
@@ -5221,31 +5221,31 @@
         <v>12</v>
       </c>
       <c r="AA39" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC39" t="n">
         <v>51</v>
       </c>
       <c r="AD39" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE39" t="n">
         <v>17</v>
       </c>
       <c r="AF39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH39" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI39" t="n">
         <v>51</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>41</v>
       </c>
       <c r="AJ39" t="n">
         <v>41</v>
@@ -5420,16 +5420,16 @@
         <v>15</v>
       </c>
       <c r="L41" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M41" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N41" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O41" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P41" t="n">
         <v>1.3</v>
@@ -5558,7 +5558,7 @@
         <v>2.22</v>
       </c>
       <c r="T42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U42" t="n">
         <v>9</v>
@@ -5579,7 +5579,7 @@
         <v>13</v>
       </c>
       <c r="AA42" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB42" t="n">
         <v>13</v>
@@ -5591,7 +5591,7 @@
         <v>151</v>
       </c>
       <c r="AE42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF42" t="n">
         <v>26</v>
@@ -5885,19 +5885,19 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H45" t="n">
         <v>3.5</v>
       </c>
       <c r="I45" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J45" t="n">
         <v>1.06</v>
       </c>
       <c r="K45" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L45" t="n">
         <v>1.3</v>
@@ -5906,10 +5906,10 @@
         <v>3.5</v>
       </c>
       <c r="N45" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="O45" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P45" t="n">
         <v>1.4</v>
@@ -6129,49 +6129,49 @@
         </is>
       </c>
       <c r="G47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K47" t="n">
+        <v>9</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O47" t="n">
         <v>1.75</v>
       </c>
-      <c r="H47" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I47" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K47" t="n">
-        <v>10</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M47" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N47" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.92</v>
-      </c>
       <c r="P47" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R47" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S47" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T47" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U47" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V47" t="n">
         <v>8.5</v>
@@ -6183,10 +6183,10 @@
         <v>15</v>
       </c>
       <c r="Y47" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA47" t="n">
         <v>6.5</v>
@@ -6198,10 +6198,10 @@
         <v>51</v>
       </c>
       <c r="AD47" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE47" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF47" t="n">
         <v>23</v>
@@ -6394,10 +6394,10 @@
         <v>3</v>
       </c>
       <c r="N49" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O49" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P49" t="n">
         <v>1.5</v>
@@ -6735,19 +6735,19 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="H52" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I52" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J52" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K52" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L52" t="n">
         <v>1.4</v>
@@ -6768,22 +6768,22 @@
         <v>2.5</v>
       </c>
       <c r="R52" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S52" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T52" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U52" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V52" t="n">
         <v>9</v>
       </c>
       <c r="W52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X52" t="n">
         <v>15</v>
@@ -6795,13 +6795,13 @@
         <v>7</v>
       </c>
       <c r="AA52" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC52" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD52" t="n">
         <v>301</v>
@@ -6813,13 +6813,13 @@
         <v>34</v>
       </c>
       <c r="AG52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH52" t="n">
         <v>81</v>
       </c>
       <c r="AI52" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ52" t="n">
         <v>67</v>
@@ -6857,13 +6857,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H53" t="n">
         <v>3.25</v>
       </c>
       <c r="I53" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J53" t="n">
         <v>1.08</v>
@@ -6878,10 +6878,10 @@
         <v>2.63</v>
       </c>
       <c r="N53" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O53" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P53" t="n">
         <v>1.53</v>
@@ -6890,25 +6890,25 @@
         <v>2.38</v>
       </c>
       <c r="R53" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S53" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T53" t="n">
         <v>7</v>
       </c>
       <c r="U53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W53" t="n">
         <v>26</v>
       </c>
       <c r="X53" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y53" t="n">
         <v>41</v>
@@ -6938,7 +6938,7 @@
         <v>11</v>
       </c>
       <c r="AH53" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI53" t="n">
         <v>26</v>
@@ -6979,43 +6979,43 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="H54" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I54" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J54" t="n">
         <v>1.06</v>
       </c>
       <c r="K54" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L54" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M54" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N54" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O54" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="P54" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R54" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S54" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T54" t="n">
         <v>6</v>
@@ -7024,19 +7024,19 @@
         <v>6.5</v>
       </c>
       <c r="V54" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W54" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="X54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y54" t="n">
         <v>34</v>
       </c>
       <c r="Z54" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA54" t="n">
         <v>8</v>
@@ -7045,22 +7045,22 @@
         <v>21</v>
       </c>
       <c r="AC54" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD54" t="n">
         <v>1250</v>
       </c>
       <c r="AE54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF54" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG54" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH54" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="n">
         <v>51</v>
@@ -7101,19 +7101,19 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H55" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="J55" t="n">
         <v>1.08</v>
       </c>
       <c r="K55" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L55" t="n">
         <v>1.4</v>
@@ -7140,19 +7140,19 @@
         <v>1.8</v>
       </c>
       <c r="T55" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U55" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X55" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y55" t="n">
         <v>41</v>
@@ -7164,28 +7164,28 @@
         <v>6</v>
       </c>
       <c r="AB55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC55" t="n">
         <v>51</v>
       </c>
       <c r="AD55" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF55" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG55" t="n">
         <v>10</v>
       </c>
-      <c r="AG55" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AH55" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI55" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ55" t="n">
         <v>34</v>
@@ -7223,55 +7223,55 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="H56" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="I56" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J56" t="n">
         <v>1.03</v>
       </c>
       <c r="K56" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L56" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M56" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N56" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O56" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="P56" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q56" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R56" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S56" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="T56" t="n">
         <v>7.5</v>
       </c>
       <c r="U56" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V56" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W56" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X56" t="n">
         <v>11</v>
@@ -7280,37 +7280,37 @@
         <v>29</v>
       </c>
       <c r="Z56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA56" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AB56" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC56" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>501</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>151</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ56" t="n">
         <v>67</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>401</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>101</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="57">
@@ -7345,13 +7345,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="H57" t="n">
         <v>3.5</v>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="J57" t="n">
         <v>1.03</v>
@@ -7360,16 +7360,16 @@
         <v>15</v>
       </c>
       <c r="L57" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N57" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O57" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P57" t="n">
         <v>1.3</v>
@@ -7387,13 +7387,13 @@
         <v>11</v>
       </c>
       <c r="U57" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V57" t="n">
         <v>9.5</v>
       </c>
       <c r="W57" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X57" t="n">
         <v>17</v>
@@ -7417,22 +7417,22 @@
         <v>101</v>
       </c>
       <c r="AE57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF57" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG57" t="n">
         <v>11</v>
       </c>
       <c r="AH57" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI57" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ57" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58">
@@ -7467,31 +7467,31 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H58" t="n">
         <v>3.4</v>
       </c>
       <c r="I58" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J58" t="n">
         <v>1.06</v>
       </c>
       <c r="K58" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L58" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M58" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N58" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O58" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P58" t="n">
         <v>1.44</v>
@@ -7506,10 +7506,10 @@
         <v>1.95</v>
       </c>
       <c r="T58" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U58" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V58" t="n">
         <v>9</v>
@@ -7518,7 +7518,7 @@
         <v>19</v>
       </c>
       <c r="X58" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y58" t="n">
         <v>29</v>
@@ -7539,22 +7539,22 @@
         <v>251</v>
       </c>
       <c r="AE58" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF58" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH58" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI58" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ58" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59">
@@ -7589,13 +7589,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H59" t="n">
         <v>3.2</v>
       </c>
       <c r="I59" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J59" t="n">
         <v>1.08</v>
@@ -7610,10 +7610,10 @@
         <v>2.75</v>
       </c>
       <c r="N59" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O59" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P59" t="n">
         <v>1.5</v>
@@ -7628,7 +7628,7 @@
         <v>1.8</v>
       </c>
       <c r="T59" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U59" t="n">
         <v>13</v>
@@ -7643,7 +7643,7 @@
         <v>23</v>
       </c>
       <c r="Y59" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z59" t="n">
         <v>8</v>
@@ -7652,7 +7652,7 @@
         <v>6</v>
       </c>
       <c r="AB59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC59" t="n">
         <v>51</v>
@@ -7711,19 +7711,19 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H60" t="n">
         <v>3.1</v>
       </c>
       <c r="I60" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K60" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L60" t="n">
         <v>1.33</v>
@@ -7732,10 +7732,10 @@
         <v>3.25</v>
       </c>
       <c r="N60" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O60" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P60" t="n">
         <v>1.44</v>
@@ -7753,16 +7753,16 @@
         <v>8</v>
       </c>
       <c r="U60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V60" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W60" t="n">
+        <v>23</v>
+      </c>
+      <c r="X60" t="n">
         <v>21</v>
-      </c>
-      <c r="X60" t="n">
-        <v>19</v>
       </c>
       <c r="Y60" t="n">
         <v>29</v>
@@ -7792,7 +7792,7 @@
         <v>12</v>
       </c>
       <c r="AH60" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI60" t="n">
         <v>26</v>
@@ -8065,13 +8065,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H63" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I63" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -8085,30 +8085,30 @@
         <v>1.6</v>
       </c>
       <c r="O63" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S63" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="T63" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="U63" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="V63" t="n">
         <v>6.5</v>
       </c>
       <c r="W63" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="X63" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="Y63" t="n">
         <v>15.5</v>
@@ -8117,34 +8117,34 @@
         <v>11.5</v>
       </c>
       <c r="AA63" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AB63" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AC63" t="n">
+        <v>37</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ63" t="n">
         <v>35</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>175</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>100</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="64">
@@ -8179,19 +8179,19 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H64" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I64" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J64" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K64" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L64" t="n">
         <v>1.25</v>
@@ -8200,16 +8200,16 @@
         <v>3.75</v>
       </c>
       <c r="N64" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O64" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P64" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q64" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R64" t="n">
         <v>1.67</v>
@@ -8218,10 +8218,10 @@
         <v>2.1</v>
       </c>
       <c r="T64" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U64" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V64" t="n">
         <v>10</v>
@@ -8236,7 +8236,7 @@
         <v>29</v>
       </c>
       <c r="Z64" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA64" t="n">
         <v>6.5</v>
@@ -8248,25 +8248,25 @@
         <v>41</v>
       </c>
       <c r="AD64" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE64" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF64" t="n">
         <v>13</v>
       </c>
       <c r="AG64" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH64" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI64" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ64" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65">
@@ -8301,13 +8301,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I65" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J65" t="n">
         <v>1.05</v>
@@ -8322,25 +8322,25 @@
         <v>3.5</v>
       </c>
       <c r="N65" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O65" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P65" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R65" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S65" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T65" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U65" t="n">
         <v>10</v>
@@ -8349,19 +8349,19 @@
         <v>9</v>
       </c>
       <c r="W65" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X65" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y65" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z65" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA65" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB65" t="n">
         <v>13</v>
@@ -8370,13 +8370,13 @@
         <v>41</v>
       </c>
       <c r="AD65" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF65" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG65" t="n">
         <v>12</v>
@@ -8385,7 +8385,7 @@
         <v>41</v>
       </c>
       <c r="AI65" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ65" t="n">
         <v>34</v>
@@ -8426,34 +8426,34 @@
         <v>3.4</v>
       </c>
       <c r="H66" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I66" t="n">
         <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K66" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L66" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M66" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N66" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="O66" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="P66" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q66" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R66" t="n">
         <v>1.73</v>
@@ -8462,10 +8462,10 @@
         <v>2</v>
       </c>
       <c r="T66" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U66" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V66" t="n">
         <v>12</v>
@@ -8480,7 +8480,7 @@
         <v>34</v>
       </c>
       <c r="Z66" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA66" t="n">
         <v>7</v>
@@ -8489,7 +8489,7 @@
         <v>15</v>
       </c>
       <c r="AC66" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD66" t="n">
         <v>201</v>
@@ -8501,16 +8501,16 @@
         <v>10</v>
       </c>
       <c r="AG66" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH66" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI66" t="n">
         <v>17</v>
       </c>
-      <c r="AI66" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ66" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
@@ -8545,13 +8545,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H67" t="n">
         <v>3.5</v>
       </c>
       <c r="I67" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J67" t="n">
         <v>1.04</v>
@@ -8584,7 +8584,7 @@
         <v>2.1</v>
       </c>
       <c r="T67" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U67" t="n">
         <v>11</v>
@@ -8593,10 +8593,10 @@
         <v>9</v>
       </c>
       <c r="W67" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X67" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y67" t="n">
         <v>23</v>
@@ -8617,19 +8617,19 @@
         <v>151</v>
       </c>
       <c r="AE67" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF67" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG67" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH67" t="n">
         <v>34</v>
       </c>
       <c r="AI67" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ67" t="n">
         <v>29</v>
@@ -8688,10 +8688,10 @@
         <v>3.75</v>
       </c>
       <c r="N68" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O68" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P68" t="n">
         <v>1.36</v>
@@ -8795,7 +8795,7 @@
         <v>3.5</v>
       </c>
       <c r="I69" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J69" t="n">
         <v>1.04</v>
@@ -8837,7 +8837,7 @@
         <v>10</v>
       </c>
       <c r="W69" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X69" t="n">
         <v>19</v>
@@ -8873,7 +8873,7 @@
         <v>26</v>
       </c>
       <c r="AI69" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ69" t="n">
         <v>26</v>
@@ -8914,61 +8914,61 @@
         <v>1.73</v>
       </c>
       <c r="H70" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I70" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J70" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K70" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L70" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M70" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N70" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O70" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="P70" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R70" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S70" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="T70" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U70" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V70" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W70" t="n">
         <v>13</v>
       </c>
       <c r="X70" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y70" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z70" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA70" t="n">
         <v>6.5</v>
@@ -8980,7 +8980,7 @@
         <v>67</v>
       </c>
       <c r="AD70" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AE70" t="n">
         <v>11</v>
@@ -9164,16 +9164,16 @@
         <v>5.75</v>
       </c>
       <c r="J72" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K72" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L72" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M72" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N72" t="n">
         <v>2.1</v>
@@ -9277,19 +9277,19 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H73" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I73" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="J73" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K73" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L73" t="n">
         <v>1.2</v>
@@ -9298,10 +9298,10 @@
         <v>4.33</v>
       </c>
       <c r="N73" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O73" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P73" t="n">
         <v>1.33</v>
@@ -9310,37 +9310,37 @@
         <v>3.25</v>
       </c>
       <c r="R73" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S73" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T73" t="n">
         <v>13</v>
       </c>
       <c r="U73" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V73" t="n">
         <v>12</v>
       </c>
       <c r="W73" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X73" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y73" t="n">
         <v>29</v>
       </c>
       <c r="Z73" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB73" t="n">
         <v>13</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>12</v>
       </c>
       <c r="AC73" t="n">
         <v>41</v>
@@ -9349,22 +9349,22 @@
         <v>151</v>
       </c>
       <c r="AE73" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF73" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG73" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH73" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI73" t="n">
         <v>15</v>
       </c>
       <c r="AJ73" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
@@ -9420,10 +9420,10 @@
         <v>2.75</v>
       </c>
       <c r="N74" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O74" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P74" t="n">
         <v>1.5</v>
@@ -9459,7 +9459,7 @@
         <v>7.5</v>
       </c>
       <c r="AA74" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB74" t="n">
         <v>15</v>
@@ -9471,7 +9471,7 @@
         <v>351</v>
       </c>
       <c r="AE74" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF74" t="n">
         <v>15</v>
@@ -9483,7 +9483,7 @@
         <v>34</v>
       </c>
       <c r="AI74" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ74" t="n">
         <v>41</v>
@@ -9521,13 +9521,13 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H75" t="n">
         <v>2.9</v>
       </c>
       <c r="I75" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J75" t="n">
         <v>1.1</v>
@@ -9542,16 +9542,16 @@
         <v>2.63</v>
       </c>
       <c r="N75" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O75" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P75" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R75" t="n">
         <v>2.05</v>
@@ -9560,7 +9560,7 @@
         <v>1.7</v>
       </c>
       <c r="T75" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U75" t="n">
         <v>9.5</v>
@@ -9590,13 +9590,13 @@
         <v>67</v>
       </c>
       <c r="AD75" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE75" t="n">
         <v>8.5</v>
       </c>
       <c r="AF75" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG75" t="n">
         <v>13</v>
@@ -9643,19 +9643,19 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H76" t="n">
         <v>3.2</v>
       </c>
       <c r="I76" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J76" t="n">
         <v>1.06</v>
       </c>
       <c r="K76" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L76" t="n">
         <v>1.3</v>
@@ -9664,10 +9664,10 @@
         <v>3.4</v>
       </c>
       <c r="N76" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O76" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P76" t="n">
         <v>1.44</v>
@@ -9682,7 +9682,7 @@
         <v>2</v>
       </c>
       <c r="T76" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U76" t="n">
         <v>13</v>
@@ -9715,7 +9715,7 @@
         <v>201</v>
       </c>
       <c r="AE76" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF76" t="n">
         <v>13</v>
@@ -10863,13 +10863,13 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="H86" t="n">
-        <v>2.9</v>
+        <v>2.72</v>
       </c>
       <c r="I86" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J86" t="n">
         <v>1.1</v>
@@ -10884,16 +10884,16 @@
         <v>2.32</v>
       </c>
       <c r="N86" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="O86" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P86" t="n">
         <v>1.47</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R86" t="n">
         <v>2.05</v>
@@ -10902,40 +10902,40 @@
         <v>1.69</v>
       </c>
       <c r="T86" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="U86" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="V86" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="W86" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="X86" t="n">
         <v>17</v>
       </c>
       <c r="Y86" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z86" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="AA86" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="AB86" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC86" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD86" t="n">
         <v>101</v>
       </c>
       <c r="AE86" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AF86" t="n">
         <v>13</v>
@@ -10944,13 +10944,13 @@
         <v>9.75</v>
       </c>
       <c r="AH86" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI86" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ86" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87">
@@ -11343,13 +11343,13 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H90" t="n">
         <v>3.7</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J90" t="n">
         <v>1.03</v>
@@ -11388,13 +11388,13 @@
         <v>13</v>
       </c>
       <c r="V90" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W90" t="n">
         <v>21</v>
       </c>
       <c r="X90" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y90" t="n">
         <v>21</v>
@@ -11403,7 +11403,7 @@
         <v>15</v>
       </c>
       <c r="AA90" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB90" t="n">
         <v>12</v>
@@ -11424,7 +11424,7 @@
         <v>11</v>
       </c>
       <c r="AH90" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI90" t="n">
         <v>21</v>
@@ -11474,10 +11474,10 @@
         <v>3.4</v>
       </c>
       <c r="J91" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K91" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L91" t="n">
         <v>1.29</v>
@@ -11866,7 +11866,7 @@
         <v>2.25</v>
       </c>
       <c r="T94" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U94" t="n">
         <v>13</v>
@@ -11878,7 +11878,7 @@
         <v>23</v>
       </c>
       <c r="X94" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y94" t="n">
         <v>23</v>
@@ -12012,7 +12012,7 @@
         <v>6</v>
       </c>
       <c r="AB95" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC95" t="n">
         <v>41</v>
@@ -12030,7 +12030,7 @@
         <v>12</v>
       </c>
       <c r="AH95" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI95" t="n">
         <v>26</v>
@@ -12193,13 +12193,13 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H97" t="n">
         <v>5</v>
       </c>
       <c r="I97" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J97" t="n">
         <v>1.02</v>
@@ -12220,28 +12220,28 @@
         <v>2.5</v>
       </c>
       <c r="P97" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q97" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R97" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S97" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T97" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U97" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V97" t="n">
         <v>8.5</v>
       </c>
       <c r="W97" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X97" t="n">
         <v>11</v>
@@ -12250,7 +12250,7 @@
         <v>21</v>
       </c>
       <c r="Z97" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA97" t="n">
         <v>9.5</v>
@@ -12259,10 +12259,10 @@
         <v>17</v>
       </c>
       <c r="AC97" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD97" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE97" t="n">
         <v>21</v>
@@ -12336,10 +12336,10 @@
         <v>3.75</v>
       </c>
       <c r="N98" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O98" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P98" t="n">
         <v>1.36</v>
@@ -12452,16 +12452,16 @@
         <v>15</v>
       </c>
       <c r="L99" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M99" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N99" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O99" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P99" t="n">
         <v>1.3</v>
@@ -12497,7 +12497,7 @@
         <v>15</v>
       </c>
       <c r="AA99" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB99" t="n">
         <v>19</v>
@@ -12518,7 +12518,7 @@
         <v>8.5</v>
       </c>
       <c r="AH99" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI99" t="n">
         <v>11</v>
@@ -12702,10 +12702,10 @@
         <v>4.33</v>
       </c>
       <c r="N101" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O101" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P101" t="n">
         <v>1.33</v>
@@ -13047,13 +13047,13 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H104" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I104" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J104" t="n">
         <v>1.04</v>
@@ -13068,10 +13068,10 @@
         <v>4</v>
       </c>
       <c r="N104" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O104" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P104" t="n">
         <v>1.33</v>
@@ -13086,28 +13086,28 @@
         <v>2.2</v>
       </c>
       <c r="T104" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U104" t="n">
         <v>11</v>
       </c>
       <c r="V104" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W104" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="X104" t="n">
         <v>15</v>
       </c>
       <c r="Y104" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z104" t="n">
         <v>13</v>
       </c>
       <c r="AA104" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB104" t="n">
         <v>12</v>
@@ -13119,19 +13119,19 @@
         <v>151</v>
       </c>
       <c r="AE104" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF104" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG104" t="n">
         <v>12</v>
       </c>
       <c r="AH104" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI104" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ104" t="n">
         <v>29</v>
@@ -13175,7 +13175,7 @@
         <v>3.5</v>
       </c>
       <c r="I105" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J105" t="n">
         <v>1.04</v>
@@ -13184,16 +13184,16 @@
         <v>13</v>
       </c>
       <c r="L105" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M105" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N105" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O105" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P105" t="n">
         <v>1.36</v>
@@ -13413,13 +13413,13 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="H107" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I107" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="J107" t="n">
         <v>1.06</v>
@@ -13446,22 +13446,22 @@
         <v>2.75</v>
       </c>
       <c r="R107" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S107" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T107" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U107" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V107" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W107" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X107" t="n">
         <v>17</v>
@@ -13485,22 +13485,22 @@
         <v>251</v>
       </c>
       <c r="AE107" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF107" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG107" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH107" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI107" t="n">
         <v>34</v>
       </c>
-      <c r="AI107" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ107" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108">
@@ -13535,13 +13535,13 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="H108" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I108" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="J108" t="n">
         <v>1.04</v>
@@ -13550,10 +13550,10 @@
         <v>13</v>
       </c>
       <c r="L108" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M108" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N108" t="n">
         <v>1.7</v>
@@ -13568,25 +13568,25 @@
         <v>3.25</v>
       </c>
       <c r="R108" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="S108" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="T108" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U108" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="V108" t="n">
         <v>8.5</v>
       </c>
       <c r="W108" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="X108" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y108" t="n">
         <v>23</v>
@@ -13595,34 +13595,34 @@
         <v>13</v>
       </c>
       <c r="AA108" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB108" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC108" t="n">
         <v>41</v>
       </c>
       <c r="AD108" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE108" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF108" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AG108" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH108" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI108" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AJ108" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109">
@@ -13657,7 +13657,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H109" t="n">
         <v>3.7</v>
@@ -13672,16 +13672,16 @@
         <v>10</v>
       </c>
       <c r="L109" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M109" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N109" t="n">
         <v>2.05</v>
       </c>
       <c r="O109" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P109" t="n">
         <v>1.44</v>
@@ -13690,10 +13690,10 @@
         <v>2.63</v>
       </c>
       <c r="R109" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S109" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T109" t="n">
         <v>6.5</v>
@@ -13705,7 +13705,7 @@
         <v>8.5</v>
       </c>
       <c r="W109" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X109" t="n">
         <v>15</v>
@@ -13720,16 +13720,16 @@
         <v>7</v>
       </c>
       <c r="AB109" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC109" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD109" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE109" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF109" t="n">
         <v>26</v>
@@ -13744,7 +13744,7 @@
         <v>41</v>
       </c>
       <c r="AJ109" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110">
@@ -13779,13 +13779,13 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H110" t="n">
         <v>3.4</v>
       </c>
       <c r="I110" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J110" t="n">
         <v>1.08</v>
@@ -13833,13 +13833,13 @@
         <v>17</v>
       </c>
       <c r="Y110" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z110" t="n">
         <v>7</v>
       </c>
       <c r="AA110" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB110" t="n">
         <v>21</v>
@@ -14265,13 +14265,13 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H114" t="n">
         <v>3.3</v>
       </c>
       <c r="I114" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J114" t="n">
         <v>1.06</v>
@@ -14280,10 +14280,10 @@
         <v>10</v>
       </c>
       <c r="L114" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M114" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N114" t="n">
         <v>2.1</v>
@@ -14307,13 +14307,13 @@
         <v>7</v>
       </c>
       <c r="U114" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V114" t="n">
         <v>9.5</v>
       </c>
       <c r="W114" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X114" t="n">
         <v>19</v>
@@ -14396,22 +14396,22 @@
         <v>2.2</v>
       </c>
       <c r="J115" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K115" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L115" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M115" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N115" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="O115" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P115" t="n">
         <v>1.4</v>
@@ -14634,49 +14634,49 @@
         <v>2.55</v>
       </c>
       <c r="H117" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I117" t="n">
         <v>2.8</v>
       </c>
       <c r="J117" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K117" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L117" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M117" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N117" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O117" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P117" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R117" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S117" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T117" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U117" t="n">
         <v>12</v>
       </c>
       <c r="V117" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W117" t="n">
         <v>26</v>
@@ -14685,16 +14685,16 @@
         <v>23</v>
       </c>
       <c r="Y117" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z117" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA117" t="n">
         <v>6</v>
       </c>
       <c r="AB117" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC117" t="n">
         <v>51</v>
@@ -14703,7 +14703,7 @@
         <v>301</v>
       </c>
       <c r="AE117" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF117" t="n">
         <v>13</v>
@@ -14715,10 +14715,10 @@
         <v>29</v>
       </c>
       <c r="AI117" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ117" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118">
@@ -14753,13 +14753,13 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H118" t="n">
         <v>3.1</v>
       </c>
       <c r="I118" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J118" t="n">
         <v>1.08</v>
@@ -14807,13 +14807,13 @@
         <v>41</v>
       </c>
       <c r="Y118" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z118" t="n">
         <v>7</v>
       </c>
       <c r="AA118" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB118" t="n">
         <v>19</v>
@@ -14825,10 +14825,10 @@
         <v>800</v>
       </c>
       <c r="AE118" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF118" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG118" t="n">
         <v>9.5</v>
@@ -14840,7 +14840,7 @@
         <v>19</v>
       </c>
       <c r="AJ118" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119">
@@ -14875,64 +14875,64 @@
         </is>
       </c>
       <c r="G119" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H119" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I119" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K119" t="n">
+        <v>9</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M119" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N119" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P119" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q119" t="n">
         <v>2.63</v>
       </c>
-      <c r="H119" t="n">
-        <v>3</v>
-      </c>
-      <c r="I119" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J119" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K119" t="n">
-        <v>8</v>
-      </c>
-      <c r="L119" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M119" t="n">
-        <v>3</v>
-      </c>
-      <c r="N119" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O119" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P119" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q119" t="n">
-        <v>2.5</v>
-      </c>
       <c r="R119" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S119" t="n">
         <v>1.95</v>
       </c>
-      <c r="S119" t="n">
-        <v>1.8</v>
-      </c>
       <c r="T119" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="U119" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V119" t="n">
         <v>11</v>
       </c>
       <c r="W119" t="n">
+        <v>34</v>
+      </c>
+      <c r="X119" t="n">
         <v>26</v>
-      </c>
-      <c r="X119" t="n">
-        <v>23</v>
       </c>
       <c r="Y119" t="n">
         <v>34</v>
       </c>
       <c r="Z119" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AA119" t="n">
         <v>6</v>
@@ -14944,25 +14944,25 @@
         <v>51</v>
       </c>
       <c r="AD119" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AE119" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF119" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG119" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AH119" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ119" t="n">
         <v>29</v>
-      </c>
-      <c r="AI119" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ119" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="120">
@@ -14997,55 +14997,55 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="H120" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I120" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="J120" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K120" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="L120" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M120" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="N120" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O120" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="P120" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q120" t="n">
         <v>2.75</v>
       </c>
       <c r="R120" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S120" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T120" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="U120" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="V120" t="n">
         <v>8</v>
       </c>
       <c r="W120" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="X120" t="n">
         <v>12.5</v>
@@ -15054,37 +15054,37 @@
         <v>27</v>
       </c>
       <c r="Z120" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AA120" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AB120" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC120" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD120" t="n">
         <v>700</v>
       </c>
       <c r="AE120" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF120" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AG120" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH120" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AI120" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ120" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="121">
@@ -15363,19 +15363,19 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="H123" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I123" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="J123" t="n">
         <v>1.1</v>
       </c>
       <c r="K123" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L123" t="n">
         <v>1.42</v>
@@ -15396,7 +15396,7 @@
         <v>2.5</v>
       </c>
       <c r="R123" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S123" t="n">
         <v>1.8</v>
@@ -15405,52 +15405,52 @@
         <v>6.6</v>
       </c>
       <c r="U123" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="V123" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W123" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X123" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y123" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z123" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AA123" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB123" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC123" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD123" t="n">
         <v>800</v>
       </c>
       <c r="AE123" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AF123" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AG123" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AH123" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI123" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AJ123" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124">
@@ -15485,13 +15485,13 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H124" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I124" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="J124" t="n">
         <v>1.08</v>
@@ -15506,10 +15506,10 @@
         <v>2.87</v>
       </c>
       <c r="N124" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O124" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P124" t="n">
         <v>1.42</v>
@@ -15518,34 +15518,34 @@
         <v>2.67</v>
       </c>
       <c r="R124" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S124" t="n">
         <v>1.65</v>
       </c>
       <c r="T124" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="U124" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="V124" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W124" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="X124" t="n">
         <v>14</v>
       </c>
       <c r="Y124" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z124" t="n">
         <v>6.6</v>
       </c>
       <c r="AA124" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AB124" t="n">
         <v>20</v>
@@ -15557,7 +15557,7 @@
         <v>700</v>
       </c>
       <c r="AE124" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF124" t="n">
         <v>35</v>
@@ -16339,13 +16339,13 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I131" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J131" t="n">
         <v>1.08</v>
@@ -16354,16 +16354,16 @@
         <v>8</v>
       </c>
       <c r="L131" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M131" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N131" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O131" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P131" t="n">
         <v>1.5</v>
@@ -16372,10 +16372,10 @@
         <v>2.5</v>
       </c>
       <c r="R131" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S131" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T131" t="n">
         <v>7.5</v>
@@ -16384,19 +16384,19 @@
         <v>12</v>
       </c>
       <c r="V131" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W131" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X131" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y131" t="n">
         <v>34</v>
       </c>
       <c r="Z131" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA131" t="n">
         <v>6</v>
@@ -16408,10 +16408,10 @@
         <v>51</v>
       </c>
       <c r="AD131" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE131" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF131" t="n">
         <v>13</v>
@@ -16426,7 +16426,7 @@
         <v>26</v>
       </c>
       <c r="AJ131" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132">
@@ -16461,13 +16461,13 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H132" t="n">
         <v>3.5</v>
       </c>
       <c r="I132" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J132" t="n">
         <v>1.08</v>
@@ -16494,10 +16494,10 @@
         <v>2.38</v>
       </c>
       <c r="R132" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S132" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T132" t="n">
         <v>5</v>
@@ -16506,7 +16506,7 @@
         <v>6.5</v>
       </c>
       <c r="V132" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W132" t="n">
         <v>12</v>
@@ -16521,13 +16521,13 @@
         <v>7</v>
       </c>
       <c r="AA132" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB132" t="n">
         <v>23</v>
       </c>
       <c r="AC132" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD132" t="n">
         <v>101</v>
@@ -16542,7 +16542,7 @@
         <v>19</v>
       </c>
       <c r="AH132" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI132" t="n">
         <v>51</v>
@@ -16583,7 +16583,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H133" t="n">
         <v>3</v>
@@ -16604,22 +16604,22 @@
         <v>3</v>
       </c>
       <c r="N133" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O133" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P133" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q133" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R133" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S133" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T133" t="n">
         <v>7.5</v>
@@ -16628,19 +16628,19 @@
         <v>12</v>
       </c>
       <c r="V133" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W133" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X133" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y133" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z133" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA133" t="n">
         <v>6</v>
@@ -16652,10 +16652,10 @@
         <v>51</v>
       </c>
       <c r="AD133" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE133" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF133" t="n">
         <v>13</v>
@@ -16670,7 +16670,7 @@
         <v>26</v>
       </c>
       <c r="AJ133" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="134">
@@ -16827,13 +16827,13 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H135" t="n">
         <v>3.2</v>
       </c>
       <c r="I135" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J135" t="n">
         <v>1.07</v>
@@ -16952,46 +16952,46 @@
         <v>1.9</v>
       </c>
       <c r="H136" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I136" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K136" t="n">
+        <v>13</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M136" t="n">
         <v>4</v>
       </c>
-      <c r="J136" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K136" t="n">
-        <v>11</v>
-      </c>
-      <c r="L136" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M136" t="n">
-        <v>3.5</v>
-      </c>
       <c r="N136" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="O136" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="P136" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q136" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R136" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S136" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T136" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U136" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V136" t="n">
         <v>8.5</v>
@@ -17003,25 +17003,25 @@
         <v>15</v>
       </c>
       <c r="Y136" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z136" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA136" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB136" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC136" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD136" t="n">
         <v>201</v>
       </c>
       <c r="AE136" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF136" t="n">
         <v>21</v>
@@ -17033,10 +17033,10 @@
         <v>41</v>
       </c>
       <c r="AI136" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ136" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ136" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="137">
@@ -17074,10 +17074,10 @@
         <v>2.2</v>
       </c>
       <c r="H137" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I137" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J137" t="n">
         <v>1.1</v>
@@ -17098,25 +17098,25 @@
         <v>1.53</v>
       </c>
       <c r="P137" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R137" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S137" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T137" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U137" t="n">
         <v>9.5</v>
       </c>
       <c r="V137" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W137" t="n">
         <v>21</v>
@@ -17125,10 +17125,10 @@
         <v>21</v>
       </c>
       <c r="Y137" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z137" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA137" t="n">
         <v>6</v>
@@ -17140,10 +17140,10 @@
         <v>67</v>
       </c>
       <c r="AD137" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AE137" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF137" t="n">
         <v>15</v>
@@ -17214,10 +17214,10 @@
         <v>4</v>
       </c>
       <c r="N138" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O138" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P138" t="n">
         <v>1.33</v>
@@ -17461,7 +17461,7 @@
         <v>1.95</v>
       </c>
       <c r="O140" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P140" t="n">
         <v>1.4</v>
@@ -17681,13 +17681,13 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H142" t="n">
         <v>3.5</v>
       </c>
       <c r="I142" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J142" t="n">
         <v>1.05</v>
@@ -17720,7 +17720,7 @@
         <v>2</v>
       </c>
       <c r="T142" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U142" t="n">
         <v>15</v>
@@ -17812,19 +17812,19 @@
         <v>3.6</v>
       </c>
       <c r="J143" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K143" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L143" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M143" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N143" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O143" t="n">
         <v>2</v>
@@ -17842,7 +17842,7 @@
         <v>2.1</v>
       </c>
       <c r="T143" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U143" t="n">
         <v>10</v>
@@ -17860,10 +17860,10 @@
         <v>23</v>
       </c>
       <c r="Z143" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA143" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB143" t="n">
         <v>13</v>
@@ -17872,7 +17872,7 @@
         <v>41</v>
       </c>
       <c r="AD143" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE143" t="n">
         <v>12</v>
@@ -17881,13 +17881,13 @@
         <v>19</v>
       </c>
       <c r="AG143" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH143" t="n">
         <v>41</v>
       </c>
       <c r="AI143" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ143" t="n">
         <v>34</v>
@@ -18047,33 +18047,33 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="H145" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I145" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M145" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="N145" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="O145" t="n">
         <v>1.62</v>
       </c>
       <c r="P145" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q145" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="R145" t="n">
         <v>2.15</v>
@@ -18085,13 +18085,13 @@
         <v>5.3</v>
       </c>
       <c r="U145" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="V145" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W145" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="X145" t="n">
         <v>14</v>
@@ -18100,10 +18100,10 @@
         <v>37</v>
       </c>
       <c r="Z145" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA145" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AB145" t="n">
         <v>23</v>
@@ -18115,7 +18115,7 @@
         <v>101</v>
       </c>
       <c r="AE145" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF145" t="n">
         <v>37</v>
@@ -18130,7 +18130,7 @@
         <v>90</v>
       </c>
       <c r="AJ145" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="146">
@@ -18165,13 +18165,13 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H146" t="n">
         <v>2.85</v>
       </c>
       <c r="I146" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J146" t="n">
         <v>1.11</v>
@@ -18192,7 +18192,7 @@
         <v>1.44</v>
       </c>
       <c r="P146" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q146" t="n">
         <v>2.2</v>
@@ -18204,25 +18204,25 @@
         <v>1.62</v>
       </c>
       <c r="T146" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="U146" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="V146" t="n">
         <v>9.5</v>
       </c>
       <c r="W146" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X146" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y146" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z146" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AA146" t="n">
         <v>5.7</v>
@@ -18237,10 +18237,10 @@
         <v>101</v>
       </c>
       <c r="AE146" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AF146" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG146" t="n">
         <v>12.5</v>
@@ -18424,16 +18424,16 @@
         <v>13</v>
       </c>
       <c r="L148" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M148" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N148" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O148" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P148" t="n">
         <v>1.33</v>
@@ -18662,10 +18662,10 @@
         <v>6.25</v>
       </c>
       <c r="J150" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K150" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L150" t="n">
         <v>1.36</v>
@@ -18674,10 +18674,10 @@
         <v>3</v>
       </c>
       <c r="N150" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O150" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P150" t="n">
         <v>1.44</v>
@@ -18784,22 +18784,22 @@
         <v>3.3</v>
       </c>
       <c r="J151" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K151" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L151" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M151" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N151" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="O151" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="P151" t="n">
         <v>1.4</v>
@@ -18918,10 +18918,10 @@
         <v>4</v>
       </c>
       <c r="N152" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O152" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P152" t="n">
         <v>1.36</v>
@@ -19019,13 +19019,13 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H153" t="n">
         <v>3.05</v>
       </c>
       <c r="I153" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J153" t="n">
         <v>1.1</v>
@@ -19058,19 +19058,19 @@
         <v>1.88</v>
       </c>
       <c r="T153" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="U153" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="V153" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W153" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X153" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y153" t="n">
         <v>30</v>
@@ -19079,10 +19079,10 @@
         <v>8.5</v>
       </c>
       <c r="AA153" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB153" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC153" t="n">
         <v>65</v>
@@ -19094,10 +19094,10 @@
         <v>9.5</v>
       </c>
       <c r="AF153" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG153" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AH153" t="n">
         <v>45</v>
@@ -19106,7 +19106,7 @@
         <v>29</v>
       </c>
       <c r="AJ153" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="154">
@@ -19159,13 +19159,13 @@
         <v>1.45</v>
       </c>
       <c r="M154" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="N154" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="O154" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P154" t="n">
         <v>1.55</v>
@@ -19207,13 +19207,13 @@
         <v>16</v>
       </c>
       <c r="AC154" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD154" t="n">
         <v>900</v>
       </c>
       <c r="AE154" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AF154" t="n">
         <v>11.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-30.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J3" t="n">
         <v>1.07</v>
@@ -790,10 +790,10 @@
         <v>3.4</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P3" t="n">
         <v>1.44</v>
@@ -802,31 +802,31 @@
         <v>2.63</v>
       </c>
       <c r="R3" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T3" t="n">
         <v>10</v>
       </c>
       <c r="U3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W3" t="n">
         <v>41</v>
       </c>
       <c r="X3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y3" t="n">
         <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA3" t="n">
         <v>6</v>
@@ -838,19 +838,19 @@
         <v>51</v>
       </c>
       <c r="AD3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG3" t="n">
         <v>9</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
         <v>17</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
         <v>1.04</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="L4" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="O4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P4" t="n">
         <v>1.33</v>
@@ -933,28 +933,28 @@
         <v>8.5</v>
       </c>
       <c r="U4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V4" t="n">
         <v>8.5</v>
       </c>
       <c r="W4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X4" t="n">
         <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z4" t="n">
         <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
         <v>41</v>
@@ -963,19 +963,19 @@
         <v>151</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
         <v>34</v>
@@ -1016,49 +1016,49 @@
         <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.8</v>
       </c>
-      <c r="S5" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U5" t="n">
         <v>15</v>
       </c>
       <c r="V5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W5" t="n">
         <v>34</v>
@@ -1067,10 +1067,10 @@
         <v>26</v>
       </c>
       <c r="Y5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA5" t="n">
         <v>6</v>
@@ -1082,16 +1082,16 @@
         <v>51</v>
       </c>
       <c r="AD5" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AE5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF5" t="n">
         <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
         <v>23</v>
@@ -1100,7 +1100,7 @@
         <v>21</v>
       </c>
       <c r="AJ5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
         <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
         <v>1.07</v>
@@ -1263,7 +1263,7 @@
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>1.06</v>
@@ -1272,22 +1272,22 @@
         <v>10</v>
       </c>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O7" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R7" t="n">
         <v>1.8</v>
@@ -1311,7 +1311,7 @@
         <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z7" t="n">
         <v>9.5</v>
@@ -1379,31 +1379,31 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="H8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="J8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L8" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N8" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="O8" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="P8" t="n">
         <v>1.3</v>
@@ -1427,7 +1427,7 @@
         <v>8.5</v>
       </c>
       <c r="W8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X8" t="n">
         <v>12</v>
@@ -1448,22 +1448,22 @@
         <v>41</v>
       </c>
       <c r="AD8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
         <v>51</v>
       </c>
       <c r="AI8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ8" t="n">
         <v>41</v>
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="H11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
         <v>1.05</v>
@@ -1769,7 +1769,7 @@
         <v>1.91</v>
       </c>
       <c r="O11" t="n">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="P11" t="n">
         <v>1.4</v>
@@ -1778,34 +1778,34 @@
         <v>2.75</v>
       </c>
       <c r="R11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S11" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X11" t="n">
         <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z11" t="n">
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB11" t="n">
         <v>21</v>
@@ -1814,10 +1814,10 @@
         <v>67</v>
       </c>
       <c r="AD11" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
         <v>41</v>
@@ -1826,13 +1826,13 @@
         <v>23</v>
       </c>
       <c r="AH11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
@@ -1900,10 +1900,10 @@
         <v>2.75</v>
       </c>
       <c r="R12" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
         <v>7.5</v>
@@ -1924,7 +1924,7 @@
         <v>26</v>
       </c>
       <c r="Z12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA12" t="n">
         <v>6.5</v>
@@ -1936,7 +1936,7 @@
         <v>51</v>
       </c>
       <c r="AD12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
@@ -1954,7 +1954,7 @@
         <v>34</v>
       </c>
       <c r="AJ12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -2355,13 +2355,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="H16" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="J16" t="n">
         <v>1.02</v>
@@ -2370,16 +2370,16 @@
         <v>19</v>
       </c>
       <c r="L16" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N16" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O16" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P16" t="n">
         <v>1.25</v>
@@ -2418,7 +2418,7 @@
         <v>9.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC16" t="n">
         <v>41</v>
@@ -2430,10 +2430,10 @@
         <v>21</v>
       </c>
       <c r="AF16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH16" t="n">
         <v>67</v>
@@ -2599,52 +2599,52 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="H18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I18" t="n">
         <v>8.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L18" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="M18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N18" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="O18" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P18" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="R18" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S18" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W18" t="n">
         <v>9.5</v>
@@ -2656,25 +2656,25 @@
         <v>21</v>
       </c>
       <c r="Z18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB18" t="n">
         <v>19</v>
       </c>
       <c r="AC18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD18" t="n">
         <v>151</v>
       </c>
       <c r="AE18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG18" t="n">
         <v>23</v>
@@ -2721,31 +2721,31 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H19" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L19" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M19" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N19" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O19" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="P19" t="n">
         <v>1.4</v>
@@ -2754,22 +2754,22 @@
         <v>2.75</v>
       </c>
       <c r="R19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S19" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T19" t="n">
         <v>6</v>
       </c>
       <c r="U19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V19" t="n">
         <v>8.5</v>
       </c>
       <c r="W19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X19" t="n">
         <v>13</v>
@@ -2781,7 +2781,7 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB19" t="n">
         <v>21</v>
@@ -2790,7 +2790,7 @@
         <v>67</v>
       </c>
       <c r="AD19" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE19" t="n">
         <v>17</v>
@@ -2843,19 +2843,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J20" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L20" t="n">
         <v>1.5</v>
@@ -2864,10 +2864,10 @@
         <v>2.63</v>
       </c>
       <c r="N20" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P20" t="n">
         <v>1.57</v>
@@ -2885,16 +2885,16 @@
         <v>5.5</v>
       </c>
       <c r="U20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V20" t="n">
         <v>9.5</v>
       </c>
       <c r="W20" t="n">
+        <v>17</v>
+      </c>
+      <c r="X20" t="n">
         <v>19</v>
-      </c>
-      <c r="X20" t="n">
-        <v>21</v>
       </c>
       <c r="Y20" t="n">
         <v>41</v>
@@ -2915,7 +2915,7 @@
         <v>501</v>
       </c>
       <c r="AE20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF20" t="n">
         <v>19</v>
@@ -2980,16 +2980,16 @@
         <v>8</v>
       </c>
       <c r="L21" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N21" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P21" t="n">
         <v>1.5</v>
@@ -3209,10 +3209,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
         <v>5.25</v>
@@ -3230,16 +3230,16 @@
         <v>2.38</v>
       </c>
       <c r="N23" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P23" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R23" t="n">
         <v>2.5</v>
@@ -3266,7 +3266,7 @@
         <v>41</v>
       </c>
       <c r="Z23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA23" t="n">
         <v>7</v>
@@ -3281,7 +3281,7 @@
         <v>101</v>
       </c>
       <c r="AE23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF23" t="n">
         <v>23</v>
@@ -3290,7 +3290,7 @@
         <v>19</v>
       </c>
       <c r="AH23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI23" t="n">
         <v>51</v>
@@ -3340,22 +3340,22 @@
         <v>2.15</v>
       </c>
       <c r="J24" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L24" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M24" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N24" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P24" t="n">
         <v>1.57</v>
@@ -3453,13 +3453,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
         <v>2.7</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J25" t="n">
         <v>1.17</v>
@@ -3480,10 +3480,10 @@
         <v>1.33</v>
       </c>
       <c r="P25" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R25" t="n">
         <v>2.5</v>
@@ -3697,19 +3697,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H27" t="n">
         <v>2.8</v>
       </c>
       <c r="I27" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J27" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K27" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L27" t="n">
         <v>1.73</v>
@@ -3718,16 +3718,16 @@
         <v>2</v>
       </c>
       <c r="N27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P27" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R27" t="n">
         <v>2.63</v>
@@ -3754,7 +3754,7 @@
         <v>51</v>
       </c>
       <c r="Z27" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AA27" t="n">
         <v>6</v>
@@ -3778,7 +3778,7 @@
         <v>13</v>
       </c>
       <c r="AH27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI27" t="n">
         <v>41</v>
@@ -3962,10 +3962,10 @@
         <v>2.63</v>
       </c>
       <c r="N29" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P29" t="n">
         <v>1.53</v>
@@ -4185,10 +4185,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H31" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="I31" t="n">
         <v>2.7</v>
@@ -4206,10 +4206,10 @@
         <v>2.2</v>
       </c>
       <c r="N31" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O31" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P31" t="n">
         <v>1.67</v>
@@ -4224,34 +4224,34 @@
         <v>1.53</v>
       </c>
       <c r="T31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U31" t="n">
+        <v>12</v>
+      </c>
+      <c r="V31" t="n">
+        <v>13</v>
+      </c>
+      <c r="W31" t="n">
+        <v>34</v>
+      </c>
+      <c r="X31" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA31" t="n">
         <v>6</v>
       </c>
-      <c r="U31" t="n">
-        <v>11</v>
-      </c>
-      <c r="V31" t="n">
-        <v>12</v>
-      </c>
-      <c r="W31" t="n">
-        <v>29</v>
-      </c>
-      <c r="X31" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AB31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC31" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD31" t="n">
         <v>101</v>
@@ -4307,19 +4307,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J32" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="K32" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="L32" t="n">
         <v>1.73</v>
@@ -4328,16 +4328,16 @@
         <v>2</v>
       </c>
       <c r="N32" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P32" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R32" t="n">
         <v>3</v>
@@ -4364,10 +4364,10 @@
         <v>51</v>
       </c>
       <c r="Z32" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB32" t="n">
         <v>29</v>
@@ -4379,13 +4379,13 @@
         <v>101</v>
       </c>
       <c r="AE32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF32" t="n">
         <v>29</v>
       </c>
       <c r="AG32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH32" t="n">
         <v>81</v>
@@ -4394,7 +4394,7 @@
         <v>67</v>
       </c>
       <c r="AJ32" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
@@ -4429,13 +4429,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H33" t="n">
         <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J33" t="n">
         <v>1.14</v>
@@ -4450,10 +4450,10 @@
         <v>2</v>
       </c>
       <c r="N33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P33" t="n">
         <v>1.78</v>
@@ -4462,10 +4462,10 @@
         <v>2.03</v>
       </c>
       <c r="R33" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S33" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T33" t="n">
         <v>6</v>
@@ -4492,7 +4492,7 @@
         <v>6.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC33" t="n">
         <v>126</v>
@@ -4510,7 +4510,7 @@
         <v>12</v>
       </c>
       <c r="AH33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI33" t="n">
         <v>29</v>
@@ -4551,13 +4551,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H34" t="n">
         <v>2.88</v>
       </c>
       <c r="I34" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J34" t="n">
         <v>1.14</v>
@@ -4566,28 +4566,28 @@
         <v>5.5</v>
       </c>
       <c r="L34" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P34" t="n">
         <v>1.73</v>
       </c>
-      <c r="M34" t="n">
+      <c r="Q34" t="n">
         <v>2</v>
       </c>
-      <c r="N34" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.05</v>
-      </c>
       <c r="R34" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S34" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T34" t="n">
         <v>5</v>
@@ -4599,10 +4599,10 @@
         <v>11</v>
       </c>
       <c r="W34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y34" t="n">
         <v>51</v>
@@ -4795,19 +4795,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H36" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J36" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K36" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L36" t="n">
         <v>1.67</v>
@@ -4825,7 +4825,7 @@
         <v>1.73</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R36" t="n">
         <v>2.63</v>
@@ -4834,10 +4834,10 @@
         <v>1.44</v>
       </c>
       <c r="T36" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="U36" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V36" t="n">
         <v>11</v>
@@ -4867,10 +4867,10 @@
         <v>101</v>
       </c>
       <c r="AE36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG36" t="n">
         <v>17</v>
@@ -4926,13 +4926,13 @@
         <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="K37" t="n">
         <v>5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="M37" t="n">
         <v>2.1</v>
@@ -5039,94 +5039,94 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H38" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K38" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L38" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="M38" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N38" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O38" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="P38" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="R38" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="S38" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T38" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="U38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V38" t="n">
         <v>10</v>
       </c>
       <c r="W38" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X38" t="n">
         <v>21</v>
       </c>
       <c r="Y38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z38" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AA38" t="n">
         <v>6</v>
       </c>
       <c r="AB38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC38" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD38" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AE38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF38" t="n">
         <v>13</v>
       </c>
       <c r="AG38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI38" t="n">
         <v>26</v>
       </c>
-      <c r="AI38" t="n">
-        <v>21</v>
-      </c>
       <c r="AJ38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
@@ -5283,13 +5283,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="H40" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I40" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J40" t="n">
         <v>1.03</v>
@@ -5298,10 +5298,10 @@
         <v>17</v>
       </c>
       <c r="L40" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N40" t="n">
         <v>1.53</v>
@@ -5322,7 +5322,7 @@
         <v>2.1</v>
       </c>
       <c r="T40" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U40" t="n">
         <v>8.5</v>
@@ -5331,7 +5331,7 @@
         <v>8.5</v>
       </c>
       <c r="W40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X40" t="n">
         <v>11</v>
@@ -5340,13 +5340,13 @@
         <v>21</v>
       </c>
       <c r="Z40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB40" t="n">
         <v>15</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>13</v>
       </c>
       <c r="AC40" t="n">
         <v>41</v>
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H42" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I42" t="n">
         <v>4.5</v>
@@ -5544,30 +5544,30 @@
         <v>3.7</v>
       </c>
       <c r="N42" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="O42" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="S42" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="T42" t="n">
         <v>9</v>
       </c>
       <c r="U42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V42" t="n">
         <v>8.5</v>
       </c>
       <c r="W42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X42" t="n">
         <v>13</v>
@@ -5576,7 +5576,7 @@
         <v>21</v>
       </c>
       <c r="Z42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA42" t="n">
         <v>7.5</v>
@@ -5906,10 +5906,10 @@
         <v>3.5</v>
       </c>
       <c r="N45" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="O45" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="P45" t="n">
         <v>1.4</v>
@@ -6144,16 +6144,16 @@
         <v>9</v>
       </c>
       <c r="L47" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M47" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N47" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O47" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P47" t="n">
         <v>1.44</v>
@@ -6162,10 +6162,10 @@
         <v>2.63</v>
       </c>
       <c r="R47" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S47" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T47" t="n">
         <v>6.5</v>
@@ -6186,19 +6186,19 @@
         <v>29</v>
       </c>
       <c r="Z47" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA47" t="n">
         <v>6.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC47" t="n">
         <v>51</v>
       </c>
       <c r="AD47" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE47" t="n">
         <v>12</v>
@@ -6495,19 +6495,19 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H50" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I50" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J50" t="n">
         <v>1.06</v>
       </c>
       <c r="K50" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L50" t="n">
         <v>1.33</v>
@@ -6534,13 +6534,13 @@
         <v>1.83</v>
       </c>
       <c r="T50" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U50" t="n">
         <v>8.5</v>
       </c>
       <c r="V50" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W50" t="n">
         <v>15</v>
@@ -6555,10 +6555,10 @@
         <v>9.5</v>
       </c>
       <c r="AA50" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB50" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC50" t="n">
         <v>51</v>
@@ -6735,19 +6735,19 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="H52" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I52" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J52" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L52" t="n">
         <v>1.4</v>
@@ -6768,10 +6768,10 @@
         <v>2.5</v>
       </c>
       <c r="R52" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S52" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T52" t="n">
         <v>5</v>
@@ -6783,7 +6783,7 @@
         <v>9</v>
       </c>
       <c r="W52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X52" t="n">
         <v>15</v>
@@ -6795,13 +6795,13 @@
         <v>7</v>
       </c>
       <c r="AA52" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC52" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD52" t="n">
         <v>301</v>
@@ -6813,13 +6813,13 @@
         <v>34</v>
       </c>
       <c r="AG52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH52" t="n">
         <v>81</v>
       </c>
       <c r="AI52" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ52" t="n">
         <v>67</v>
@@ -6979,19 +6979,19 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H54" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I54" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J54" t="n">
         <v>1.06</v>
       </c>
       <c r="K54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L54" t="n">
         <v>1.3</v>
@@ -7000,10 +7000,10 @@
         <v>3.4</v>
       </c>
       <c r="N54" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O54" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P54" t="n">
         <v>1.4</v>
@@ -7021,7 +7021,7 @@
         <v>6</v>
       </c>
       <c r="U54" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V54" t="n">
         <v>9</v>
@@ -7036,13 +7036,13 @@
         <v>34</v>
       </c>
       <c r="Z54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA54" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC54" t="n">
         <v>81</v>
@@ -7223,46 +7223,46 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H56" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J56" t="n">
         <v>1.03</v>
       </c>
       <c r="K56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L56" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="N56" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O56" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S56" t="n">
         <v>1.57</v>
       </c>
-      <c r="O56" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="P56" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R56" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S56" t="n">
-        <v>1.67</v>
-      </c>
       <c r="T56" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U56" t="n">
         <v>6</v>
@@ -7271,19 +7271,19 @@
         <v>9.5</v>
       </c>
       <c r="W56" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X56" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA56" t="n">
         <v>11</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>12</v>
       </c>
       <c r="AB56" t="n">
         <v>26</v>
@@ -7295,13 +7295,13 @@
         <v>501</v>
       </c>
       <c r="AE56" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF56" t="n">
         <v>51</v>
       </c>
       <c r="AG56" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH56" t="n">
         <v>151</v>
@@ -7310,7 +7310,7 @@
         <v>81</v>
       </c>
       <c r="AJ56" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57">
@@ -7470,34 +7470,34 @@
         <v>2.05</v>
       </c>
       <c r="H58" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I58" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J58" t="n">
         <v>1.06</v>
       </c>
       <c r="K58" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L58" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M58" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N58" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="O58" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="P58" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R58" t="n">
         <v>1.8</v>
@@ -7506,10 +7506,10 @@
         <v>1.95</v>
       </c>
       <c r="T58" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U58" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V58" t="n">
         <v>9</v>
@@ -7521,10 +7521,10 @@
         <v>17</v>
       </c>
       <c r="Y58" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z58" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA58" t="n">
         <v>6.5</v>
@@ -7539,13 +7539,13 @@
         <v>251</v>
       </c>
       <c r="AE58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF58" t="n">
         <v>19</v>
       </c>
       <c r="AG58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH58" t="n">
         <v>41</v>
@@ -7554,7 +7554,7 @@
         <v>29</v>
       </c>
       <c r="AJ58" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
@@ -7589,13 +7589,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H59" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I59" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J59" t="n">
         <v>1.08</v>
@@ -7616,28 +7616,28 @@
         <v>1.57</v>
       </c>
       <c r="P59" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R59" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S59" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T59" t="n">
         <v>7.5</v>
       </c>
       <c r="U59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V59" t="n">
         <v>11</v>
       </c>
       <c r="W59" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X59" t="n">
         <v>23</v>
@@ -7646,7 +7646,7 @@
         <v>41</v>
       </c>
       <c r="Z59" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA59" t="n">
         <v>6</v>
@@ -7667,7 +7667,7 @@
         <v>12</v>
       </c>
       <c r="AG59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH59" t="n">
         <v>26</v>
@@ -7676,7 +7676,7 @@
         <v>23</v>
       </c>
       <c r="AJ59" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60">
@@ -7711,13 +7711,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="H60" t="n">
         <v>3.1</v>
       </c>
       <c r="I60" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="J60" t="n">
         <v>1.07</v>
@@ -7732,10 +7732,10 @@
         <v>3.25</v>
       </c>
       <c r="N60" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O60" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P60" t="n">
         <v>1.44</v>
@@ -7750,25 +7750,25 @@
         <v>1.91</v>
       </c>
       <c r="T60" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U60" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V60" t="n">
         <v>10</v>
       </c>
       <c r="W60" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X60" t="n">
         <v>21</v>
       </c>
       <c r="Y60" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z60" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA60" t="n">
         <v>6</v>
@@ -7783,19 +7783,19 @@
         <v>251</v>
       </c>
       <c r="AE60" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF60" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH60" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI60" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ60" t="n">
         <v>34</v>
@@ -7833,19 +7833,19 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H61" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I61" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J61" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K61" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L61" t="n">
         <v>1.36</v>
@@ -7875,13 +7875,13 @@
         <v>6.5</v>
       </c>
       <c r="U61" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V61" t="n">
         <v>9</v>
       </c>
       <c r="W61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X61" t="n">
         <v>17</v>
@@ -7890,10 +7890,10 @@
         <v>29</v>
       </c>
       <c r="Z61" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA61" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB61" t="n">
         <v>17</v>
@@ -7908,10 +7908,10 @@
         <v>10</v>
       </c>
       <c r="AF61" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH61" t="n">
         <v>41</v>
@@ -8667,13 +8667,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H68" t="n">
         <v>3.9</v>
       </c>
       <c r="I68" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J68" t="n">
         <v>1.04</v>
@@ -8688,10 +8688,10 @@
         <v>3.75</v>
       </c>
       <c r="N68" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O68" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P68" t="n">
         <v>1.36</v>
@@ -8709,7 +8709,7 @@
         <v>7.5</v>
       </c>
       <c r="U68" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V68" t="n">
         <v>8.5</v>
@@ -8736,13 +8736,13 @@
         <v>51</v>
       </c>
       <c r="AD68" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE68" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF68" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG68" t="n">
         <v>15</v>
@@ -8751,7 +8751,7 @@
         <v>51</v>
       </c>
       <c r="AI68" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ68" t="n">
         <v>41</v>
@@ -8911,13 +8911,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H70" t="n">
         <v>3.5</v>
       </c>
       <c r="I70" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J70" t="n">
         <v>1.06</v>
@@ -8971,7 +8971,7 @@
         <v>8.5</v>
       </c>
       <c r="AA70" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB70" t="n">
         <v>19</v>
@@ -8983,7 +8983,7 @@
         <v>401</v>
       </c>
       <c r="AE70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF70" t="n">
         <v>23</v>
@@ -9039,13 +9039,13 @@
         <v>3.5</v>
       </c>
       <c r="I71" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J71" t="n">
         <v>1.06</v>
       </c>
       <c r="K71" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L71" t="n">
         <v>1.3</v>
@@ -9060,10 +9060,10 @@
         <v>1.8</v>
       </c>
       <c r="P71" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R71" t="n">
         <v>1.91</v>
@@ -9087,7 +9087,7 @@
         <v>15</v>
       </c>
       <c r="Y71" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z71" t="n">
         <v>9.5</v>
@@ -9155,31 +9155,31 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H72" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I72" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J72" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K72" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L72" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M72" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N72" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O72" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P72" t="n">
         <v>1.44</v>
@@ -9224,19 +9224,19 @@
         <v>67</v>
       </c>
       <c r="AD72" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE72" t="n">
         <v>12</v>
       </c>
       <c r="AF72" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG72" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH72" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI72" t="n">
         <v>41</v>
@@ -9277,13 +9277,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H73" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I73" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J73" t="n">
         <v>1.03</v>
@@ -9322,13 +9322,13 @@
         <v>21</v>
       </c>
       <c r="V73" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W73" t="n">
         <v>41</v>
       </c>
       <c r="X73" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y73" t="n">
         <v>29</v>
@@ -9643,7 +9643,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H76" t="n">
         <v>3.2</v>
@@ -9670,10 +9670,10 @@
         <v>1.83</v>
       </c>
       <c r="P76" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R76" t="n">
         <v>1.75</v>
@@ -9682,7 +9682,7 @@
         <v>2</v>
       </c>
       <c r="T76" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U76" t="n">
         <v>13</v>
@@ -9709,7 +9709,7 @@
         <v>13</v>
       </c>
       <c r="AC76" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD76" t="n">
         <v>201</v>
@@ -10985,13 +10985,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="H87" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="I87" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -11002,21 +11002,21 @@
         <v>3.65</v>
       </c>
       <c r="N87" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O87" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="n">
-        <v>2.19</v>
+        <v>2.18</v>
       </c>
       <c r="S87" t="n">
         <v>1.61</v>
       </c>
       <c r="T87" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="U87" t="n">
         <v>45</v>
@@ -11034,10 +11034,10 @@
         <v>80</v>
       </c>
       <c r="Z87" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA87" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AB87" t="n">
         <v>20</v>
@@ -11049,19 +11049,19 @@
         <v>101</v>
       </c>
       <c r="AE87" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AF87" t="n">
         <v>5</v>
       </c>
       <c r="AG87" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AH87" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AI87" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AJ87" t="n">
         <v>26</v>
@@ -11364,10 +11364,10 @@
         <v>4.5</v>
       </c>
       <c r="N90" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O90" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P90" t="n">
         <v>1.3</v>
@@ -11486,10 +11486,10 @@
         <v>3.5</v>
       </c>
       <c r="N91" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O91" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P91" t="n">
         <v>1.4</v>
@@ -11705,10 +11705,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H93" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I93" t="n">
         <v>4.2</v>
@@ -11717,37 +11717,37 @@
         <v>1.03</v>
       </c>
       <c r="K93" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L93" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M93" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N93" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O93" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P93" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q93" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R93" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S93" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T93" t="n">
         <v>9.5</v>
       </c>
       <c r="U93" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V93" t="n">
         <v>8.5</v>
@@ -11756,7 +11756,7 @@
         <v>15</v>
       </c>
       <c r="X93" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y93" t="n">
         <v>21</v>
@@ -11774,16 +11774,16 @@
         <v>41</v>
       </c>
       <c r="AD93" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE93" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF93" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG93" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH93" t="n">
         <v>41</v>
@@ -11949,13 +11949,13 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H95" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I95" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J95" t="n">
         <v>1.05</v>
@@ -11988,16 +11988,16 @@
         <v>2.05</v>
       </c>
       <c r="T95" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U95" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V95" t="n">
         <v>9</v>
       </c>
       <c r="W95" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X95" t="n">
         <v>17</v>
@@ -12012,7 +12012,7 @@
         <v>6</v>
       </c>
       <c r="AB95" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC95" t="n">
         <v>41</v>
@@ -12021,19 +12021,19 @@
         <v>201</v>
       </c>
       <c r="AE95" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF95" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG95" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH95" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI95" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ95" t="n">
         <v>34</v>
@@ -12074,7 +12074,7 @@
         <v>2.2</v>
       </c>
       <c r="H96" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I96" t="n">
         <v>3.4</v>
@@ -12140,7 +12140,7 @@
         <v>51</v>
       </c>
       <c r="AD96" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE96" t="n">
         <v>9</v>
@@ -12149,7 +12149,7 @@
         <v>17</v>
       </c>
       <c r="AG96" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH96" t="n">
         <v>41</v>
@@ -12193,10 +12193,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H97" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I97" t="n">
         <v>5.75</v>
@@ -12208,22 +12208,22 @@
         <v>19</v>
       </c>
       <c r="L97" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M97" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N97" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O97" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P97" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q97" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R97" t="n">
         <v>1.67</v>
@@ -12265,16 +12265,16 @@
         <v>151</v>
       </c>
       <c r="AE97" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF97" t="n">
         <v>34</v>
       </c>
       <c r="AG97" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH97" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI97" t="n">
         <v>41</v>
@@ -12315,13 +12315,13 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="H98" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I98" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J98" t="n">
         <v>1.05</v>
@@ -12330,16 +12330,16 @@
         <v>11</v>
       </c>
       <c r="L98" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M98" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N98" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="O98" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="P98" t="n">
         <v>1.36</v>
@@ -12348,22 +12348,22 @@
         <v>3</v>
       </c>
       <c r="R98" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S98" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T98" t="n">
         <v>6.5</v>
       </c>
       <c r="U98" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V98" t="n">
         <v>8.5</v>
       </c>
       <c r="W98" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="X98" t="n">
         <v>13</v>
@@ -12375,28 +12375,28 @@
         <v>10</v>
       </c>
       <c r="AA98" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB98" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC98" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD98" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AE98" t="n">
         <v>17</v>
       </c>
       <c r="AF98" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG98" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH98" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI98" t="n">
         <v>51</v>
@@ -12437,13 +12437,13 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="H99" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I99" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="J99" t="n">
         <v>1.03</v>
@@ -12458,10 +12458,10 @@
         <v>4.33</v>
       </c>
       <c r="N99" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O99" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P99" t="n">
         <v>1.3</v>
@@ -12470,13 +12470,13 @@
         <v>3.4</v>
       </c>
       <c r="R99" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S99" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T99" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U99" t="n">
         <v>34</v>
@@ -12485,10 +12485,10 @@
         <v>19</v>
       </c>
       <c r="W99" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="X99" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y99" t="n">
         <v>41</v>
@@ -12518,7 +12518,7 @@
         <v>8.5</v>
       </c>
       <c r="AH99" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI99" t="n">
         <v>11</v>
@@ -12702,10 +12702,10 @@
         <v>4.33</v>
       </c>
       <c r="N101" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O101" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P101" t="n">
         <v>1.33</v>
@@ -13178,10 +13178,10 @@
         <v>3.2</v>
       </c>
       <c r="J105" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K105" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L105" t="n">
         <v>1.25</v>
@@ -13190,10 +13190,10 @@
         <v>3.75</v>
       </c>
       <c r="N105" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="O105" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="P105" t="n">
         <v>1.36</v>
@@ -13535,13 +13535,13 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="H108" t="n">
         <v>3.5</v>
       </c>
       <c r="I108" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J108" t="n">
         <v>1.04</v>
@@ -13556,10 +13556,10 @@
         <v>4</v>
       </c>
       <c r="N108" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O108" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P108" t="n">
         <v>1.33</v>
@@ -13568,10 +13568,10 @@
         <v>3.25</v>
       </c>
       <c r="R108" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S108" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T108" t="n">
         <v>9</v>
@@ -13580,7 +13580,7 @@
         <v>10</v>
       </c>
       <c r="V108" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W108" t="n">
         <v>17</v>
@@ -13607,22 +13607,22 @@
         <v>151</v>
       </c>
       <c r="AE108" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF108" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG108" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH108" t="n">
         <v>41</v>
       </c>
       <c r="AI108" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ108" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ108" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="109">
@@ -13657,13 +13657,13 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H109" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I109" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J109" t="n">
         <v>1.06</v>
@@ -13672,16 +13672,16 @@
         <v>10</v>
       </c>
       <c r="L109" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M109" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N109" t="n">
         <v>2.05</v>
       </c>
       <c r="O109" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P109" t="n">
         <v>1.44</v>
@@ -13732,7 +13732,7 @@
         <v>12</v>
       </c>
       <c r="AF109" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG109" t="n">
         <v>17</v>
@@ -13779,49 +13779,49 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H110" t="n">
         <v>3.4</v>
       </c>
       <c r="I110" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J110" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K110" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L110" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M110" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N110" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="O110" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P110" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q110" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R110" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S110" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="T110" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U110" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V110" t="n">
         <v>9</v>
@@ -13836,18 +13836,20 @@
         <v>34</v>
       </c>
       <c r="Z110" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA110" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB110" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC110" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD110" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>501</v>
+      </c>
       <c r="AE110" t="n">
         <v>10</v>
       </c>
@@ -13902,7 +13904,7 @@
         <v>5.75</v>
       </c>
       <c r="H111" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I111" t="n">
         <v>1.57</v>
@@ -13914,16 +13916,16 @@
         <v>11</v>
       </c>
       <c r="L111" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M111" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N111" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O111" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="P111" t="n">
         <v>1.4</v>
@@ -13932,10 +13934,10 @@
         <v>2.75</v>
       </c>
       <c r="R111" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S111" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T111" t="n">
         <v>13</v>
@@ -13953,22 +13955,22 @@
         <v>41</v>
       </c>
       <c r="Y111" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z111" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA111" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB111" t="n">
         <v>19</v>
       </c>
       <c r="AC111" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD111" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE111" t="n">
         <v>6.5</v>
@@ -14021,13 +14023,13 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H112" t="n">
         <v>3.1</v>
       </c>
       <c r="I112" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J112" t="n">
         <v>1.1</v>
@@ -14078,7 +14080,7 @@
         <v>41</v>
       </c>
       <c r="Z112" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA112" t="n">
         <v>6</v>
@@ -15119,31 +15121,31 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H121" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I121" t="n">
-        <v>4.15</v>
+        <v>4.7</v>
       </c>
       <c r="J121" t="n">
         <v>1.09</v>
       </c>
       <c r="K121" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L121" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M121" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="N121" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="O121" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P121" t="n">
         <v>1.5</v>
@@ -15152,61 +15154,61 @@
         <v>2.42</v>
       </c>
       <c r="R121" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S121" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T121" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="U121" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="V121" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W121" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="X121" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y121" t="n">
         <v>40</v>
       </c>
       <c r="Z121" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AA121" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AB121" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AC121" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD121" t="n">
         <v>1000</v>
       </c>
       <c r="AE121" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AF121" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AG121" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH121" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AI121" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AJ121" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122">
@@ -15241,19 +15243,19 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.47</v>
+        <v>2.7</v>
       </c>
       <c r="H122" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I122" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="J122" t="n">
         <v>1.12</v>
       </c>
       <c r="K122" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L122" t="n">
         <v>1.5</v>
@@ -15268,10 +15270,10 @@
         <v>1.5</v>
       </c>
       <c r="P122" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q122" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="R122" t="n">
         <v>1.98</v>
@@ -15280,28 +15282,28 @@
         <v>1.75</v>
       </c>
       <c r="T122" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="U122" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="V122" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="W122" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="X122" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Y122" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z122" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AA122" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AB122" t="n">
         <v>15.5</v>
@@ -15313,22 +15315,22 @@
         <v>900</v>
       </c>
       <c r="AE122" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AF122" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG122" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH122" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AI122" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AJ122" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123">
@@ -15485,37 +15487,37 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="H124" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I124" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="J124" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K124" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="L124" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M124" t="n">
-        <v>2.87</v>
+        <v>3.05</v>
       </c>
       <c r="N124" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="O124" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P124" t="n">
         <v>1.42</v>
       </c>
       <c r="Q124" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="R124" t="n">
         <v>2.1</v>
@@ -15524,52 +15526,52 @@
         <v>1.65</v>
       </c>
       <c r="T124" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="U124" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="V124" t="n">
         <v>8.25</v>
       </c>
       <c r="W124" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="X124" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y124" t="n">
         <v>32</v>
       </c>
       <c r="Z124" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AA124" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AB124" t="n">
         <v>20</v>
       </c>
       <c r="AC124" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD124" t="n">
         <v>700</v>
       </c>
       <c r="AE124" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AF124" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AG124" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AH124" t="n">
         <v>150</v>
       </c>
       <c r="AI124" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ124" t="n">
         <v>80</v>
@@ -16524,7 +16526,7 @@
         <v>7</v>
       </c>
       <c r="AB132" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC132" t="n">
         <v>81</v>
@@ -16533,7 +16535,7 @@
         <v>101</v>
       </c>
       <c r="AE132" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF132" t="n">
         <v>26</v>
@@ -16583,13 +16585,13 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I133" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J133" t="n">
         <v>1.08</v>
@@ -16625,7 +16627,7 @@
         <v>7.5</v>
       </c>
       <c r="U133" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V133" t="n">
         <v>10</v>
@@ -16655,22 +16657,22 @@
         <v>301</v>
       </c>
       <c r="AE133" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF133" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG133" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH133" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI133" t="n">
         <v>26</v>
       </c>
       <c r="AJ133" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134">
@@ -16705,25 +16707,25 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H134" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I134" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J134" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K134" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L134" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M134" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N134" t="n">
         <v>2.5</v>
@@ -16747,7 +16749,7 @@
         <v>6</v>
       </c>
       <c r="U134" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V134" t="n">
         <v>10</v>
@@ -16756,7 +16758,7 @@
         <v>21</v>
       </c>
       <c r="X134" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y134" t="n">
         <v>41</v>
@@ -16768,7 +16770,7 @@
         <v>6</v>
       </c>
       <c r="AB134" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC134" t="n">
         <v>67</v>
@@ -16777,16 +16779,16 @@
         <v>101</v>
       </c>
       <c r="AE134" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF134" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG134" t="n">
         <v>13</v>
       </c>
       <c r="AH134" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI134" t="n">
         <v>34</v>
@@ -17071,19 +17073,19 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H137" t="n">
         <v>3</v>
       </c>
       <c r="I137" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J137" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K137" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L137" t="n">
         <v>1.44</v>
@@ -17092,10 +17094,10 @@
         <v>2.63</v>
       </c>
       <c r="N137" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O137" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P137" t="n">
         <v>1.57</v>
@@ -17193,13 +17195,13 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H138" t="n">
         <v>3.5</v>
       </c>
       <c r="I138" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J138" t="n">
         <v>1.04</v>
@@ -17214,49 +17216,49 @@
         <v>4</v>
       </c>
       <c r="N138" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O138" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P138" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q138" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R138" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S138" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T138" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U138" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V138" t="n">
         <v>8.5</v>
       </c>
       <c r="W138" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X138" t="n">
         <v>15</v>
       </c>
       <c r="Y138" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z138" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA138" t="n">
         <v>7</v>
       </c>
       <c r="AB138" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC138" t="n">
         <v>41</v>
@@ -17277,10 +17279,10 @@
         <v>41</v>
       </c>
       <c r="AI138" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ138" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139">
@@ -17681,13 +17683,13 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H142" t="n">
         <v>3.5</v>
       </c>
       <c r="I142" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J142" t="n">
         <v>1.05</v>
@@ -17696,16 +17698,16 @@
         <v>11</v>
       </c>
       <c r="L142" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M142" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N142" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O142" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P142" t="n">
         <v>1.4</v>
@@ -17744,19 +17746,19 @@
         <v>6.5</v>
       </c>
       <c r="AB142" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC142" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD142" t="n">
         <v>201</v>
       </c>
       <c r="AE142" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF142" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG142" t="n">
         <v>9.5</v>
@@ -17803,13 +17805,13 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H143" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I143" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J143" t="n">
         <v>1.04</v>
@@ -17824,10 +17826,10 @@
         <v>4</v>
       </c>
       <c r="N143" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O143" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P143" t="n">
         <v>1.36</v>
@@ -17848,7 +17850,7 @@
         <v>10</v>
       </c>
       <c r="V143" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W143" t="n">
         <v>17</v>
@@ -17875,19 +17877,19 @@
         <v>151</v>
       </c>
       <c r="AE143" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF143" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG143" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH143" t="n">
         <v>41</v>
       </c>
       <c r="AI143" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ143" t="n">
         <v>34</v>
@@ -18653,13 +18655,13 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H150" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I150" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J150" t="n">
         <v>1.06</v>
@@ -18686,10 +18688,10 @@
         <v>2.63</v>
       </c>
       <c r="R150" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S150" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T150" t="n">
         <v>5.5</v>
@@ -18701,7 +18703,7 @@
         <v>9</v>
       </c>
       <c r="W150" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X150" t="n">
         <v>15</v>
@@ -18710,10 +18712,10 @@
         <v>34</v>
       </c>
       <c r="Z150" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA150" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB150" t="n">
         <v>23</v>
@@ -18725,10 +18727,10 @@
         <v>101</v>
       </c>
       <c r="AE150" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF150" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG150" t="n">
         <v>21</v>
@@ -18775,13 +18777,13 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H151" t="n">
         <v>3.3</v>
       </c>
       <c r="I151" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J151" t="n">
         <v>1.05</v>
@@ -18802,25 +18804,25 @@
         <v>1.98</v>
       </c>
       <c r="P151" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q151" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R151" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S151" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T151" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U151" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V151" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W151" t="n">
         <v>21</v>
@@ -18832,10 +18834,10 @@
         <v>26</v>
       </c>
       <c r="Z151" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA151" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB151" t="n">
         <v>13</v>
@@ -18844,7 +18846,7 @@
         <v>41</v>
       </c>
       <c r="AD151" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE151" t="n">
         <v>11</v>
@@ -18853,16 +18855,16 @@
         <v>17</v>
       </c>
       <c r="AG151" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH151" t="n">
         <v>34</v>
       </c>
       <c r="AI151" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ151" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="152">

--- a/Jogos_da_Semana_FlashScore_2025-03-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-30.xlsx
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
         <v>1.07</v>
@@ -1168,22 +1168,22 @@
         <v>2.63</v>
       </c>
       <c r="R6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S6" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U6" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="V6" t="n">
         <v>9</v>
       </c>
       <c r="W6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X6" t="n">
         <v>17</v>
@@ -1195,7 +1195,7 @@
         <v>8.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB6" t="n">
         <v>15</v>
@@ -1207,10 +1207,10 @@
         <v>301</v>
       </c>
       <c r="AE6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J12" t="n">
         <v>1.05</v>
@@ -1909,7 +1909,7 @@
         <v>7.5</v>
       </c>
       <c r="U12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V12" t="n">
         <v>8.5</v>
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD12" t="n">
         <v>201</v>
@@ -1951,7 +1951,7 @@
         <v>41</v>
       </c>
       <c r="AI12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ12" t="n">
         <v>34</v>
@@ -2721,31 +2721,31 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L19" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N19" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="O19" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="P19" t="n">
         <v>1.4</v>
@@ -2769,7 +2769,7 @@
         <v>8.5</v>
       </c>
       <c r="W19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X19" t="n">
         <v>13</v>
@@ -2778,7 +2778,7 @@
         <v>29</v>
       </c>
       <c r="Z19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA19" t="n">
         <v>8</v>
@@ -2793,13 +2793,13 @@
         <v>451</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH19" t="n">
         <v>81</v>
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J20" t="n">
         <v>1.1</v>
@@ -2864,10 +2864,10 @@
         <v>2.63</v>
       </c>
       <c r="N20" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="O20" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P20" t="n">
         <v>1.57</v>
@@ -2909,7 +2909,7 @@
         <v>19</v>
       </c>
       <c r="AC20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD20" t="n">
         <v>501</v>
@@ -2965,13 +2965,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J21" t="n">
         <v>1.08</v>
@@ -2980,16 +2980,16 @@
         <v>8</v>
       </c>
       <c r="L21" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M21" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P21" t="n">
         <v>1.5</v>
@@ -2998,22 +2998,22 @@
         <v>2.5</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S21" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T21" t="n">
         <v>6</v>
       </c>
       <c r="U21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V21" t="n">
         <v>9</v>
       </c>
       <c r="W21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X21" t="n">
         <v>17</v>
@@ -3028,19 +3028,19 @@
         <v>6.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC21" t="n">
         <v>67</v>
       </c>
       <c r="AD21" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE21" t="n">
         <v>11</v>
       </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG21" t="n">
         <v>15</v>
@@ -3052,7 +3052,7 @@
         <v>41</v>
       </c>
       <c r="AJ21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
@@ -3093,7 +3093,7 @@
         <v>2.9</v>
       </c>
       <c r="I22" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J22" t="n">
         <v>1.1</v>
@@ -3144,7 +3144,7 @@
         <v>41</v>
       </c>
       <c r="Z22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA22" t="n">
         <v>5.5</v>
@@ -3153,10 +3153,10 @@
         <v>17</v>
       </c>
       <c r="AC22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD22" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE22" t="n">
         <v>6.5</v>
@@ -3174,7 +3174,7 @@
         <v>23</v>
       </c>
       <c r="AJ22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -3209,25 +3209,25 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J23" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M23" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N23" t="n">
         <v>2.7</v>
@@ -3236,10 +3236,10 @@
         <v>1.44</v>
       </c>
       <c r="P23" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R23" t="n">
         <v>2.5</v>
@@ -3248,31 +3248,31 @@
         <v>1.5</v>
       </c>
       <c r="T23" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="U23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V23" t="n">
         <v>9.5</v>
       </c>
       <c r="W23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y23" t="n">
         <v>41</v>
       </c>
       <c r="Z23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA23" t="n">
         <v>6.5</v>
       </c>
-      <c r="AA23" t="n">
-        <v>7</v>
-      </c>
       <c r="AB23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC23" t="n">
         <v>101</v>
@@ -3281,22 +3281,22 @@
         <v>101</v>
       </c>
       <c r="AE23" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI23" t="n">
         <v>51</v>
       </c>
       <c r="AJ23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
@@ -3453,13 +3453,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H25" t="n">
         <v>2.7</v>
       </c>
       <c r="I25" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
         <v>1.17</v>
@@ -3468,10 +3468,10 @@
         <v>5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="M25" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N25" t="n">
         <v>3.4</v>
@@ -3498,19 +3498,19 @@
         <v>11</v>
       </c>
       <c r="V25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W25" t="n">
         <v>29</v>
       </c>
       <c r="X25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y25" t="n">
         <v>51</v>
       </c>
       <c r="Z25" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AA25" t="n">
         <v>5.5</v>
@@ -3525,10 +3525,10 @@
         <v>101</v>
       </c>
       <c r="AE25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -3697,37 +3697,37 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
         <v>2.8</v>
       </c>
       <c r="I27" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N27" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P27" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R27" t="n">
         <v>2.63</v>
@@ -3739,22 +3739,22 @@
         <v>5.5</v>
       </c>
       <c r="U27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V27" t="n">
         <v>12</v>
       </c>
       <c r="W27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y27" t="n">
         <v>51</v>
       </c>
       <c r="Z27" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AA27" t="n">
         <v>6</v>
@@ -3781,7 +3781,7 @@
         <v>34</v>
       </c>
       <c r="AI27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ27" t="n">
         <v>51</v>
@@ -3947,13 +3947,13 @@
         <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J29" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L29" t="n">
         <v>1.44</v>
@@ -3992,7 +3992,7 @@
         <v>17</v>
       </c>
       <c r="X29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y29" t="n">
         <v>41</v>
@@ -4004,7 +4004,7 @@
         <v>6</v>
       </c>
       <c r="AB29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC29" t="n">
         <v>67</v>
@@ -4013,7 +4013,7 @@
         <v>101</v>
       </c>
       <c r="AE29" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF29" t="n">
         <v>19</v>
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H30" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I30" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J30" t="n">
         <v>1.14</v>
@@ -4090,10 +4090,10 @@
         <v>1.36</v>
       </c>
       <c r="P30" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R30" t="n">
         <v>2.5</v>
@@ -4102,13 +4102,13 @@
         <v>1.5</v>
       </c>
       <c r="T30" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U30" t="n">
         <v>15</v>
       </c>
       <c r="V30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W30" t="n">
         <v>41</v>
@@ -4120,7 +4120,7 @@
         <v>51</v>
       </c>
       <c r="Z30" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AA30" t="n">
         <v>6</v>
@@ -4147,10 +4147,10 @@
         <v>23</v>
       </c>
       <c r="AI30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
@@ -4185,13 +4185,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H31" t="n">
         <v>2.88</v>
       </c>
       <c r="I31" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J31" t="n">
         <v>1.13</v>
@@ -4224,19 +4224,19 @@
         <v>1.53</v>
       </c>
       <c r="T31" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U31" t="n">
         <v>12</v>
       </c>
       <c r="V31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y31" t="n">
         <v>51</v>
@@ -4260,7 +4260,7 @@
         <v>6</v>
       </c>
       <c r="AF31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG31" t="n">
         <v>12</v>
@@ -4272,7 +4272,7 @@
         <v>29</v>
       </c>
       <c r="AJ31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32">
@@ -4307,25 +4307,25 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H32" t="n">
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J32" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K32" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="L32" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N32" t="n">
         <v>3.4</v>
@@ -4334,10 +4334,10 @@
         <v>1.33</v>
       </c>
       <c r="P32" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R32" t="n">
         <v>3</v>
@@ -4349,7 +4349,7 @@
         <v>4.33</v>
       </c>
       <c r="U32" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V32" t="n">
         <v>11</v>
@@ -4444,10 +4444,10 @@
         <v>5.5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="N33" t="n">
         <v>3.5</v>
@@ -4456,10 +4456,10 @@
         <v>1.3</v>
       </c>
       <c r="P33" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R33" t="n">
         <v>2.75</v>
@@ -4688,10 +4688,10 @@
         <v>5.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="M35" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N35" t="n">
         <v>3.1</v>
@@ -4795,13 +4795,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H36" t="n">
         <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J36" t="n">
         <v>1.17</v>
@@ -4837,13 +4837,13 @@
         <v>4.75</v>
       </c>
       <c r="U36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V36" t="n">
         <v>11</v>
       </c>
       <c r="W36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X36" t="n">
         <v>23</v>
@@ -4879,7 +4879,7 @@
         <v>51</v>
       </c>
       <c r="AI36" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ36" t="n">
         <v>67</v>
@@ -4926,13 +4926,13 @@
         <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="K37" t="n">
         <v>5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="M37" t="n">
         <v>2.1</v>
@@ -5283,13 +5283,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H40" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I40" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
         <v>1.03</v>
@@ -5298,16 +5298,16 @@
         <v>17</v>
       </c>
       <c r="L40" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M40" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N40" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O40" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P40" t="n">
         <v>1.29</v>
@@ -5322,7 +5322,7 @@
         <v>2.1</v>
       </c>
       <c r="T40" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U40" t="n">
         <v>8.5</v>
@@ -5331,7 +5331,7 @@
         <v>8.5</v>
       </c>
       <c r="W40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X40" t="n">
         <v>11</v>
@@ -5340,10 +5340,10 @@
         <v>21</v>
       </c>
       <c r="Z40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA40" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB40" t="n">
         <v>15</v>
@@ -5405,13 +5405,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H41" t="n">
         <v>3.6</v>
       </c>
       <c r="I41" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J41" t="n">
         <v>1.03</v>
@@ -5420,31 +5420,31 @@
         <v>15</v>
       </c>
       <c r="L41" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M41" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N41" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O41" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S41" t="n">
         <v>2.25</v>
       </c>
-      <c r="P41" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2.38</v>
-      </c>
       <c r="T41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U41" t="n">
         <v>13</v>
@@ -5459,7 +5459,7 @@
         <v>17</v>
       </c>
       <c r="Y41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z41" t="n">
         <v>15</v>
@@ -5471,7 +5471,7 @@
         <v>12</v>
       </c>
       <c r="AC41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD41" t="n">
         <v>126</v>
@@ -5492,7 +5492,7 @@
         <v>21</v>
       </c>
       <c r="AJ41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
@@ -5641,49 +5641,49 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H43" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I43" t="n">
         <v>5.25</v>
       </c>
       <c r="J43" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L43" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N43" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O43" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P43" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q43" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R43" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S43" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T43" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V43" t="n">
         <v>8.5</v>
@@ -5692,16 +5692,16 @@
         <v>11</v>
       </c>
       <c r="X43" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z43" t="n">
         <v>13</v>
       </c>
-      <c r="Y43" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>12</v>
-      </c>
       <c r="AA43" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB43" t="n">
         <v>17</v>
@@ -5710,19 +5710,19 @@
         <v>51</v>
       </c>
       <c r="AD43" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AE43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF43" t="n">
         <v>29</v>
       </c>
       <c r="AG43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH43" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI43" t="n">
         <v>41</v>
@@ -5885,13 +5885,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H45" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
         <v>1.06</v>
@@ -5900,16 +5900,16 @@
         <v>10</v>
       </c>
       <c r="L45" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M45" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N45" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="O45" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="P45" t="n">
         <v>1.4</v>
@@ -5918,52 +5918,52 @@
         <v>2.75</v>
       </c>
       <c r="R45" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S45" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U45" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V45" t="n">
         <v>8.5</v>
       </c>
       <c r="W45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X45" t="n">
         <v>15</v>
       </c>
       <c r="Y45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z45" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA45" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB45" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC45" t="n">
         <v>51</v>
       </c>
       <c r="AD45" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE45" t="n">
         <v>13</v>
       </c>
       <c r="AF45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH45" t="n">
         <v>51</v>
@@ -5972,7 +5972,7 @@
         <v>41</v>
       </c>
       <c r="AJ45" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46">
@@ -6129,7 +6129,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H47" t="n">
         <v>3.4</v>
@@ -6177,7 +6177,7 @@
         <v>8.5</v>
       </c>
       <c r="W47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X47" t="n">
         <v>15</v>
@@ -6207,7 +6207,7 @@
         <v>23</v>
       </c>
       <c r="AG47" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH47" t="n">
         <v>51</v>
@@ -6507,7 +6507,7 @@
         <v>1.06</v>
       </c>
       <c r="K50" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L50" t="n">
         <v>1.33</v>
@@ -6735,37 +6735,37 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="H52" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I52" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J52" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K52" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L52" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M52" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N52" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O52" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="P52" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R52" t="n">
         <v>2.25</v>
@@ -6774,7 +6774,7 @@
         <v>1.57</v>
       </c>
       <c r="T52" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U52" t="n">
         <v>6</v>
@@ -6783,19 +6783,19 @@
         <v>9</v>
       </c>
       <c r="W52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X52" t="n">
         <v>15</v>
       </c>
       <c r="Y52" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z52" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA52" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB52" t="n">
         <v>21</v>
@@ -6807,13 +6807,13 @@
         <v>301</v>
       </c>
       <c r="AE52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF52" t="n">
         <v>34</v>
       </c>
       <c r="AG52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH52" t="n">
         <v>81</v>
@@ -6857,46 +6857,46 @@
         </is>
       </c>
       <c r="G53" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>7</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M53" t="n">
         <v>2.5</v>
       </c>
-      <c r="H53" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K53" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2.63</v>
-      </c>
       <c r="N53" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="O53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P53" t="n">
         <v>1.57</v>
       </c>
-      <c r="P53" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Q53" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R53" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S53" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T53" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U53" t="n">
         <v>11</v>
@@ -6905,7 +6905,7 @@
         <v>10</v>
       </c>
       <c r="W53" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X53" t="n">
         <v>23</v>
@@ -6914,7 +6914,7 @@
         <v>41</v>
       </c>
       <c r="Z53" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA53" t="n">
         <v>6.5</v>
@@ -6932,7 +6932,7 @@
         <v>7</v>
       </c>
       <c r="AF53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG53" t="n">
         <v>11</v>
@@ -6941,7 +6941,7 @@
         <v>29</v>
       </c>
       <c r="AI53" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ53" t="n">
         <v>41</v>
@@ -7470,16 +7470,16 @@
         <v>2.05</v>
       </c>
       <c r="H58" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I58" t="n">
         <v>3.5</v>
       </c>
       <c r="J58" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L58" t="n">
         <v>1.29</v>
@@ -7488,10 +7488,10 @@
         <v>3.5</v>
       </c>
       <c r="N58" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O58" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P58" t="n">
         <v>1.4</v>
@@ -7539,10 +7539,10 @@
         <v>251</v>
       </c>
       <c r="AE58" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF58" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG58" t="n">
         <v>12</v>
@@ -7589,13 +7589,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="H59" t="n">
         <v>3.1</v>
       </c>
       <c r="I59" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J59" t="n">
         <v>1.08</v>
@@ -7604,16 +7604,16 @@
         <v>8</v>
       </c>
       <c r="L59" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M59" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N59" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O59" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P59" t="n">
         <v>1.53</v>
@@ -7628,10 +7628,10 @@
         <v>1.73</v>
       </c>
       <c r="T59" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U59" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V59" t="n">
         <v>11</v>
@@ -7646,7 +7646,7 @@
         <v>41</v>
       </c>
       <c r="Z59" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA59" t="n">
         <v>6</v>
@@ -7655,7 +7655,7 @@
         <v>17</v>
       </c>
       <c r="AC59" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD59" t="n">
         <v>351</v>
@@ -7664,16 +7664,16 @@
         <v>7.5</v>
       </c>
       <c r="AF59" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG59" t="n">
         <v>11</v>
       </c>
       <c r="AH59" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI59" t="n">
         <v>26</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>23</v>
       </c>
       <c r="AJ59" t="n">
         <v>41</v>
@@ -7711,19 +7711,19 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H60" t="n">
         <v>3.1</v>
       </c>
       <c r="I60" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J60" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K60" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L60" t="n">
         <v>1.33</v>
@@ -7756,19 +7756,19 @@
         <v>13</v>
       </c>
       <c r="V60" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W60" t="n">
         <v>26</v>
       </c>
       <c r="X60" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y60" t="n">
         <v>34</v>
       </c>
       <c r="Z60" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA60" t="n">
         <v>6</v>
@@ -7833,13 +7833,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H61" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I61" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J61" t="n">
         <v>1.06</v>
@@ -7866,13 +7866,13 @@
         <v>2.63</v>
       </c>
       <c r="R61" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S61" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T61" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U61" t="n">
         <v>8</v>
@@ -7884,7 +7884,7 @@
         <v>15</v>
       </c>
       <c r="X61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y61" t="n">
         <v>29</v>
@@ -7896,16 +7896,16 @@
         <v>7</v>
       </c>
       <c r="AB61" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC61" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD61" t="n">
         <v>351</v>
       </c>
       <c r="AE61" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF61" t="n">
         <v>21</v>
@@ -7914,10 +7914,10 @@
         <v>15</v>
       </c>
       <c r="AH61" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI61" t="n">
         <v>41</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>34</v>
       </c>
       <c r="AJ61" t="n">
         <v>41</v>
@@ -8789,13 +8789,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H69" t="n">
         <v>3.5</v>
       </c>
       <c r="I69" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J69" t="n">
         <v>1.04</v>
@@ -8834,10 +8834,10 @@
         <v>13</v>
       </c>
       <c r="V69" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W69" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X69" t="n">
         <v>19</v>
@@ -8873,7 +8873,7 @@
         <v>26</v>
       </c>
       <c r="AI69" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ69" t="n">
         <v>26</v>
@@ -9277,13 +9277,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="H73" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I73" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="J73" t="n">
         <v>1.03</v>
@@ -9310,37 +9310,37 @@
         <v>3.25</v>
       </c>
       <c r="R73" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S73" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T73" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U73" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="V73" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W73" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X73" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y73" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z73" t="n">
         <v>15</v>
       </c>
       <c r="AA73" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB73" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC73" t="n">
         <v>41</v>
@@ -9349,19 +9349,19 @@
         <v>151</v>
       </c>
       <c r="AE73" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF73" t="n">
         <v>9</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>10</v>
       </c>
       <c r="AG73" t="n">
         <v>8.5</v>
       </c>
       <c r="AH73" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AI73" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ73" t="n">
         <v>21</v>
@@ -11343,13 +11343,13 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H90" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I90" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J90" t="n">
         <v>1.03</v>
@@ -11358,16 +11358,16 @@
         <v>15</v>
       </c>
       <c r="L90" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M90" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N90" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O90" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P90" t="n">
         <v>1.3</v>
@@ -11388,7 +11388,7 @@
         <v>13</v>
       </c>
       <c r="V90" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W90" t="n">
         <v>21</v>
@@ -11412,7 +11412,7 @@
         <v>34</v>
       </c>
       <c r="AD90" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE90" t="n">
         <v>13</v>
@@ -11424,13 +11424,13 @@
         <v>11</v>
       </c>
       <c r="AH90" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI90" t="n">
         <v>21</v>
       </c>
       <c r="AJ90" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91">
@@ -12437,10 +12437,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="H99" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I99" t="n">
         <v>1.42</v>
@@ -12476,7 +12476,7 @@
         <v>1.91</v>
       </c>
       <c r="T99" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U99" t="n">
         <v>34</v>
@@ -12485,10 +12485,10 @@
         <v>19</v>
       </c>
       <c r="W99" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="X99" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y99" t="n">
         <v>41</v>
@@ -12509,16 +12509,16 @@
         <v>251</v>
       </c>
       <c r="AE99" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF99" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG99" t="n">
         <v>8.5</v>
       </c>
       <c r="AH99" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI99" t="n">
         <v>11</v>
@@ -12690,10 +12690,10 @@
         <v>3.7</v>
       </c>
       <c r="J101" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K101" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L101" t="n">
         <v>1.2</v>
@@ -12702,10 +12702,10 @@
         <v>4.33</v>
       </c>
       <c r="N101" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O101" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P101" t="n">
         <v>1.33</v>
@@ -13901,13 +13901,13 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H111" t="n">
         <v>4.1</v>
       </c>
       <c r="I111" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="J111" t="n">
         <v>1.05</v>
@@ -13922,10 +13922,10 @@
         <v>3.5</v>
       </c>
       <c r="N111" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O111" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="P111" t="n">
         <v>1.4</v>
@@ -13934,43 +13934,43 @@
         <v>2.75</v>
       </c>
       <c r="R111" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S111" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T111" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U111" t="n">
         <v>29</v>
       </c>
       <c r="V111" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W111" t="n">
         <v>67</v>
       </c>
       <c r="X111" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y111" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z111" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA111" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB111" t="n">
         <v>19</v>
       </c>
       <c r="AC111" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD111" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE111" t="n">
         <v>6.5</v>
@@ -14029,7 +14029,7 @@
         <v>3.1</v>
       </c>
       <c r="I112" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J112" t="n">
         <v>1.1</v>
@@ -14038,16 +14038,16 @@
         <v>7</v>
       </c>
       <c r="L112" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M112" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N112" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O112" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P112" t="n">
         <v>1.57</v>
@@ -14062,7 +14062,7 @@
         <v>1.67</v>
       </c>
       <c r="T112" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U112" t="n">
         <v>17</v>
@@ -14511,10 +14511,10 @@
         </is>
       </c>
       <c r="G116" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H116" t="n">
         <v>2.75</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2.7</v>
       </c>
       <c r="I116" t="n">
         <v>2.7</v>
@@ -14532,25 +14532,25 @@
         <v>2.75</v>
       </c>
       <c r="N116" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O116" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P116" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R116" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S116" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T116" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U116" t="n">
         <v>13</v>
@@ -14580,22 +14580,22 @@
         <v>51</v>
       </c>
       <c r="AD116" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE116" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF116" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG116" t="n">
         <v>11</v>
       </c>
       <c r="AH116" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI116" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ116" t="n">
         <v>41</v>
@@ -14755,7 +14755,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H118" t="n">
         <v>3.1</v>
@@ -14776,10 +14776,10 @@
         <v>2.63</v>
       </c>
       <c r="N118" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O118" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P118" t="n">
         <v>1.53</v>
@@ -14806,7 +14806,7 @@
         <v>41</v>
       </c>
       <c r="X118" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y118" t="n">
         <v>41</v>
@@ -14815,7 +14815,7 @@
         <v>7</v>
       </c>
       <c r="AA118" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB118" t="n">
         <v>19</v>
@@ -15243,91 +15243,91 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.7</v>
+        <v>3.35</v>
       </c>
       <c r="H122" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="I122" t="n">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="J122" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="K122" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="L122" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M122" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="N122" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="O122" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P122" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q122" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="R122" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S122" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T122" t="n">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="U122" t="n">
+        <v>16</v>
+      </c>
+      <c r="V122" t="n">
         <v>12.5</v>
       </c>
-      <c r="V122" t="n">
-        <v>10.5</v>
-      </c>
       <c r="W122" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="X122" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="Y122" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Z122" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AA122" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="AB122" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC122" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AD122" t="n">
         <v>900</v>
       </c>
       <c r="AE122" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF122" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AG122" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AH122" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AI122" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AJ122" t="n">
         <v>40</v>
@@ -16588,7 +16588,7 @@
         <v>2.45</v>
       </c>
       <c r="H133" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I133" t="n">
         <v>3.1</v>
@@ -16657,7 +16657,7 @@
         <v>301</v>
       </c>
       <c r="AE133" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF133" t="n">
         <v>15</v>
@@ -16716,10 +16716,10 @@
         <v>3.6</v>
       </c>
       <c r="J134" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K134" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L134" t="n">
         <v>1.5</v>
@@ -18411,13 +18411,13 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="H148" t="n">
         <v>4.5</v>
       </c>
       <c r="I148" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J148" t="n">
         <v>1.04</v>
@@ -18432,10 +18432,10 @@
         <v>4.33</v>
       </c>
       <c r="N148" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O148" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P148" t="n">
         <v>1.33</v>
@@ -18444,13 +18444,13 @@
         <v>3.25</v>
       </c>
       <c r="R148" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S148" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T148" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U148" t="n">
         <v>7</v>
@@ -18480,16 +18480,16 @@
         <v>51</v>
       </c>
       <c r="AD148" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE148" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF148" t="n">
         <v>41</v>
       </c>
       <c r="AG148" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH148" t="n">
         <v>81</v>
@@ -18655,55 +18655,55 @@
         </is>
       </c>
       <c r="G150" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H150" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I150" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K150" t="n">
+        <v>8</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M150" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N150" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O150" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P150" t="n">
         <v>1.5</v>
       </c>
-      <c r="H150" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>6</v>
-      </c>
-      <c r="J150" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K150" t="n">
-        <v>10</v>
-      </c>
-      <c r="L150" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M150" t="n">
-        <v>3</v>
-      </c>
-      <c r="N150" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O150" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P150" t="n">
-        <v>1.44</v>
-      </c>
       <c r="Q150" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R150" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S150" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T150" t="n">
         <v>5.5</v>
       </c>
       <c r="U150" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V150" t="n">
         <v>9</v>
       </c>
       <c r="W150" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X150" t="n">
         <v>15</v>
@@ -18712,10 +18712,10 @@
         <v>34</v>
       </c>
       <c r="Z150" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA150" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB150" t="n">
         <v>23</v>
@@ -18727,16 +18727,16 @@
         <v>101</v>
       </c>
       <c r="AE150" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF150" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG150" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH150" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI150" t="n">
         <v>51</v>
@@ -18777,46 +18777,46 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H151" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I151" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J151" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K151" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="L151" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M151" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N151" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="O151" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="P151" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q151" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R151" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S151" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T151" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U151" t="n">
         <v>12</v>
@@ -18825,46 +18825,46 @@
         <v>9.5</v>
       </c>
       <c r="W151" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X151" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y151" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z151" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA151" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB151" t="n">
         <v>13</v>
       </c>
       <c r="AC151" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD151" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE151" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AF151" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG151" t="n">
         <v>11</v>
       </c>
       <c r="AH151" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI151" t="n">
         <v>23</v>
       </c>
       <c r="AJ151" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="152">
@@ -18914,22 +18914,22 @@
         <v>13</v>
       </c>
       <c r="L152" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M152" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N152" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O152" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P152" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q152" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R152" t="n">
         <v>1.62</v>
@@ -18938,7 +18938,7 @@
         <v>2.2</v>
       </c>
       <c r="T152" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U152" t="n">
         <v>12</v>
@@ -18956,7 +18956,7 @@
         <v>23</v>
       </c>
       <c r="Z152" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA152" t="n">
         <v>6.5</v>
@@ -19060,7 +19060,7 @@
         <v>1.88</v>
       </c>
       <c r="T153" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="U153" t="n">
         <v>10.5</v>
@@ -19072,7 +19072,7 @@
         <v>23</v>
       </c>
       <c r="X153" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y153" t="n">
         <v>30</v>
@@ -19105,7 +19105,7 @@
         <v>45</v>
       </c>
       <c r="AI153" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ153" t="n">
         <v>35</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-30.xlsx
@@ -1135,31 +1135,31 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="J6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N6" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O6" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="P6" t="n">
         <v>1.44</v>
@@ -1168,16 +1168,16 @@
         <v>2.63</v>
       </c>
       <c r="R6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S6" t="n">
         <v>1.95</v>
       </c>
-      <c r="S6" t="n">
-        <v>1.8</v>
-      </c>
       <c r="T6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U6" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="V6" t="n">
         <v>9</v>
@@ -1192,7 +1192,7 @@
         <v>29</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA6" t="n">
         <v>6.5</v>
@@ -1204,13 +1204,13 @@
         <v>51</v>
       </c>
       <c r="AD6" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1219,7 +1219,7 @@
         <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ6" t="n">
         <v>41</v>
@@ -1888,10 +1888,10 @@
         <v>3.75</v>
       </c>
       <c r="N12" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="O12" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P12" t="n">
         <v>1.4</v>
@@ -1906,7 +1906,7 @@
         <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U12" t="n">
         <v>9.5</v>
@@ -2965,13 +2965,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H21" t="n">
         <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
         <v>1.08</v>
@@ -3016,7 +3016,7 @@
         <v>13</v>
       </c>
       <c r="X21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y21" t="n">
         <v>34</v>
@@ -3025,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB21" t="n">
         <v>19</v>
@@ -3034,7 +3034,7 @@
         <v>67</v>
       </c>
       <c r="AD21" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE21" t="n">
         <v>11</v>
@@ -3043,7 +3043,7 @@
         <v>23</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
         <v>51</v>
@@ -3218,16 +3218,16 @@
         <v>4.75</v>
       </c>
       <c r="J23" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L23" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M23" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="N23" t="n">
         <v>2.7</v>
@@ -3358,16 +3358,16 @@
         <v>1.53</v>
       </c>
       <c r="P24" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S24" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -3397,10 +3397,10 @@
         <v>19</v>
       </c>
       <c r="AC24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD24" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE24" t="n">
         <v>6</v>
@@ -3418,7 +3418,7 @@
         <v>21</v>
       </c>
       <c r="AJ24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -3941,19 +3941,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H29" t="n">
         <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J29" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L29" t="n">
         <v>1.44</v>
@@ -3962,10 +3962,10 @@
         <v>2.63</v>
       </c>
       <c r="N29" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O29" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P29" t="n">
         <v>1.53</v>
@@ -3983,13 +3983,13 @@
         <v>6</v>
       </c>
       <c r="U29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V29" t="n">
         <v>9.5</v>
       </c>
       <c r="W29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X29" t="n">
         <v>21</v>
@@ -4004,7 +4004,7 @@
         <v>6</v>
       </c>
       <c r="AB29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC29" t="n">
         <v>67</v>
@@ -4028,7 +4028,7 @@
         <v>41</v>
       </c>
       <c r="AJ29" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
@@ -4185,13 +4185,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H31" t="n">
         <v>2.88</v>
       </c>
       <c r="I31" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J31" t="n">
         <v>1.13</v>
@@ -4236,7 +4236,7 @@
         <v>29</v>
       </c>
       <c r="X31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y31" t="n">
         <v>51</v>
@@ -4260,7 +4260,7 @@
         <v>6</v>
       </c>
       <c r="AF31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG31" t="n">
         <v>12</v>
@@ -4307,19 +4307,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J32" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K32" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="L32" t="n">
         <v>1.67</v>
@@ -4340,16 +4340,16 @@
         <v>2.08</v>
       </c>
       <c r="R32" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="S32" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T32" t="n">
         <v>4.33</v>
       </c>
       <c r="U32" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V32" t="n">
         <v>11</v>
@@ -4358,7 +4358,7 @@
         <v>13</v>
       </c>
       <c r="X32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y32" t="n">
         <v>51</v>
@@ -4379,16 +4379,16 @@
         <v>101</v>
       </c>
       <c r="AE32" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH32" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI32" t="n">
         <v>67</v>
@@ -4429,13 +4429,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H33" t="n">
         <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="J33" t="n">
         <v>1.14</v>
@@ -4471,10 +4471,10 @@
         <v>6</v>
       </c>
       <c r="U33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W33" t="n">
         <v>41</v>
@@ -4504,13 +4504,13 @@
         <v>5</v>
       </c>
       <c r="AF33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG33" t="n">
         <v>12</v>
       </c>
       <c r="AH33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI33" t="n">
         <v>29</v>
@@ -4551,13 +4551,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H34" t="n">
         <v>2.88</v>
       </c>
       <c r="I34" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J34" t="n">
         <v>1.14</v>
@@ -4572,16 +4572,16 @@
         <v>2.1</v>
       </c>
       <c r="N34" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O34" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P34" t="n">
         <v>1.73</v>
       </c>
       <c r="Q34" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R34" t="n">
         <v>2.5</v>
@@ -4590,10 +4590,10 @@
         <v>1.5</v>
       </c>
       <c r="T34" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U34" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V34" t="n">
         <v>11</v>
@@ -4673,13 +4673,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
         <v>2.8</v>
       </c>
       <c r="I35" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J35" t="n">
         <v>1.14</v>
@@ -4706,22 +4706,22 @@
         <v>2.1</v>
       </c>
       <c r="R35" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S35" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T35" t="n">
         <v>5.5</v>
       </c>
       <c r="U35" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V35" t="n">
         <v>11</v>
       </c>
       <c r="W35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X35" t="n">
         <v>26</v>
@@ -4801,19 +4801,19 @@
         <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K36" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="M36" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N36" t="n">
         <v>3.4</v>
@@ -4822,10 +4822,10 @@
         <v>1.33</v>
       </c>
       <c r="P36" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R36" t="n">
         <v>2.63</v>
@@ -4846,7 +4846,7 @@
         <v>19</v>
       </c>
       <c r="X36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y36" t="n">
         <v>51</v>
@@ -4867,10 +4867,10 @@
         <v>101</v>
       </c>
       <c r="AE36" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG36" t="n">
         <v>17</v>
@@ -5641,13 +5641,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="H43" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I43" t="n">
-        <v>5.25</v>
+        <v>6.25</v>
       </c>
       <c r="J43" t="n">
         <v>1.03</v>
@@ -5662,70 +5662,70 @@
         <v>4.33</v>
       </c>
       <c r="N43" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O43" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P43" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R43" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S43" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T43" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V43" t="n">
         <v>8.5</v>
       </c>
       <c r="W43" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X43" t="n">
         <v>11</v>
-      </c>
-      <c r="X43" t="n">
-        <v>12</v>
       </c>
       <c r="Y43" t="n">
         <v>23</v>
       </c>
       <c r="Z43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA43" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC43" t="n">
         <v>51</v>
       </c>
       <c r="AD43" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG43" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AH43" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI43" t="n">
         <v>51</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>41</v>
       </c>
       <c r="AJ43" t="n">
         <v>41</v>
@@ -5784,10 +5784,10 @@
         <v>4.33</v>
       </c>
       <c r="N44" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O44" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P44" t="n">
         <v>1.33</v>
@@ -5885,19 +5885,19 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
         <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J45" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L45" t="n">
         <v>1.33</v>
@@ -5945,7 +5945,7 @@
         <v>9</v>
       </c>
       <c r="AA45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB45" t="n">
         <v>17</v>
@@ -5963,7 +5963,7 @@
         <v>29</v>
       </c>
       <c r="AG45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH45" t="n">
         <v>51</v>
@@ -6007,13 +6007,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H46" t="n">
         <v>3.1</v>
       </c>
       <c r="I46" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J46" t="n">
         <v>1.08</v>
@@ -6070,7 +6070,7 @@
         <v>6</v>
       </c>
       <c r="AB46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC46" t="n">
         <v>51</v>
@@ -6079,7 +6079,7 @@
         <v>351</v>
       </c>
       <c r="AE46" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF46" t="n">
         <v>15</v>
@@ -6129,31 +6129,31 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H47" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I47" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J47" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L47" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M47" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N47" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O47" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P47" t="n">
         <v>1.44</v>
@@ -6177,7 +6177,7 @@
         <v>8.5</v>
       </c>
       <c r="W47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X47" t="n">
         <v>15</v>
@@ -6201,13 +6201,13 @@
         <v>351</v>
       </c>
       <c r="AE47" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF47" t="n">
         <v>23</v>
       </c>
       <c r="AG47" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH47" t="n">
         <v>51</v>
@@ -6373,13 +6373,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I49" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J49" t="n">
         <v>1.07</v>
@@ -6415,16 +6415,16 @@
         <v>6.5</v>
       </c>
       <c r="U49" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V49" t="n">
         <v>9</v>
       </c>
       <c r="W49" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X49" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y49" t="n">
         <v>34</v>
@@ -6445,10 +6445,10 @@
         <v>351</v>
       </c>
       <c r="AE49" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG49" t="n">
         <v>13</v>
@@ -6495,13 +6495,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H50" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I50" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J50" t="n">
         <v>1.06</v>
@@ -6528,16 +6528,16 @@
         <v>2.63</v>
       </c>
       <c r="R50" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S50" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T50" t="n">
         <v>6.5</v>
       </c>
       <c r="U50" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V50" t="n">
         <v>8.5</v>
@@ -6552,7 +6552,7 @@
         <v>29</v>
       </c>
       <c r="Z50" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA50" t="n">
         <v>7</v>
@@ -6564,7 +6564,7 @@
         <v>51</v>
       </c>
       <c r="AD50" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE50" t="n">
         <v>11</v>
@@ -6576,10 +6576,10 @@
         <v>15</v>
       </c>
       <c r="AH50" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI50" t="n">
         <v>41</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>34</v>
       </c>
       <c r="AJ50" t="n">
         <v>41</v>
@@ -6735,46 +6735,46 @@
         </is>
       </c>
       <c r="G52" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I52" t="n">
+        <v>7</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>7</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P52" t="n">
         <v>1.5</v>
       </c>
-      <c r="H52" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I52" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K52" t="n">
-        <v>9</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3</v>
-      </c>
-      <c r="N52" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P52" t="n">
-        <v>1.44</v>
-      </c>
       <c r="Q52" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R52" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S52" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T52" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U52" t="n">
         <v>6</v>
@@ -6783,22 +6783,22 @@
         <v>9</v>
       </c>
       <c r="W52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X52" t="n">
         <v>15</v>
       </c>
       <c r="Y52" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA52" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC52" t="n">
         <v>81</v>
@@ -6807,13 +6807,13 @@
         <v>301</v>
       </c>
       <c r="AE52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF52" t="n">
         <v>34</v>
       </c>
       <c r="AG52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH52" t="n">
         <v>81</v>
@@ -6857,13 +6857,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H53" t="n">
         <v>3.2</v>
       </c>
       <c r="I53" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J53" t="n">
         <v>1.1</v>
@@ -6878,10 +6878,10 @@
         <v>2.5</v>
       </c>
       <c r="N53" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O53" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P53" t="n">
         <v>1.57</v>
@@ -6890,10 +6890,10 @@
         <v>2.25</v>
       </c>
       <c r="R53" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S53" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T53" t="n">
         <v>6.5</v>
@@ -6902,28 +6902,28 @@
         <v>11</v>
       </c>
       <c r="V53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y53" t="n">
         <v>41</v>
       </c>
       <c r="Z53" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA53" t="n">
         <v>6.5</v>
       </c>
       <c r="AB53" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC53" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD53" t="n">
         <v>351</v>
@@ -6932,10 +6932,10 @@
         <v>7</v>
       </c>
       <c r="AF53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH53" t="n">
         <v>29</v>
@@ -6979,7 +6979,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H54" t="n">
         <v>4.33</v>
@@ -7021,10 +7021,10 @@
         <v>6</v>
       </c>
       <c r="U54" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W54" t="n">
         <v>9.5</v>
@@ -7711,13 +7711,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H60" t="n">
         <v>3.1</v>
       </c>
       <c r="I60" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J60" t="n">
         <v>1.06</v>
@@ -7768,7 +7768,7 @@
         <v>34</v>
       </c>
       <c r="Z60" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA60" t="n">
         <v>6</v>
@@ -7789,13 +7789,13 @@
         <v>13</v>
       </c>
       <c r="AG60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH60" t="n">
         <v>26</v>
       </c>
       <c r="AI60" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ60" t="n">
         <v>34</v>
@@ -7833,19 +7833,19 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H61" t="n">
         <v>3.6</v>
       </c>
       <c r="I61" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J61" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K61" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L61" t="n">
         <v>1.36</v>
@@ -7875,13 +7875,13 @@
         <v>6</v>
       </c>
       <c r="U61" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V61" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W61" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X61" t="n">
         <v>15</v>
@@ -7908,7 +7908,7 @@
         <v>11</v>
       </c>
       <c r="AF61" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG61" t="n">
         <v>15</v>
@@ -11358,16 +11358,16 @@
         <v>15</v>
       </c>
       <c r="L90" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M90" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N90" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O90" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P90" t="n">
         <v>1.3</v>
@@ -12803,13 +12803,13 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H102" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I102" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J102" t="n">
         <v>1.1</v>
@@ -12836,37 +12836,37 @@
         <v>2.38</v>
       </c>
       <c r="R102" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S102" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T102" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U102" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V102" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W102" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X102" t="n">
         <v>21</v>
       </c>
       <c r="Y102" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z102" t="n">
         <v>7</v>
       </c>
       <c r="AA102" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB102" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC102" t="n">
         <v>67</v>
@@ -12881,13 +12881,13 @@
         <v>15</v>
       </c>
       <c r="AG102" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH102" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI102" t="n">
         <v>34</v>
-      </c>
-      <c r="AI102" t="n">
-        <v>29</v>
       </c>
       <c r="AJ102" t="n">
         <v>41</v>
@@ -14023,19 +14023,19 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H112" t="n">
         <v>3.1</v>
       </c>
       <c r="I112" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J112" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K112" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L112" t="n">
         <v>1.5</v>
@@ -14056,10 +14056,10 @@
         <v>2.25</v>
       </c>
       <c r="R112" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S112" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T112" t="n">
         <v>8</v>
@@ -14068,16 +14068,16 @@
         <v>17</v>
       </c>
       <c r="V112" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W112" t="n">
         <v>41</v>
       </c>
       <c r="X112" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y112" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z112" t="n">
         <v>6.5</v>
@@ -14089,16 +14089,16 @@
         <v>19</v>
       </c>
       <c r="AC112" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD112" t="n">
         <v>501</v>
       </c>
       <c r="AE112" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF112" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG112" t="n">
         <v>9.5</v>
@@ -18533,13 +18533,13 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H149" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I149" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J149" t="n">
         <v>1.1</v>
@@ -18566,22 +18566,22 @@
         <v>2.25</v>
       </c>
       <c r="R149" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S149" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T149" t="n">
         <v>6</v>
       </c>
       <c r="U149" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V149" t="n">
         <v>10</v>
       </c>
       <c r="W149" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X149" t="n">
         <v>21</v>
@@ -18593,31 +18593,31 @@
         <v>7</v>
       </c>
       <c r="AA149" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB149" t="n">
         <v>19</v>
       </c>
       <c r="AC149" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD149" t="n">
         <v>351</v>
       </c>
       <c r="AE149" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF149" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG149" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH149" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI149" t="n">
         <v>34</v>
-      </c>
-      <c r="AI149" t="n">
-        <v>29</v>
       </c>
       <c r="AJ149" t="n">
         <v>41</v>
@@ -18655,19 +18655,19 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H150" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I150" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J150" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K150" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L150" t="n">
         <v>1.4</v>
@@ -18676,10 +18676,10 @@
         <v>2.75</v>
       </c>
       <c r="N150" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O150" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P150" t="n">
         <v>1.5</v>
@@ -18703,7 +18703,7 @@
         <v>9</v>
       </c>
       <c r="W150" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X150" t="n">
         <v>15</v>
@@ -18718,7 +18718,7 @@
         <v>7.5</v>
       </c>
       <c r="AB150" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC150" t="n">
         <v>81</v>
@@ -18733,10 +18733,10 @@
         <v>26</v>
       </c>
       <c r="AG150" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH150" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI150" t="n">
         <v>51</v>
@@ -19021,13 +19021,13 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="H153" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I153" t="n">
-        <v>3.15</v>
+        <v>2.87</v>
       </c>
       <c r="J153" t="n">
         <v>1.1</v>
@@ -19036,16 +19036,16 @@
         <v>6.2</v>
       </c>
       <c r="L153" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M153" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="N153" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O153" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P153" t="n">
         <v>1.39</v>
@@ -19057,31 +19057,31 @@
         <v>1.72</v>
       </c>
       <c r="S153" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="T153" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="U153" t="n">
-        <v>10.5</v>
+        <v>11.75</v>
       </c>
       <c r="V153" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W153" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="X153" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y153" t="n">
         <v>30</v>
       </c>
       <c r="Z153" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA153" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB153" t="n">
         <v>13.5</v>
@@ -19093,19 +19093,19 @@
         <v>500</v>
       </c>
       <c r="AE153" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF153" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AG153" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH153" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AI153" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ153" t="n">
         <v>35</v>
@@ -19143,13 +19143,13 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="H154" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="I154" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="J154" t="n">
         <v>1.12</v>
@@ -19176,22 +19176,22 @@
         <v>2.15</v>
       </c>
       <c r="R154" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S154" t="n">
         <v>1.7</v>
       </c>
       <c r="T154" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="U154" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="V154" t="n">
         <v>10.75</v>
       </c>
       <c r="W154" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X154" t="n">
         <v>29</v>
@@ -19200,25 +19200,25 @@
         <v>45</v>
       </c>
       <c r="Z154" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA154" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB154" t="n">
         <v>16</v>
       </c>
       <c r="AC154" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD154" t="n">
         <v>900</v>
       </c>
       <c r="AE154" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AF154" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AG154" t="n">
         <v>10</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-30.xlsx
@@ -3340,34 +3340,34 @@
         <v>2.15</v>
       </c>
       <c r="J24" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L24" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M24" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N24" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P24" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S24" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -3397,7 +3397,7 @@
         <v>19</v>
       </c>
       <c r="AC24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD24" t="n">
         <v>501</v>
@@ -3406,7 +3406,7 @@
         <v>6</v>
       </c>
       <c r="AF24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG24" t="n">
         <v>9.5</v>
@@ -3418,7 +3418,7 @@
         <v>21</v>
       </c>
       <c r="AJ24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
@@ -4917,25 +4917,25 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
         <v>2.88</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="J37" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K37" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="M37" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N37" t="n">
         <v>3.4</v>
@@ -4956,19 +4956,19 @@
         <v>1.5</v>
       </c>
       <c r="T37" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U37" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y37" t="n">
         <v>51</v>
@@ -4989,19 +4989,19 @@
         <v>101</v>
       </c>
       <c r="AE37" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ37" t="n">
         <v>51</v>
@@ -5763,13 +5763,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H44" t="n">
         <v>3.2</v>
       </c>
       <c r="I44" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J44" t="n">
         <v>1.04</v>
@@ -5784,10 +5784,10 @@
         <v>4.33</v>
       </c>
       <c r="N44" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O44" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P44" t="n">
         <v>1.33</v>
@@ -5802,22 +5802,22 @@
         <v>2.38</v>
       </c>
       <c r="T44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V44" t="n">
         <v>9.5</v>
       </c>
       <c r="W44" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X44" t="n">
         <v>17</v>
       </c>
       <c r="Y44" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z44" t="n">
         <v>13</v>
@@ -5838,19 +5838,19 @@
         <v>13</v>
       </c>
       <c r="AF44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ44" t="n">
         <v>29</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="45">
@@ -6129,31 +6129,31 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H47" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I47" t="n">
         <v>4.75</v>
       </c>
       <c r="J47" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K47" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L47" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N47" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="O47" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="P47" t="n">
         <v>1.44</v>
@@ -6201,7 +6201,7 @@
         <v>351</v>
       </c>
       <c r="AE47" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF47" t="n">
         <v>23</v>
@@ -6495,13 +6495,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H50" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I50" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J50" t="n">
         <v>1.06</v>
@@ -6537,13 +6537,13 @@
         <v>6.5</v>
       </c>
       <c r="U50" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V50" t="n">
         <v>8.5</v>
       </c>
       <c r="W50" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X50" t="n">
         <v>15</v>
@@ -6552,7 +6552,7 @@
         <v>29</v>
       </c>
       <c r="Z50" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA50" t="n">
         <v>7</v>
@@ -6567,10 +6567,10 @@
         <v>351</v>
       </c>
       <c r="AE50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG50" t="n">
         <v>15</v>
@@ -6857,13 +6857,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H53" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I53" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="J53" t="n">
         <v>1.1</v>
@@ -6878,10 +6878,10 @@
         <v>2.5</v>
       </c>
       <c r="N53" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O53" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P53" t="n">
         <v>1.57</v>
@@ -6896,25 +6896,25 @@
         <v>1.62</v>
       </c>
       <c r="T53" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U53" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W53" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="X53" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y53" t="n">
         <v>41</v>
       </c>
       <c r="Z53" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA53" t="n">
         <v>6.5</v>
@@ -6929,19 +6929,19 @@
         <v>351</v>
       </c>
       <c r="AE53" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF53" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AG53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH53" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AI53" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ53" t="n">
         <v>41</v>
@@ -11343,55 +11343,55 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="H90" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="J90" t="n">
         <v>1.03</v>
       </c>
       <c r="K90" t="n">
+        <v>17</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O90" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T90" t="n">
+        <v>12</v>
+      </c>
+      <c r="U90" t="n">
         <v>15</v>
       </c>
-      <c r="L90" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M90" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="N90" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="O90" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="P90" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R90" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S90" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T90" t="n">
-        <v>11</v>
-      </c>
-      <c r="U90" t="n">
-        <v>13</v>
-      </c>
       <c r="V90" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W90" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X90" t="n">
         <v>17</v>
@@ -11400,19 +11400,19 @@
         <v>21</v>
       </c>
       <c r="Z90" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA90" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB90" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC90" t="n">
         <v>34</v>
       </c>
       <c r="AD90" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE90" t="n">
         <v>13</v>
@@ -11421,16 +11421,16 @@
         <v>17</v>
       </c>
       <c r="AG90" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH90" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AI90" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ90" t="n">
         <v>21</v>
-      </c>
-      <c r="AJ90" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="91">
@@ -11465,13 +11465,13 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H91" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I91" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J91" t="n">
         <v>1.05</v>
@@ -11486,10 +11486,10 @@
         <v>3.5</v>
       </c>
       <c r="N91" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O91" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P91" t="n">
         <v>1.4</v>
@@ -11522,7 +11522,7 @@
         <v>26</v>
       </c>
       <c r="Z91" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA91" t="n">
         <v>6.5</v>
@@ -11531,13 +11531,13 @@
         <v>13</v>
       </c>
       <c r="AC91" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD91" t="n">
         <v>201</v>
       </c>
       <c r="AE91" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF91" t="n">
         <v>17</v>
@@ -18655,10 +18655,10 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H150" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I150" t="n">
         <v>5</v>
@@ -18697,7 +18697,7 @@
         <v>5.5</v>
       </c>
       <c r="U150" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V150" t="n">
         <v>9</v>
@@ -18706,7 +18706,7 @@
         <v>12</v>
       </c>
       <c r="X150" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y150" t="n">
         <v>34</v>
@@ -18730,7 +18730,7 @@
         <v>11</v>
       </c>
       <c r="AF150" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG150" t="n">
         <v>17</v>
@@ -18739,7 +18739,7 @@
         <v>51</v>
       </c>
       <c r="AI150" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ150" t="n">
         <v>51</v>
@@ -18902,16 +18902,16 @@
         <v>2.2</v>
       </c>
       <c r="H152" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I152" t="n">
         <v>3.25</v>
       </c>
       <c r="J152" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K152" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L152" t="n">
         <v>1.2</v>
@@ -18920,10 +18920,10 @@
         <v>4.33</v>
       </c>
       <c r="N152" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O152" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P152" t="n">
         <v>1.33</v>
@@ -18932,13 +18932,13 @@
         <v>3.25</v>
       </c>
       <c r="R152" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S152" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T152" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U152" t="n">
         <v>12</v>
@@ -18950,31 +18950,31 @@
         <v>21</v>
       </c>
       <c r="X152" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y152" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z152" t="n">
         <v>13</v>
       </c>
       <c r="AA152" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB152" t="n">
         <v>12</v>
       </c>
       <c r="AC152" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD152" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE152" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF152" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG152" t="n">
         <v>12</v>
@@ -18986,7 +18986,7 @@
         <v>23</v>
       </c>
       <c r="AJ152" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="153">
@@ -19143,13 +19143,13 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="H154" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="I154" t="n">
-        <v>2.57</v>
+        <v>2.7</v>
       </c>
       <c r="J154" t="n">
         <v>1.12</v>
@@ -19161,13 +19161,13 @@
         <v>1.45</v>
       </c>
       <c r="M154" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="N154" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="O154" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P154" t="n">
         <v>1.55</v>
@@ -19182,31 +19182,31 @@
         <v>1.7</v>
       </c>
       <c r="T154" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="U154" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V154" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="W154" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X154" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y154" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z154" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AA154" t="n">
         <v>5.7</v>
       </c>
       <c r="AB154" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC154" t="n">
         <v>100</v>
@@ -19215,22 +19215,22 @@
         <v>900</v>
       </c>
       <c r="AE154" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AF154" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AG154" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH154" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AI154" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AJ154" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-30.xlsx
@@ -6979,19 +6979,19 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="H54" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I54" t="n">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="J54" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L54" t="n">
         <v>1.3</v>
@@ -7000,10 +7000,10 @@
         <v>3.4</v>
       </c>
       <c r="N54" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O54" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P54" t="n">
         <v>1.4</v>
@@ -7012,10 +7012,10 @@
         <v>2.75</v>
       </c>
       <c r="R54" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S54" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="T54" t="n">
         <v>6</v>
@@ -7027,40 +7027,40 @@
         <v>8.5</v>
       </c>
       <c r="W54" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="X54" t="n">
         <v>13</v>
       </c>
       <c r="Y54" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z54" t="n">
         <v>10</v>
       </c>
       <c r="AA54" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC54" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD54" t="n">
         <v>1250</v>
       </c>
       <c r="AE54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF54" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG54" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH54" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI54" t="n">
         <v>51</v>
@@ -11465,13 +11465,13 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H91" t="n">
         <v>3.5</v>
       </c>
       <c r="I91" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J91" t="n">
         <v>1.05</v>
@@ -11486,10 +11486,10 @@
         <v>3.5</v>
       </c>
       <c r="N91" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O91" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P91" t="n">
         <v>1.4</v>
@@ -11507,13 +11507,13 @@
         <v>8</v>
       </c>
       <c r="U91" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V91" t="n">
         <v>9</v>
       </c>
       <c r="W91" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X91" t="n">
         <v>17</v>
@@ -11537,13 +11537,13 @@
         <v>201</v>
       </c>
       <c r="AE91" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF91" t="n">
         <v>17</v>
       </c>
       <c r="AG91" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH91" t="n">
         <v>34</v>
